--- a/2019 Planning calendar.xlsx
+++ b/2019 Planning calendar.xlsx
@@ -3706,7 +3706,23 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:R322" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
-  <autoFilter ref="A1:R322"/>
+  <autoFilter ref="A1:R322">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="2019"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="March"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="7">
+      <filters>
+        <filter val="W2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="18">
     <tableColumn id="15" name="Group" dataDxfId="22"/>
     <tableColumn id="1" name="Objective" dataDxfId="21"/>
@@ -4090,8 +4106,8 @@
   <dimension ref="A1:R335"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4169,7 +4185,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
         <v>820</v>
       </c>
@@ -4207,7 +4223,7 @@
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>820</v>
       </c>
@@ -4241,7 +4257,7 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>820</v>
       </c>
@@ -4275,7 +4291,7 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>819</v>
       </c>
@@ -4313,7 +4329,7 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>819</v>
       </c>
@@ -4351,7 +4367,7 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>819</v>
       </c>
@@ -4389,7 +4405,7 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>819</v>
       </c>
@@ -4427,7 +4443,7 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>819</v>
       </c>
@@ -4465,7 +4481,7 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>819</v>
       </c>
@@ -4503,7 +4519,7 @@
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>819</v>
       </c>
@@ -4541,7 +4557,7 @@
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>819</v>
       </c>
@@ -4579,7 +4595,7 @@
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>819</v>
       </c>
@@ -4617,7 +4633,7 @@
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>819</v>
       </c>
@@ -4655,7 +4671,7 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>819</v>
       </c>
@@ -4693,7 +4709,7 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>819</v>
       </c>
@@ -4731,7 +4747,7 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>821</v>
       </c>
@@ -4769,7 +4785,7 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>821</v>
       </c>
@@ -4807,7 +4823,7 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>821</v>
       </c>
@@ -4845,7 +4861,7 @@
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>821</v>
       </c>
@@ -4883,7 +4899,7 @@
       <c r="Q20" s="22"/>
       <c r="R20" s="22"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>821</v>
       </c>
@@ -4921,7 +4937,7 @@
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>821</v>
       </c>
@@ -4959,7 +4975,7 @@
       <c r="Q22" s="22"/>
       <c r="R22" s="22"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>821</v>
       </c>
@@ -4997,7 +5013,7 @@
       <c r="Q23" s="22"/>
       <c r="R23" s="22"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>821</v>
       </c>
@@ -5035,7 +5051,7 @@
       <c r="Q24" s="22"/>
       <c r="R24" s="22"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>821</v>
       </c>
@@ -5073,7 +5089,7 @@
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>821</v>
       </c>
@@ -5111,7 +5127,7 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>817</v>
       </c>
@@ -5157,7 +5173,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>817</v>
       </c>
@@ -6289,7 +6305,7 @@
       <c r="Q57" s="22"/>
       <c r="R57" s="22"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>820</v>
       </c>
@@ -6327,7 +6343,7 @@
       <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>820</v>
       </c>
@@ -6361,7 +6377,7 @@
       <c r="Q59" s="22"/>
       <c r="R59" s="22"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>820</v>
       </c>
@@ -6397,7 +6413,7 @@
       <c r="Q60" s="22"/>
       <c r="R60" s="22"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>820</v>
       </c>
@@ -6433,7 +6449,7 @@
       <c r="Q61" s="22"/>
       <c r="R61" s="22"/>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>820</v>
       </c>
@@ -6469,7 +6485,7 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>820</v>
       </c>
@@ -6505,7 +6521,7 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>820</v>
       </c>
@@ -6541,7 +6557,7 @@
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>820</v>
       </c>
@@ -6577,7 +6593,7 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
         <v>820</v>
       </c>
@@ -6613,7 +6629,7 @@
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
         <v>819</v>
       </c>
@@ -6653,7 +6669,7 @@
       <c r="Q67" s="22"/>
       <c r="R67" s="22"/>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>819</v>
       </c>
@@ -6693,7 +6709,7 @@
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>819</v>
       </c>
@@ -6733,7 +6749,7 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>819</v>
       </c>
@@ -6773,7 +6789,7 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>819</v>
       </c>
@@ -6813,7 +6829,7 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>819</v>
       </c>
@@ -6853,7 +6869,7 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>819</v>
       </c>
@@ -6893,7 +6909,7 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>819</v>
       </c>
@@ -6933,7 +6949,7 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>819</v>
       </c>
@@ -6973,7 +6989,7 @@
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>819</v>
       </c>
@@ -7013,7 +7029,7 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>819</v>
       </c>
@@ -7053,7 +7069,7 @@
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>819</v>
       </c>
@@ -7093,7 +7109,7 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>819</v>
       </c>
@@ -7133,7 +7149,7 @@
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>819</v>
       </c>
@@ -7173,7 +7189,7 @@
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>819</v>
       </c>
@@ -7213,7 +7229,7 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>819</v>
       </c>
@@ -7253,7 +7269,7 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>821</v>
       </c>
@@ -7291,7 +7307,7 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="33" t="s">
         <v>821</v>
       </c>
@@ -7329,7 +7345,7 @@
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
         <v>821</v>
       </c>
@@ -7367,7 +7383,7 @@
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
         <v>821</v>
       </c>
@@ -7405,7 +7421,7 @@
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
         <v>821</v>
       </c>
@@ -7443,7 +7459,7 @@
       <c r="Q87" s="22"/>
       <c r="R87" s="22"/>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
         <v>821</v>
       </c>
@@ -7481,7 +7497,7 @@
       <c r="Q88" s="22"/>
       <c r="R88" s="22"/>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
         <v>821</v>
       </c>
@@ -7519,7 +7535,7 @@
       <c r="Q89" s="22"/>
       <c r="R89" s="22"/>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
         <v>821</v>
       </c>
@@ -7557,7 +7573,7 @@
       <c r="Q90" s="22"/>
       <c r="R90" s="22"/>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>821</v>
       </c>
@@ -7595,7 +7611,7 @@
       <c r="Q91" s="22"/>
       <c r="R91" s="22"/>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>821</v>
       </c>
@@ -7633,7 +7649,7 @@
       <c r="Q92" s="22"/>
       <c r="R92" s="22"/>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
         <v>817</v>
       </c>
@@ -7673,7 +7689,7 @@
       <c r="Q93" s="22"/>
       <c r="R93" s="22"/>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
         <v>817</v>
       </c>
@@ -7723,7 +7739,7 @@
       <c r="Q94" s="22"/>
       <c r="R94" s="22"/>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="33" t="s">
         <v>820</v>
       </c>
@@ -7761,7 +7777,7 @@
       <c r="Q95" s="22"/>
       <c r="R95" s="22"/>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
         <v>820</v>
       </c>
@@ -7795,7 +7811,7 @@
       <c r="Q96" s="22"/>
       <c r="R96" s="22"/>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="33" t="s">
         <v>820</v>
       </c>
@@ -7831,7 +7847,7 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="22"/>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
         <v>820</v>
       </c>
@@ -7867,7 +7883,7 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
         <v>820</v>
       </c>
@@ -7903,7 +7919,7 @@
       <c r="Q99" s="22"/>
       <c r="R99" s="22"/>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
         <v>820</v>
       </c>
@@ -7939,7 +7955,7 @@
       <c r="Q100" s="22"/>
       <c r="R100" s="22"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>820</v>
       </c>
@@ -7975,7 +7991,7 @@
       <c r="Q101" s="22"/>
       <c r="R101" s="22"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>820</v>
       </c>
@@ -8011,7 +8027,7 @@
       <c r="Q102" s="22"/>
       <c r="R102" s="22"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="33" t="s">
         <v>817</v>
       </c>
@@ -8051,7 +8067,7 @@
       <c r="Q103" s="22"/>
       <c r="R103" s="22"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>821</v>
       </c>
@@ -8085,7 +8101,7 @@
       <c r="Q104" s="22"/>
       <c r="R104" s="22"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>820</v>
       </c>
@@ -8121,7 +8137,7 @@
       <c r="Q105" s="22"/>
       <c r="R105" s="22"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>819</v>
       </c>
@@ -8161,7 +8177,7 @@
       <c r="Q106" s="22"/>
       <c r="R106" s="22"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>819</v>
       </c>
@@ -8201,7 +8217,7 @@
       <c r="Q107" s="22"/>
       <c r="R107" s="22"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
         <v>819</v>
       </c>
@@ -8241,7 +8257,7 @@
       <c r="Q108" s="22"/>
       <c r="R108" s="22"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>819</v>
       </c>
@@ -8281,7 +8297,7 @@
       <c r="Q109" s="22"/>
       <c r="R109" s="22"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>820</v>
       </c>
@@ -8319,7 +8335,7 @@
       <c r="Q110" s="22"/>
       <c r="R110" s="22"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>820</v>
       </c>
@@ -8355,7 +8371,7 @@
       <c r="Q111" s="22"/>
       <c r="R111" s="22"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="33" t="s">
         <v>820</v>
       </c>
@@ -8391,7 +8407,7 @@
       <c r="Q112" s="22"/>
       <c r="R112" s="22"/>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="33" t="s">
         <v>820</v>
       </c>
@@ -8427,7 +8443,7 @@
       <c r="Q113" s="22"/>
       <c r="R113" s="22"/>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
         <v>820</v>
       </c>
@@ -8463,7 +8479,7 @@
       <c r="Q114" s="22"/>
       <c r="R114" s="22"/>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="33" t="s">
         <v>820</v>
       </c>
@@ -8499,7 +8515,7 @@
       <c r="Q115" s="22"/>
       <c r="R115" s="22"/>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="33" t="s">
         <v>820</v>
       </c>
@@ -8535,7 +8551,7 @@
       <c r="Q116" s="22"/>
       <c r="R116" s="22"/>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
         <v>820</v>
       </c>
@@ -8571,7 +8587,7 @@
       <c r="Q117" s="22"/>
       <c r="R117" s="22"/>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="33" t="s">
         <v>820</v>
       </c>
@@ -8607,7 +8623,7 @@
       <c r="Q118" s="22"/>
       <c r="R118" s="22"/>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="33" t="s">
         <v>820</v>
       </c>
@@ -8643,7 +8659,7 @@
       <c r="Q119" s="22"/>
       <c r="R119" s="22"/>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
         <v>820</v>
       </c>
@@ -8679,7 +8695,7 @@
       <c r="Q120" s="22"/>
       <c r="R120" s="22"/>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
         <v>820</v>
       </c>
@@ -8715,7 +8731,7 @@
       <c r="Q121" s="22"/>
       <c r="R121" s="22"/>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="33" t="s">
         <v>820</v>
       </c>
@@ -8751,7 +8767,7 @@
       <c r="Q122" s="22"/>
       <c r="R122" s="22"/>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="33" t="s">
         <v>820</v>
       </c>
@@ -8787,7 +8803,7 @@
       <c r="Q123" s="22"/>
       <c r="R123" s="22"/>
     </row>
-    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>817</v>
       </c>
@@ -8823,7 +8839,7 @@
       <c r="Q124" s="22"/>
       <c r="R124" s="22"/>
     </row>
-    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="33" t="s">
         <v>817</v>
       </c>
@@ -8859,7 +8875,7 @@
       <c r="Q125" s="22"/>
       <c r="R125" s="22"/>
     </row>
-    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="33" t="s">
         <v>817</v>
       </c>
@@ -8899,7 +8915,7 @@
       <c r="Q126" s="22"/>
       <c r="R126" s="22"/>
     </row>
-    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="33" t="s">
         <v>820</v>
       </c>
@@ -8937,7 +8953,7 @@
       <c r="Q127" s="22"/>
       <c r="R127" s="22"/>
     </row>
-    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="33" t="s">
         <v>820</v>
       </c>
@@ -8973,7 +8989,7 @@
       <c r="Q128" s="22"/>
       <c r="R128" s="22"/>
     </row>
-    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="33" t="s">
         <v>820</v>
       </c>
@@ -9009,7 +9025,7 @@
       <c r="Q129" s="22"/>
       <c r="R129" s="22"/>
     </row>
-    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="33" t="s">
         <v>820</v>
       </c>
@@ -9045,7 +9061,7 @@
       <c r="Q130" s="22"/>
       <c r="R130" s="22"/>
     </row>
-    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
         <v>820</v>
       </c>
@@ -9081,7 +9097,7 @@
       <c r="Q131" s="22"/>
       <c r="R131" s="22"/>
     </row>
-    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="33" t="s">
         <v>820</v>
       </c>
@@ -9117,7 +9133,7 @@
       <c r="Q132" s="22"/>
       <c r="R132" s="22"/>
     </row>
-    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>820</v>
       </c>
@@ -9153,7 +9169,7 @@
       <c r="Q133" s="22"/>
       <c r="R133" s="22"/>
     </row>
-    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>820</v>
       </c>
@@ -9189,7 +9205,7 @@
       <c r="Q134" s="22"/>
       <c r="R134" s="22"/>
     </row>
-    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>817</v>
       </c>
@@ -9229,7 +9245,7 @@
       <c r="Q135" s="22"/>
       <c r="R135" s="22"/>
     </row>
-    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="33" t="s">
         <v>817</v>
       </c>
@@ -9279,7 +9295,7 @@
       <c r="Q136" s="22"/>
       <c r="R136" s="22"/>
     </row>
-    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="33" t="s">
         <v>821</v>
       </c>
@@ -9313,7 +9329,7 @@
       <c r="Q137" s="22"/>
       <c r="R137" s="22"/>
     </row>
-    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="33" t="s">
         <v>820</v>
       </c>
@@ -9351,7 +9367,7 @@
       <c r="Q138" s="22"/>
       <c r="R138" s="22"/>
     </row>
-    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="33" t="s">
         <v>820</v>
       </c>
@@ -9387,7 +9403,7 @@
       <c r="Q139" s="22"/>
       <c r="R139" s="22"/>
     </row>
-    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="33" t="s">
         <v>820</v>
       </c>
@@ -9423,7 +9439,7 @@
       <c r="Q140" s="22"/>
       <c r="R140" s="22"/>
     </row>
-    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="33" t="s">
         <v>820</v>
       </c>
@@ -9459,7 +9475,7 @@
       <c r="Q141" s="22"/>
       <c r="R141" s="22"/>
     </row>
-    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="33" t="s">
         <v>820</v>
       </c>
@@ -9495,7 +9511,7 @@
       <c r="Q142" s="22"/>
       <c r="R142" s="22"/>
     </row>
-    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="33" t="s">
         <v>820</v>
       </c>
@@ -9531,7 +9547,7 @@
       <c r="Q143" s="22"/>
       <c r="R143" s="22"/>
     </row>
-    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="33" t="s">
         <v>820</v>
       </c>
@@ -9567,7 +9583,7 @@
       <c r="Q144" s="22"/>
       <c r="R144" s="22"/>
     </row>
-    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="33" t="s">
         <v>820</v>
       </c>
@@ -9605,7 +9621,7 @@
       <c r="Q145" s="22"/>
       <c r="R145" s="22"/>
     </row>
-    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="33" t="s">
         <v>820</v>
       </c>
@@ -9641,7 +9657,7 @@
       <c r="Q146" s="22"/>
       <c r="R146" s="22"/>
     </row>
-    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="33" t="s">
         <v>820</v>
       </c>
@@ -9677,7 +9693,7 @@
       <c r="Q147" s="22"/>
       <c r="R147" s="22"/>
     </row>
-    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="33" t="s">
         <v>820</v>
       </c>
@@ -9713,7 +9729,7 @@
       <c r="Q148" s="22"/>
       <c r="R148" s="22"/>
     </row>
-    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="33" t="s">
         <v>820</v>
       </c>
@@ -9749,7 +9765,7 @@
       <c r="Q149" s="22"/>
       <c r="R149" s="22"/>
     </row>
-    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="33" t="s">
         <v>820</v>
       </c>
@@ -9785,7 +9801,7 @@
       <c r="Q150" s="22"/>
       <c r="R150" s="22"/>
     </row>
-    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="33" t="s">
         <v>820</v>
       </c>
@@ -9821,7 +9837,7 @@
       <c r="Q151" s="22"/>
       <c r="R151" s="22"/>
     </row>
-    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
         <v>820</v>
       </c>
@@ -9857,7 +9873,7 @@
       <c r="Q152" s="22"/>
       <c r="R152" s="22"/>
     </row>
-    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
         <v>820</v>
       </c>
@@ -9893,7 +9909,7 @@
       <c r="Q153" s="22"/>
       <c r="R153" s="22"/>
     </row>
-    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="33" t="s">
         <v>817</v>
       </c>
@@ -9929,7 +9945,7 @@
       <c r="Q154" s="22"/>
       <c r="R154" s="22"/>
     </row>
-    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="33" t="s">
         <v>821</v>
       </c>
@@ -9963,7 +9979,7 @@
       <c r="Q155" s="22"/>
       <c r="R155" s="22"/>
     </row>
-    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="33" t="s">
         <v>820</v>
       </c>
@@ -9999,7 +10015,7 @@
       <c r="Q156" s="22"/>
       <c r="R156" s="22"/>
     </row>
-    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="33" t="s">
         <v>820</v>
       </c>
@@ -10035,7 +10051,7 @@
       <c r="Q157" s="22"/>
       <c r="R157" s="22"/>
     </row>
-    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="33" t="s">
         <v>820</v>
       </c>
@@ -10073,7 +10089,7 @@
       <c r="Q158" s="22"/>
       <c r="R158" s="22"/>
     </row>
-    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
         <v>820</v>
       </c>
@@ -10109,7 +10125,7 @@
       <c r="Q159" s="22"/>
       <c r="R159" s="22"/>
     </row>
-    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
         <v>820</v>
       </c>
@@ -10147,7 +10163,7 @@
       <c r="Q160" s="22"/>
       <c r="R160" s="22"/>
     </row>
-    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
         <v>820</v>
       </c>
@@ -10183,7 +10199,7 @@
       <c r="Q161" s="22"/>
       <c r="R161" s="22"/>
     </row>
-    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
         <v>820</v>
       </c>
@@ -10219,7 +10235,7 @@
       <c r="Q162" s="22"/>
       <c r="R162" s="22"/>
     </row>
-    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
         <v>820</v>
       </c>
@@ -10255,7 +10271,7 @@
       <c r="Q163" s="22"/>
       <c r="R163" s="22"/>
     </row>
-    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
         <v>820</v>
       </c>
@@ -10291,7 +10307,7 @@
       <c r="Q164" s="22"/>
       <c r="R164" s="22"/>
     </row>
-    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
         <v>820</v>
       </c>
@@ -10327,7 +10343,7 @@
       <c r="Q165" s="22"/>
       <c r="R165" s="22"/>
     </row>
-    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="33" t="s">
         <v>820</v>
       </c>
@@ -10363,7 +10379,7 @@
       <c r="Q166" s="22"/>
       <c r="R166" s="22"/>
     </row>
-    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="33" t="s">
         <v>820</v>
       </c>
@@ -10399,7 +10415,7 @@
       <c r="Q167" s="22"/>
       <c r="R167" s="22"/>
     </row>
-    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="33" t="s">
         <v>820</v>
       </c>
@@ -10435,7 +10451,7 @@
       <c r="Q168" s="22"/>
       <c r="R168" s="22"/>
     </row>
-    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="33" t="s">
         <v>820</v>
       </c>
@@ -10471,7 +10487,7 @@
       <c r="Q169" s="22"/>
       <c r="R169" s="22"/>
     </row>
-    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="33" t="s">
         <v>820</v>
       </c>
@@ -10507,7 +10523,7 @@
       <c r="Q170" s="22"/>
       <c r="R170" s="22"/>
     </row>
-    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="33" t="s">
         <v>820</v>
       </c>
@@ -10543,7 +10559,7 @@
       <c r="Q171" s="22"/>
       <c r="R171" s="22"/>
     </row>
-    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="33" t="s">
         <v>819</v>
       </c>
@@ -10581,7 +10597,7 @@
       <c r="Q172" s="22"/>
       <c r="R172" s="22"/>
     </row>
-    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="33" t="s">
         <v>819</v>
       </c>
@@ -10619,7 +10635,7 @@
       <c r="Q173" s="22"/>
       <c r="R173" s="22"/>
     </row>
-    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="33" t="s">
         <v>819</v>
       </c>
@@ -10657,7 +10673,7 @@
       <c r="Q174" s="22"/>
       <c r="R174" s="22"/>
     </row>
-    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="33" t="s">
         <v>819</v>
       </c>
@@ -10695,7 +10711,7 @@
       <c r="Q175" s="22"/>
       <c r="R175" s="22"/>
     </row>
-    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
         <v>819</v>
       </c>
@@ -10733,7 +10749,7 @@
       <c r="Q176" s="22"/>
       <c r="R176" s="22"/>
     </row>
-    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="33" t="s">
         <v>819</v>
       </c>
@@ -10771,7 +10787,7 @@
       <c r="Q177" s="22"/>
       <c r="R177" s="22"/>
     </row>
-    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
         <v>817</v>
       </c>
@@ -10811,7 +10827,7 @@
       <c r="Q178" s="22"/>
       <c r="R178" s="22"/>
     </row>
-    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
         <v>820</v>
       </c>
@@ -10849,7 +10865,7 @@
       <c r="Q179" s="22"/>
       <c r="R179" s="22"/>
     </row>
-    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
         <v>820</v>
       </c>
@@ -10885,7 +10901,7 @@
       <c r="Q180" s="22"/>
       <c r="R180" s="22"/>
     </row>
-    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
         <v>820</v>
       </c>
@@ -10921,7 +10937,7 @@
       <c r="Q181" s="22"/>
       <c r="R181" s="22"/>
     </row>
-    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
         <v>820</v>
       </c>
@@ -10957,7 +10973,7 @@
       <c r="Q182" s="22"/>
       <c r="R182" s="22"/>
     </row>
-    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
         <v>820</v>
       </c>
@@ -10993,7 +11009,7 @@
       <c r="Q183" s="22"/>
       <c r="R183" s="22"/>
     </row>
-    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
         <v>820</v>
       </c>
@@ -11029,7 +11045,7 @@
       <c r="Q184" s="22"/>
       <c r="R184" s="22"/>
     </row>
-    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
         <v>820</v>
       </c>
@@ -11065,7 +11081,7 @@
       <c r="Q185" s="22"/>
       <c r="R185" s="22"/>
     </row>
-    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
         <v>820</v>
       </c>
@@ -11101,7 +11117,7 @@
       <c r="Q186" s="22"/>
       <c r="R186" s="22"/>
     </row>
-    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
         <v>820</v>
       </c>
@@ -11137,7 +11153,7 @@
       <c r="Q187" s="22"/>
       <c r="R187" s="22"/>
     </row>
-    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="33" t="s">
         <v>820</v>
       </c>
@@ -11173,7 +11189,7 @@
       <c r="Q188" s="22"/>
       <c r="R188" s="22"/>
     </row>
-    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="33" t="s">
         <v>820</v>
       </c>
@@ -11209,7 +11225,7 @@
       <c r="Q189" s="22"/>
       <c r="R189" s="22"/>
     </row>
-    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="33" t="s">
         <v>819</v>
       </c>
@@ -11247,7 +11263,7 @@
       <c r="Q190" s="22"/>
       <c r="R190" s="22"/>
     </row>
-    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="33" t="s">
         <v>819</v>
       </c>
@@ -11285,7 +11301,7 @@
       <c r="Q191" s="22"/>
       <c r="R191" s="22"/>
     </row>
-    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="33" t="s">
         <v>819</v>
       </c>
@@ -11323,7 +11339,7 @@
       <c r="Q192" s="22"/>
       <c r="R192" s="22"/>
     </row>
-    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="33" t="s">
         <v>819</v>
       </c>
@@ -11361,7 +11377,7 @@
       <c r="Q193" s="22"/>
       <c r="R193" s="22"/>
     </row>
-    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="33" t="s">
         <v>819</v>
       </c>
@@ -11399,7 +11415,7 @@
       <c r="Q194" s="22"/>
       <c r="R194" s="22"/>
     </row>
-    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="33" t="s">
         <v>819</v>
       </c>
@@ -11437,7 +11453,7 @@
       <c r="Q195" s="22"/>
       <c r="R195" s="22"/>
     </row>
-    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="33" t="s">
         <v>819</v>
       </c>
@@ -11475,7 +11491,7 @@
       <c r="Q196" s="22"/>
       <c r="R196" s="22"/>
     </row>
-    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="33" t="s">
         <v>819</v>
       </c>
@@ -11513,7 +11529,7 @@
       <c r="Q197" s="22"/>
       <c r="R197" s="22"/>
     </row>
-    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
         <v>819</v>
       </c>
@@ -11551,7 +11567,7 @@
       <c r="Q198" s="22"/>
       <c r="R198" s="22"/>
     </row>
-    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
         <v>819</v>
       </c>
@@ -11589,7 +11605,7 @@
       <c r="Q199" s="22"/>
       <c r="R199" s="22"/>
     </row>
-    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
         <v>821</v>
       </c>
@@ -11623,7 +11639,7 @@
       <c r="Q200" s="22"/>
       <c r="R200" s="22"/>
     </row>
-    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>820</v>
       </c>
@@ -11659,7 +11675,7 @@
       <c r="Q201" s="22"/>
       <c r="R201" s="22"/>
     </row>
-    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
         <v>820</v>
       </c>
@@ -11695,7 +11711,7 @@
       <c r="Q202" s="22"/>
       <c r="R202" s="22"/>
     </row>
-    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="33" t="s">
         <v>820</v>
       </c>
@@ -11731,7 +11747,7 @@
       <c r="Q203" s="22"/>
       <c r="R203" s="22"/>
     </row>
-    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="33" t="s">
         <v>820</v>
       </c>
@@ -11767,7 +11783,7 @@
       <c r="Q204" s="22"/>
       <c r="R204" s="22"/>
     </row>
-    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="33" t="s">
         <v>820</v>
       </c>
@@ -11803,7 +11819,7 @@
       <c r="Q205" s="22"/>
       <c r="R205" s="22"/>
     </row>
-    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="33" t="s">
         <v>820</v>
       </c>
@@ -11839,7 +11855,7 @@
       <c r="Q206" s="22"/>
       <c r="R206" s="22"/>
     </row>
-    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="33" t="s">
         <v>820</v>
       </c>
@@ -11875,7 +11891,7 @@
       <c r="Q207" s="22"/>
       <c r="R207" s="22"/>
     </row>
-    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="33" t="s">
         <v>820</v>
       </c>
@@ -11911,7 +11927,7 @@
       <c r="Q208" s="22"/>
       <c r="R208" s="22"/>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="33" t="s">
         <v>820</v>
       </c>
@@ -11947,7 +11963,7 @@
       <c r="Q209" s="22"/>
       <c r="R209" s="22"/>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="33" t="s">
         <v>819</v>
       </c>
@@ -11987,7 +12003,7 @@
       <c r="Q210" s="22"/>
       <c r="R210" s="22"/>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="33" t="s">
         <v>819</v>
       </c>
@@ -12027,7 +12043,7 @@
       <c r="Q211" s="22"/>
       <c r="R211" s="22"/>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="33" t="s">
         <v>819</v>
       </c>
@@ -12067,7 +12083,7 @@
       <c r="Q212" s="22"/>
       <c r="R212" s="22"/>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="33" t="s">
         <v>819</v>
       </c>
@@ -12107,7 +12123,7 @@
       <c r="Q213" s="22"/>
       <c r="R213" s="22"/>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="33" t="s">
         <v>820</v>
       </c>
@@ -12143,7 +12159,7 @@
       <c r="Q214" s="22"/>
       <c r="R214" s="22"/>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="33" t="s">
         <v>820</v>
       </c>
@@ -12179,7 +12195,7 @@
       <c r="Q215" s="22"/>
       <c r="R215" s="22"/>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="33" t="s">
         <v>820</v>
       </c>
@@ -12215,7 +12231,7 @@
       <c r="Q216" s="22"/>
       <c r="R216" s="22"/>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
         <v>820</v>
       </c>
@@ -12251,7 +12267,7 @@
       <c r="Q217" s="22"/>
       <c r="R217" s="22"/>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="33" t="s">
         <v>820</v>
       </c>
@@ -12287,7 +12303,7 @@
       <c r="Q218" s="22"/>
       <c r="R218" s="22"/>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="33" t="s">
         <v>821</v>
       </c>
@@ -12321,7 +12337,7 @@
       <c r="Q219" s="22"/>
       <c r="R219" s="22"/>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>820</v>
       </c>
@@ -12357,7 +12373,7 @@
       <c r="Q220" s="22"/>
       <c r="R220" s="22"/>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
         <v>820</v>
       </c>
@@ -12393,7 +12409,7 @@
       <c r="Q221" s="22"/>
       <c r="R221" s="22"/>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>819</v>
       </c>
@@ -12433,7 +12449,7 @@
       <c r="Q222" s="22"/>
       <c r="R222" s="22"/>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
         <v>819</v>
       </c>
@@ -12473,7 +12489,7 @@
       <c r="Q223" s="22"/>
       <c r="R223" s="22"/>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
         <v>819</v>
       </c>
@@ -12513,7 +12529,7 @@
       <c r="Q224" s="22"/>
       <c r="R224" s="22"/>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
         <v>819</v>
       </c>
@@ -12553,7 +12569,7 @@
       <c r="Q225" s="22"/>
       <c r="R225" s="22"/>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
         <v>819</v>
       </c>
@@ -12593,7 +12609,7 @@
       <c r="Q226" s="22"/>
       <c r="R226" s="22"/>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
         <v>819</v>
       </c>
@@ -12631,7 +12647,7 @@
       <c r="Q227" s="22"/>
       <c r="R227" s="22"/>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
         <v>819</v>
       </c>
@@ -12669,7 +12685,7 @@
       <c r="Q228" s="22"/>
       <c r="R228" s="22"/>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="33" t="s">
         <v>820</v>
       </c>
@@ -12705,7 +12721,7 @@
       <c r="Q229" s="22"/>
       <c r="R229" s="22"/>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="33" t="s">
         <v>820</v>
       </c>
@@ -12741,7 +12757,7 @@
       <c r="Q230" s="22"/>
       <c r="R230" s="22"/>
     </row>
-    <row r="231" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="33" t="s">
         <v>820</v>
       </c>
@@ -12777,7 +12793,7 @@
       <c r="Q231" s="22"/>
       <c r="R231" s="22"/>
     </row>
-    <row r="232" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="33" t="s">
         <v>820</v>
       </c>
@@ -12813,7 +12829,7 @@
       <c r="Q232" s="22"/>
       <c r="R232" s="22"/>
     </row>
-    <row r="233" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="33" t="s">
         <v>820</v>
       </c>
@@ -12849,7 +12865,7 @@
       <c r="Q233" s="22"/>
       <c r="R233" s="22"/>
     </row>
-    <row r="234" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="33" t="s">
         <v>820</v>
       </c>
@@ -12885,7 +12901,7 @@
       <c r="Q234" s="22"/>
       <c r="R234" s="22"/>
     </row>
-    <row r="235" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="33" t="s">
         <v>820</v>
       </c>
@@ -12921,7 +12937,7 @@
       <c r="Q235" s="22"/>
       <c r="R235" s="22"/>
     </row>
-    <row r="236" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="33" t="s">
         <v>820</v>
       </c>
@@ -12957,7 +12973,7 @@
       <c r="Q236" s="22"/>
       <c r="R236" s="22"/>
     </row>
-    <row r="237" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
         <v>820</v>
       </c>
@@ -12993,7 +13009,7 @@
       <c r="Q237" s="22"/>
       <c r="R237" s="22"/>
     </row>
-    <row r="238" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
         <v>817</v>
       </c>
@@ -13029,7 +13045,7 @@
       <c r="Q238" s="22"/>
       <c r="R238" s="22"/>
     </row>
-    <row r="239" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
         <v>817</v>
       </c>
@@ -13069,7 +13085,7 @@
       <c r="Q239" s="22"/>
       <c r="R239" s="22"/>
     </row>
-    <row r="240" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
         <v>819</v>
       </c>
@@ -13109,7 +13125,7 @@
       <c r="Q240" s="22"/>
       <c r="R240" s="22"/>
     </row>
-    <row r="241" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
         <v>819</v>
       </c>
@@ -13147,7 +13163,7 @@
       <c r="Q241" s="22"/>
       <c r="R241" s="22"/>
     </row>
-    <row r="242" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
         <v>819</v>
       </c>
@@ -13185,7 +13201,7 @@
       <c r="Q242" s="22"/>
       <c r="R242" s="22"/>
     </row>
-    <row r="243" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="33" t="s">
         <v>819</v>
       </c>
@@ -13223,7 +13239,7 @@
       <c r="Q243" s="22"/>
       <c r="R243" s="22"/>
     </row>
-    <row r="244" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
         <v>819</v>
       </c>
@@ -13261,7 +13277,7 @@
       <c r="Q244" s="22"/>
       <c r="R244" s="22"/>
     </row>
-    <row r="245" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
         <v>820</v>
       </c>
@@ -13297,7 +13313,7 @@
       <c r="Q245" s="22"/>
       <c r="R245" s="22"/>
     </row>
-    <row r="246" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="33" t="s">
         <v>817</v>
       </c>
@@ -13347,7 +13363,7 @@
       <c r="Q246" s="22"/>
       <c r="R246" s="22"/>
     </row>
-    <row r="247" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="33" t="s">
         <v>821</v>
       </c>
@@ -13381,7 +13397,7 @@
       <c r="Q247" s="22"/>
       <c r="R247" s="22"/>
     </row>
-    <row r="248" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
         <v>820</v>
       </c>
@@ -13417,7 +13433,7 @@
       <c r="Q248" s="22"/>
       <c r="R248" s="22"/>
     </row>
-    <row r="249" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="33" t="s">
         <v>820</v>
       </c>
@@ -13453,7 +13469,7 @@
       <c r="Q249" s="22"/>
       <c r="R249" s="22"/>
     </row>
-    <row r="250" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="33" t="s">
         <v>821</v>
       </c>
@@ -13487,7 +13503,7 @@
       <c r="Q250" s="22"/>
       <c r="R250" s="22"/>
     </row>
-    <row r="251" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>820</v>
       </c>
@@ -13523,7 +13539,7 @@
       <c r="Q251" s="22"/>
       <c r="R251" s="22"/>
     </row>
-    <row r="252" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="33" t="s">
         <v>820</v>
       </c>
@@ -13559,7 +13575,7 @@
       <c r="Q252" s="22"/>
       <c r="R252" s="22"/>
     </row>
-    <row r="253" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="33" t="s">
         <v>820</v>
       </c>
@@ -13595,7 +13611,7 @@
       <c r="Q253" s="22"/>
       <c r="R253" s="22"/>
     </row>
-    <row r="254" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
         <v>820</v>
       </c>
@@ -13631,7 +13647,7 @@
       <c r="Q254" s="22"/>
       <c r="R254" s="22"/>
     </row>
-    <row r="255" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="33" t="s">
         <v>820</v>
       </c>
@@ -13667,7 +13683,7 @@
       <c r="Q255" s="22"/>
       <c r="R255" s="22"/>
     </row>
-    <row r="256" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
         <v>817</v>
       </c>
@@ -13707,7 +13723,7 @@
       <c r="Q256" s="22"/>
       <c r="R256" s="22"/>
     </row>
-    <row r="257" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
         <v>820</v>
       </c>
@@ -13743,7 +13759,7 @@
       <c r="Q257" s="22"/>
       <c r="R257" s="22"/>
     </row>
-    <row r="258" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="33" t="s">
         <v>817</v>
       </c>
@@ -13783,7 +13799,7 @@
       <c r="Q258" s="22"/>
       <c r="R258" s="22"/>
     </row>
-    <row r="259" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="33" t="s">
         <v>821</v>
       </c>
@@ -13817,7 +13833,7 @@
       <c r="Q259" s="22"/>
       <c r="R259" s="22"/>
     </row>
-    <row r="260" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
         <v>820</v>
       </c>
@@ -13853,7 +13869,7 @@
       <c r="Q260" s="22"/>
       <c r="R260" s="22"/>
     </row>
-    <row r="261" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
         <v>820</v>
       </c>
@@ -13889,7 +13905,7 @@
       <c r="Q261" s="22"/>
       <c r="R261" s="22"/>
     </row>
-    <row r="262" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="33" t="s">
         <v>821</v>
       </c>
@@ -13923,7 +13939,7 @@
       <c r="Q262" s="22"/>
       <c r="R262" s="22"/>
     </row>
-    <row r="263" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="33" t="s">
         <v>820</v>
       </c>
@@ -13959,7 +13975,7 @@
       <c r="Q263" s="22"/>
       <c r="R263" s="22"/>
     </row>
-    <row r="264" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="33" t="s">
         <v>820</v>
       </c>
@@ -13995,7 +14011,7 @@
       <c r="Q264" s="22"/>
       <c r="R264" s="22"/>
     </row>
-    <row r="265" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
         <v>820</v>
       </c>
@@ -14031,7 +14047,7 @@
       <c r="Q265" s="22"/>
       <c r="R265" s="22"/>
     </row>
-    <row r="266" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="33" t="s">
         <v>820</v>
       </c>
@@ -14067,7 +14083,7 @@
       <c r="Q266" s="22"/>
       <c r="R266" s="22"/>
     </row>
-    <row r="267" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="33" t="s">
         <v>821</v>
       </c>
@@ -14101,7 +14117,7 @@
       <c r="Q267" s="22"/>
       <c r="R267" s="22"/>
     </row>
-    <row r="268" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
         <v>820</v>
       </c>
@@ -14137,7 +14153,7 @@
       <c r="Q268" s="22"/>
       <c r="R268" s="22"/>
     </row>
-    <row r="269" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
         <v>820</v>
       </c>
@@ -14173,7 +14189,7 @@
       <c r="Q269" s="22"/>
       <c r="R269" s="22"/>
     </row>
-    <row r="270" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="33" t="s">
         <v>821</v>
       </c>
@@ -14207,7 +14223,7 @@
       <c r="Q270" s="22"/>
       <c r="R270" s="22"/>
     </row>
-    <row r="271" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="33" t="s">
         <v>820</v>
       </c>
@@ -14243,7 +14259,7 @@
       <c r="Q271" s="22"/>
       <c r="R271" s="22"/>
     </row>
-    <row r="272" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="33" t="s">
         <v>820</v>
       </c>
@@ -14279,7 +14295,7 @@
       <c r="Q272" s="22"/>
       <c r="R272" s="22"/>
     </row>
-    <row r="273" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
         <v>820</v>
       </c>
@@ -14315,7 +14331,7 @@
       <c r="Q273" s="22"/>
       <c r="R273" s="22"/>
     </row>
-    <row r="274" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="33" t="s">
         <v>820</v>
       </c>
@@ -14351,7 +14367,7 @@
       <c r="Q274" s="22"/>
       <c r="R274" s="22"/>
     </row>
-    <row r="275" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
         <v>821</v>
       </c>
@@ -14385,7 +14401,7 @@
       <c r="Q275" s="22"/>
       <c r="R275" s="22"/>
     </row>
-    <row r="276" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
         <v>820</v>
       </c>
@@ -14421,7 +14437,7 @@
       <c r="Q276" s="22"/>
       <c r="R276" s="22"/>
     </row>
-    <row r="277" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
         <v>821</v>
       </c>
@@ -14455,7 +14471,7 @@
       <c r="Q277" s="22"/>
       <c r="R277" s="22"/>
     </row>
-    <row r="278" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
         <v>820</v>
       </c>
@@ -14491,7 +14507,7 @@
       <c r="Q278" s="22"/>
       <c r="R278" s="22"/>
     </row>
-    <row r="279" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
         <v>820</v>
       </c>
@@ -14527,7 +14543,7 @@
       <c r="Q279" s="22"/>
       <c r="R279" s="22"/>
     </row>
-    <row r="280" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="33" t="s">
         <v>819</v>
       </c>
@@ -14565,7 +14581,7 @@
       <c r="Q280" s="22"/>
       <c r="R280" s="22"/>
     </row>
-    <row r="281" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
         <v>819</v>
       </c>
@@ -14603,7 +14619,7 @@
       <c r="Q281" s="22"/>
       <c r="R281" s="22"/>
     </row>
-    <row r="282" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
         <v>819</v>
       </c>
@@ -14641,7 +14657,7 @@
       <c r="Q282" s="22"/>
       <c r="R282" s="22"/>
     </row>
-    <row r="283" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
         <v>819</v>
       </c>
@@ -14679,7 +14695,7 @@
       <c r="Q283" s="22"/>
       <c r="R283" s="22"/>
     </row>
-    <row r="284" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
         <v>819</v>
       </c>
@@ -14717,7 +14733,7 @@
       <c r="Q284" s="22"/>
       <c r="R284" s="22"/>
     </row>
-    <row r="285" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
         <v>819</v>
       </c>
@@ -14755,7 +14771,7 @@
       <c r="Q285" s="22"/>
       <c r="R285" s="22"/>
     </row>
-    <row r="286" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
         <v>821</v>
       </c>
@@ -14789,7 +14805,7 @@
       <c r="Q286" s="22"/>
       <c r="R286" s="22"/>
     </row>
-    <row r="287" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
         <v>819</v>
       </c>
@@ -14827,7 +14843,7 @@
       <c r="Q287" s="22"/>
       <c r="R287" s="22"/>
     </row>
-    <row r="288" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
         <v>819</v>
       </c>
@@ -14865,7 +14881,7 @@
       <c r="Q288" s="22"/>
       <c r="R288" s="22"/>
     </row>
-    <row r="289" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
         <v>821</v>
       </c>
@@ -14899,7 +14915,7 @@
       <c r="Q289" s="22"/>
       <c r="R289" s="22"/>
     </row>
-    <row r="290" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
         <v>817</v>
       </c>
@@ -14937,7 +14953,7 @@
       <c r="Q290" s="22"/>
       <c r="R290" s="22"/>
     </row>
-    <row r="291" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
         <v>817</v>
       </c>
@@ -14977,7 +14993,7 @@
       <c r="Q291" s="22"/>
       <c r="R291" s="22"/>
     </row>
-    <row r="292" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="33" t="s">
         <v>819</v>
       </c>
@@ -15015,7 +15031,7 @@
       <c r="Q292" s="22"/>
       <c r="R292" s="22"/>
     </row>
-    <row r="293" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
         <v>820</v>
       </c>
@@ -15051,7 +15067,7 @@
       <c r="Q293" s="22"/>
       <c r="R293" s="22"/>
     </row>
-    <row r="294" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
         <v>820</v>
       </c>
@@ -15087,7 +15103,7 @@
       <c r="Q294" s="22"/>
       <c r="R294" s="22"/>
     </row>
-    <row r="295" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
         <v>821</v>
       </c>
@@ -15121,7 +15137,7 @@
       <c r="Q295" s="22"/>
       <c r="R295" s="22"/>
     </row>
-    <row r="296" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
         <v>821</v>
       </c>
@@ -15155,7 +15171,7 @@
       <c r="Q296" s="22"/>
       <c r="R296" s="22"/>
     </row>
-    <row r="297" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
         <v>821</v>
       </c>
@@ -15189,7 +15205,7 @@
       <c r="Q297" s="22"/>
       <c r="R297" s="22"/>
     </row>
-    <row r="298" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
         <v>817</v>
       </c>
@@ -15227,7 +15243,7 @@
       <c r="Q298" s="22"/>
       <c r="R298" s="22"/>
     </row>
-    <row r="299" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="33" t="s">
         <v>817</v>
       </c>
@@ -15267,7 +15283,7 @@
       <c r="Q299" s="22"/>
       <c r="R299" s="22"/>
     </row>
-    <row r="300" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
         <v>820</v>
       </c>
@@ -15303,7 +15319,7 @@
       <c r="Q300" s="22"/>
       <c r="R300" s="22"/>
     </row>
-    <row r="301" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
         <v>820</v>
       </c>
@@ -15339,7 +15355,7 @@
       <c r="Q301" s="22"/>
       <c r="R301" s="22"/>
     </row>
-    <row r="302" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
         <v>821</v>
       </c>
@@ -15373,7 +15389,7 @@
       <c r="Q302" s="22"/>
       <c r="R302" s="22"/>
     </row>
-    <row r="303" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
         <v>821</v>
       </c>
@@ -15407,7 +15423,7 @@
       <c r="Q303" s="22"/>
       <c r="R303" s="22"/>
     </row>
-    <row r="304" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="s">
         <v>817</v>
       </c>
@@ -15447,7 +15463,7 @@
       <c r="Q304" s="22"/>
       <c r="R304" s="22"/>
     </row>
-    <row r="305" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
         <v>817</v>
       </c>
@@ -15485,7 +15501,7 @@
       <c r="Q305" s="22"/>
       <c r="R305" s="22"/>
     </row>
-    <row r="306" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
         <v>817</v>
       </c>
@@ -15525,7 +15541,7 @@
       <c r="Q306" s="22"/>
       <c r="R306" s="22"/>
     </row>
-    <row r="307" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
         <v>817</v>
       </c>
@@ -15565,7 +15581,7 @@
       <c r="Q307" s="22"/>
       <c r="R307" s="22"/>
     </row>
-    <row r="308" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
         <v>817</v>
       </c>
@@ -15605,7 +15621,7 @@
       <c r="Q308" s="22"/>
       <c r="R308" s="22"/>
     </row>
-    <row r="309" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
         <v>817</v>
       </c>
@@ -15643,7 +15659,7 @@
       <c r="Q309" s="22"/>
       <c r="R309" s="22"/>
     </row>
-    <row r="310" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
         <v>817</v>
       </c>
@@ -15679,7 +15695,7 @@
       <c r="Q310" s="22"/>
       <c r="R310" s="22"/>
     </row>
-    <row r="311" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
         <v>817</v>
       </c>
@@ -15715,7 +15731,7 @@
       <c r="Q311" s="22"/>
       <c r="R311" s="22"/>
     </row>
-    <row r="312" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
         <v>817</v>
       </c>
@@ -15751,7 +15767,7 @@
       <c r="Q312" s="22"/>
       <c r="R312" s="22"/>
     </row>
-    <row r="313" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
         <v>817</v>
       </c>
@@ -15789,7 +15805,7 @@
       <c r="Q313" s="22"/>
       <c r="R313" s="22"/>
     </row>
-    <row r="314" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
         <v>817</v>
       </c>
@@ -15831,7 +15847,7 @@
       <c r="Q314" s="22"/>
       <c r="R314" s="22"/>
     </row>
-    <row r="315" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
         <v>817</v>
       </c>
@@ -15869,7 +15885,7 @@
       <c r="Q315" s="22"/>
       <c r="R315" s="22"/>
     </row>
-    <row r="316" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="s">
         <v>820</v>
       </c>
@@ -15905,7 +15921,7 @@
       <c r="Q316" s="22"/>
       <c r="R316" s="22"/>
     </row>
-    <row r="317" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="33" t="s">
         <v>820</v>
       </c>
@@ -15941,7 +15957,7 @@
       <c r="Q317" s="22"/>
       <c r="R317" s="22"/>
     </row>
-    <row r="318" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="s">
         <v>817</v>
       </c>
@@ -15979,7 +15995,7 @@
       <c r="Q318" s="22"/>
       <c r="R318" s="22"/>
     </row>
-    <row r="319" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
         <v>820</v>
       </c>
@@ -16015,7 +16031,7 @@
       <c r="Q319" s="22"/>
       <c r="R319" s="22"/>
     </row>
-    <row r="320" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
         <v>820</v>
       </c>
@@ -16051,7 +16067,7 @@
       <c r="Q320" s="22"/>
       <c r="R320" s="22"/>
     </row>
-    <row r="321" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
         <v>820</v>
       </c>
@@ -16087,7 +16103,7 @@
       <c r="Q321" s="22"/>
       <c r="R321" s="22"/>
     </row>
-    <row r="322" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
         <v>817</v>
       </c>
@@ -16133,15 +16149,15 @@
       <c r="G323" s="1"/>
       <c r="I323">
         <f>SUBTOTAL(9,I$1:I322)</f>
-        <v>2009500</v>
+        <v>20000</v>
       </c>
       <c r="Q323">
         <f>SUBTOTAL(9,Q$1:Q322)</f>
-        <v>2200</v>
+        <v>0</v>
       </c>
       <c r="R323">
         <f>SUBTOTAL(9,R$1:R322)</f>
-        <v>5800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:18" x14ac:dyDescent="0.25">

--- a/2019 Planning calendar.xlsx
+++ b/2019 Planning calendar.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Body" sheetId="4" r:id="rId4"/>
     <sheet name="Trips partner" sheetId="5" r:id="rId5"/>
+    <sheet name="International website shipping" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Body!$I$1:$K$15</definedName>
@@ -20,13 +21,13 @@
   </definedNames>
   <calcPr calcId="144525"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4014" uniqueCount="855">
   <si>
     <t>Job change</t>
   </si>
@@ -2440,9 +2441,6 @@
     <t>5PL</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Vaishali + Bali, Indonesia</t>
   </si>
   <si>
@@ -2507,6 +2505,93 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=EjYKGMTcb3E</t>
+  </si>
+  <si>
+    <t>22nd March</t>
+  </si>
+  <si>
+    <t>Mohan singh palace, CP</t>
+  </si>
+  <si>
+    <t>Offline</t>
+  </si>
+  <si>
+    <t>https://curvysense.com/</t>
+  </si>
+  <si>
+    <t>25 $ upto 100 $ shopping</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>https://www.houseofcb.com/</t>
+  </si>
+  <si>
+    <t>10 Pound shipping to India</t>
+  </si>
+  <si>
+    <t>https://www.asos.com/</t>
+  </si>
+  <si>
+    <t>3 Pound shipping to India</t>
+  </si>
+  <si>
+    <t>https://www.romwe.co.in/</t>
+  </si>
+  <si>
+    <t>Free shipping above 3500 INR</t>
+  </si>
+  <si>
+    <t>Cloths</t>
+  </si>
+  <si>
+    <t>https://www.strawberrynet.com/</t>
+  </si>
+  <si>
+    <t>https://www.lulus.com/</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>15$ standard shipping</t>
+  </si>
+  <si>
+    <t>Free shipping above 2000 INR</t>
+  </si>
+  <si>
+    <t>https://www.beautybay.com/</t>
+  </si>
+  <si>
+    <t>Free shipping</t>
+  </si>
+  <si>
+    <t>https://www.sears.com/</t>
+  </si>
+  <si>
+    <t>https://www.macys.com/</t>
+  </si>
+  <si>
+    <t>https://www.etsy.com/in-en/market/india</t>
+  </si>
+  <si>
+    <t>https://www.eloquii.com/</t>
+  </si>
+  <si>
+    <t>$30 shipping to India</t>
+  </si>
+  <si>
+    <t>https://rebdolls.com/</t>
+  </si>
+  <si>
+    <t>$25 + duties international</t>
+  </si>
+  <si>
+    <t>16th March</t>
   </si>
 </sst>
 </file>
@@ -2563,7 +2648,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2574,6 +2659,24 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2733,7 +2836,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2804,6 +2907,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2811,49 +2923,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="hh:mm"/>
-    </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -3392,6 +3461,13 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -3402,13 +3478,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -3453,6 +3522,49 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="hh:mm"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3705,43 +3817,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:R322" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
-  <autoFilter ref="A1:R322">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="2019"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="6">
-      <filters>
-        <filter val="March"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="W2"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:R322" totalsRowShown="0" headerRowDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
+  <autoFilter ref="A1:R322"/>
+  <sortState ref="A2:R322">
+    <sortCondition ref="F2:F322"/>
+    <sortCondition ref="G2:G322" customList="January,February,March,April,May,June,July,August,September,October,November,December"/>
+    <sortCondition ref="H2:H322"/>
+    <sortCondition ref="J2:J322" customList="January,February,March,April,May,June,July,August,September,October,November,December"/>
+  </sortState>
   <tableColumns count="18">
-    <tableColumn id="15" name="Group" dataDxfId="22"/>
-    <tableColumn id="1" name="Objective" dataDxfId="21"/>
-    <tableColumn id="2" name="Category" dataDxfId="20"/>
-    <tableColumn id="3" name="Topic" dataDxfId="19"/>
-    <tableColumn id="4" name="Action/ Quantity" dataDxfId="18"/>
-    <tableColumn id="5" name="Year" dataDxfId="17"/>
-    <tableColumn id="6" name="Month" dataDxfId="16"/>
-    <tableColumn id="7" name="Weeks" dataDxfId="15"/>
-    <tableColumn id="8" name="Cost" dataDxfId="14"/>
-    <tableColumn id="9" name="Delivery" dataDxfId="13"/>
-    <tableColumn id="10" name="Start" dataDxfId="12"/>
-    <tableColumn id="11" name="End" dataDxfId="11"/>
-    <tableColumn id="12" name="Leaves" dataDxfId="10"/>
-    <tableColumn id="13" name="Booking" dataDxfId="9"/>
-    <tableColumn id="14" name="Location" dataDxfId="8"/>
-    <tableColumn id="18" name="Status" dataDxfId="7"/>
-    <tableColumn id="16" name="Actual cost" dataDxfId="6"/>
-    <tableColumn id="17" name="Saving" dataDxfId="5"/>
+    <tableColumn id="15" name="Group" dataDxfId="17"/>
+    <tableColumn id="1" name="Objective" dataDxfId="16"/>
+    <tableColumn id="2" name="Category" dataDxfId="15"/>
+    <tableColumn id="3" name="Topic" dataDxfId="14"/>
+    <tableColumn id="4" name="Action/ Quantity" dataDxfId="13"/>
+    <tableColumn id="5" name="Year" dataDxfId="12"/>
+    <tableColumn id="6" name="Month" dataDxfId="11"/>
+    <tableColumn id="7" name="Weeks" dataDxfId="10"/>
+    <tableColumn id="8" name="Cost" dataDxfId="9"/>
+    <tableColumn id="9" name="Delivery" dataDxfId="8"/>
+    <tableColumn id="10" name="Start" dataDxfId="7"/>
+    <tableColumn id="11" name="End" dataDxfId="6"/>
+    <tableColumn id="12" name="Leaves" dataDxfId="5"/>
+    <tableColumn id="13" name="Booking" dataDxfId="4"/>
+    <tableColumn id="14" name="Location" dataDxfId="3"/>
+    <tableColumn id="18" name="Status" dataDxfId="2"/>
+    <tableColumn id="16" name="Actual cost" dataDxfId="1"/>
+    <tableColumn id="17" name="Saving" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3755,8 +3857,8 @@
     <tableColumn id="2" name="DESTINATION"/>
     <tableColumn id="3" name="Flight Number"/>
     <tableColumn id="4" name="FREQ"/>
-    <tableColumn id="5" name="DEPARTURE" dataDxfId="4"/>
-    <tableColumn id="6" name="ARRIVAL" dataDxfId="3"/>
+    <tableColumn id="5" name="DEPARTURE" dataDxfId="26"/>
+    <tableColumn id="6" name="ARRIVAL" dataDxfId="25"/>
     <tableColumn id="7" name="AIRCRAFT"/>
     <tableColumn id="8" name="STOPS"/>
   </tableColumns>
@@ -3782,7 +3884,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="P1:AL13" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="P1:AL13" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22">
   <autoFilter ref="P1:AL13"/>
   <sortState ref="P2:AL14">
     <sortCondition ref="S1:S14"/>
@@ -4106,8 +4208,8 @@
   <dimension ref="A1:R335"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4131,7 +4233,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>20</v>
@@ -4185,9 +4287,9 @@
         <v>595</v>
       </c>
     </row>
-    <row r="2" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>5</v>
@@ -4223,9 +4325,9 @@
       <c r="Q2" s="29"/>
       <c r="R2" s="29"/>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>0</v>
@@ -4257,9 +4359,9 @@
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>0</v>
@@ -4291,12 +4393,12 @@
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>74</v>
@@ -4329,12 +4431,12 @@
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>74</v>
@@ -4367,12 +4469,12 @@
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>74</v>
@@ -4405,12 +4507,12 @@
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>74</v>
@@ -4443,12 +4545,12 @@
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>74</v>
@@ -4481,12 +4583,12 @@
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>74</v>
@@ -4519,12 +4621,12 @@
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
     </row>
-    <row r="11" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>74</v>
@@ -4557,12 +4659,12 @@
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>74</v>
@@ -4595,12 +4697,12 @@
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>74</v>
@@ -4633,12 +4735,12 @@
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>74</v>
@@ -4671,12 +4773,12 @@
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>74</v>
@@ -4709,12 +4811,12 @@
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
     </row>
-    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>74</v>
@@ -4747,9 +4849,9 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
     </row>
-    <row r="17" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>1</v>
@@ -4785,9 +4887,9 @@
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
     </row>
-    <row r="18" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>1</v>
@@ -4823,9 +4925,9 @@
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
     </row>
-    <row r="19" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>1</v>
@@ -4861,9 +4963,9 @@
       <c r="Q19" s="22"/>
       <c r="R19" s="22"/>
     </row>
-    <row r="20" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>1</v>
@@ -4899,9 +5001,9 @@
       <c r="Q20" s="22"/>
       <c r="R20" s="22"/>
     </row>
-    <row r="21" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>1</v>
@@ -4937,9 +5039,9 @@
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
     </row>
-    <row r="22" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>1</v>
@@ -4975,9 +5077,9 @@
       <c r="Q22" s="22"/>
       <c r="R22" s="22"/>
     </row>
-    <row r="23" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>1</v>
@@ -5013,9 +5115,9 @@
       <c r="Q23" s="22"/>
       <c r="R23" s="22"/>
     </row>
-    <row r="24" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>1</v>
@@ -5051,9 +5153,9 @@
       <c r="Q24" s="22"/>
       <c r="R24" s="22"/>
     </row>
-    <row r="25" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>1</v>
@@ -5089,9 +5191,9 @@
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
     </row>
-    <row r="26" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>1</v>
@@ -5127,22 +5229,18 @@
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
     </row>
-    <row r="27" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>825</v>
+        <v>565</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="E27" s="9">
-        <v>1</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
       <c r="F27" s="9">
         <v>2019</v>
       </c>
@@ -5153,38 +5251,44 @@
         <v>559</v>
       </c>
       <c r="I27" s="9">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K27" s="22"/>
+      <c r="K27" s="22" t="s">
+        <v>822</v>
+      </c>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
       <c r="O27" s="23"/>
       <c r="P27" s="23" t="s">
-        <v>804</v>
+        <v>815</v>
       </c>
       <c r="Q27" s="22">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="R27" s="22">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>565</v>
+        <v>824</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+        <v>585</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="E28" s="9">
+        <v>1</v>
+      </c>
       <c r="F28" s="9">
         <v>2019</v>
       </c>
@@ -5192,34 +5296,35 @@
         <v>37</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I28" s="9">
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>37</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>823</v>
+        <v>854</v>
       </c>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
       <c r="O28" s="23"/>
       <c r="P28" s="23" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="Q28" s="22">
-        <v>2200</v>
+        <f>3315+2683</f>
+        <v>5998</v>
       </c>
       <c r="R28" s="22">
-        <v>800</v>
+        <v>-998</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>5</v>
@@ -5257,7 +5362,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>0</v>
@@ -5293,7 +5398,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>642</v>
@@ -5329,7 +5434,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>642</v>
@@ -5365,7 +5470,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>642</v>
@@ -5401,7 +5506,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>665</v>
@@ -5437,7 +5542,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>665</v>
@@ -5473,7 +5578,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>4</v>
@@ -5509,7 +5614,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>4</v>
@@ -5545,15 +5650,15 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="36" t="s">
         <v>38</v>
       </c>
       <c r="E38" s="9" t="s">
@@ -5583,15 +5688,15 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="36" t="s">
         <v>39</v>
       </c>
       <c r="E39" s="9" t="s">
@@ -5621,15 +5726,15 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="36" t="s">
         <v>40</v>
       </c>
       <c r="E40" s="9" t="s">
@@ -5659,15 +5764,15 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="36" t="s">
         <v>41</v>
       </c>
       <c r="E41" s="9" t="s">
@@ -5697,15 +5802,15 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="36" t="s">
         <v>42</v>
       </c>
       <c r="E42" s="9" t="s">
@@ -5735,15 +5840,15 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="36" t="s">
         <v>43</v>
       </c>
       <c r="E43" s="9" t="s">
@@ -5773,7 +5878,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>1</v>
@@ -5811,7 +5916,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>1</v>
@@ -5849,7 +5954,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>1</v>
@@ -5887,7 +5992,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>1</v>
@@ -5925,7 +6030,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>1</v>
@@ -5963,7 +6068,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>1</v>
@@ -6001,7 +6106,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>1</v>
@@ -6039,7 +6144,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>1</v>
@@ -6077,7 +6182,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>1</v>
@@ -6115,7 +6220,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>1</v>
@@ -6153,10 +6258,10 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>583</v>
@@ -6189,13 +6294,13 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>586</v>
@@ -6225,7 +6330,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>579</v>
@@ -6263,17 +6368,17 @@
       </c>
       <c r="N56" s="22"/>
       <c r="O56" s="23" t="s">
+        <v>814</v>
+      </c>
+      <c r="P56" s="23" t="s">
         <v>815</v>
-      </c>
-      <c r="P56" s="23" t="s">
-        <v>816</v>
       </c>
       <c r="Q56" s="22"/>
       <c r="R56" s="22"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>108</v>
@@ -6305,9 +6410,9 @@
       <c r="Q57" s="22"/>
       <c r="R57" s="22"/>
     </row>
-    <row r="58" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>5</v>
@@ -6343,9 +6448,9 @@
       <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
     </row>
-    <row r="59" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B59" s="21" t="s">
         <v>0</v>
@@ -6377,9 +6482,9 @@
       <c r="Q59" s="22"/>
       <c r="R59" s="22"/>
     </row>
-    <row r="60" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>642</v>
@@ -6413,9 +6518,9 @@
       <c r="Q60" s="22"/>
       <c r="R60" s="22"/>
     </row>
-    <row r="61" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B61" s="24" t="s">
         <v>642</v>
@@ -6449,9 +6554,9 @@
       <c r="Q61" s="22"/>
       <c r="R61" s="22"/>
     </row>
-    <row r="62" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B62" s="24" t="s">
         <v>642</v>
@@ -6485,9 +6590,9 @@
       <c r="Q62" s="22"/>
       <c r="R62" s="22"/>
     </row>
-    <row r="63" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B63" s="24" t="s">
         <v>665</v>
@@ -6521,9 +6626,9 @@
       <c r="Q63" s="22"/>
       <c r="R63" s="22"/>
     </row>
-    <row r="64" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B64" s="24" t="s">
         <v>665</v>
@@ -6557,9 +6662,9 @@
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
     </row>
-    <row r="65" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B65" s="24" t="s">
         <v>4</v>
@@ -6593,9 +6698,9 @@
       <c r="Q65" s="22"/>
       <c r="R65" s="22"/>
     </row>
-    <row r="66" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B66" s="24" t="s">
         <v>4</v>
@@ -6629,12 +6734,12 @@
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
     </row>
-    <row r="67" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>74</v>
@@ -6669,12 +6774,12 @@
       <c r="Q67" s="22"/>
       <c r="R67" s="22"/>
     </row>
-    <row r="68" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>74</v>
@@ -6709,12 +6814,12 @@
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
     </row>
-    <row r="69" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>74</v>
@@ -6749,12 +6854,12 @@
       <c r="Q69" s="22"/>
       <c r="R69" s="22"/>
     </row>
-    <row r="70" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>74</v>
@@ -6789,12 +6894,12 @@
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
     </row>
-    <row r="71" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>74</v>
@@ -6829,12 +6934,12 @@
       <c r="Q71" s="22"/>
       <c r="R71" s="22"/>
     </row>
-    <row r="72" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>74</v>
@@ -6869,17 +6974,17 @@
       <c r="Q72" s="22"/>
       <c r="R72" s="22"/>
     </row>
-    <row r="73" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="D73" s="36" t="s">
         <v>81</v>
       </c>
       <c r="E73" s="9" t="s">
@@ -6909,17 +7014,17 @@
       <c r="Q73" s="22"/>
       <c r="R73" s="22"/>
     </row>
-    <row r="74" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="37" t="s">
         <v>82</v>
       </c>
       <c r="E74" s="9" t="s">
@@ -6949,17 +7054,17 @@
       <c r="Q74" s="22"/>
       <c r="R74" s="22"/>
     </row>
-    <row r="75" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="D75" s="37" t="s">
         <v>83</v>
       </c>
       <c r="E75" s="9" t="s">
@@ -6989,17 +7094,17 @@
       <c r="Q75" s="22"/>
       <c r="R75" s="22"/>
     </row>
-    <row r="76" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="37" t="s">
         <v>84</v>
       </c>
       <c r="E76" s="9" t="s">
@@ -7029,17 +7134,17 @@
       <c r="Q76" s="22"/>
       <c r="R76" s="22"/>
     </row>
-    <row r="77" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="36" t="s">
         <v>38</v>
       </c>
       <c r="E77" s="9" t="s">
@@ -7069,17 +7174,17 @@
       <c r="Q77" s="22"/>
       <c r="R77" s="22"/>
     </row>
-    <row r="78" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" s="37" t="s">
         <v>39</v>
       </c>
       <c r="E78" s="9" t="s">
@@ -7109,17 +7214,17 @@
       <c r="Q78" s="22"/>
       <c r="R78" s="22"/>
     </row>
-    <row r="79" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="36" t="s">
         <v>40</v>
       </c>
       <c r="E79" s="9" t="s">
@@ -7149,17 +7254,17 @@
       <c r="Q79" s="22"/>
       <c r="R79" s="22"/>
     </row>
-    <row r="80" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="38" t="s">
         <v>41</v>
       </c>
       <c r="E80" s="9" t="s">
@@ -7180,26 +7285,32 @@
       <c r="J80" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="K80" s="22"/>
+      <c r="K80" s="22" t="s">
+        <v>826</v>
+      </c>
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
       <c r="N80" s="22"/>
-      <c r="O80" s="23"/>
-      <c r="P80" s="23"/>
+      <c r="O80" s="23" t="s">
+        <v>827</v>
+      </c>
+      <c r="P80" s="23" t="s">
+        <v>828</v>
+      </c>
       <c r="Q80" s="22"/>
       <c r="R80" s="22"/>
     </row>
-    <row r="81" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="36" t="s">
         <v>42</v>
       </c>
       <c r="E81" s="9" t="s">
@@ -7229,17 +7340,17 @@
       <c r="Q81" s="22"/>
       <c r="R81" s="22"/>
     </row>
-    <row r="82" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="36" t="s">
         <v>43</v>
       </c>
       <c r="E82" s="9" t="s">
@@ -7269,9 +7380,9 @@
       <c r="Q82" s="22"/>
       <c r="R82" s="22"/>
     </row>
-    <row r="83" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B83" s="21" t="s">
         <v>1</v>
@@ -7307,9 +7418,9 @@
       <c r="Q83" s="22"/>
       <c r="R83" s="22"/>
     </row>
-    <row r="84" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="33" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B84" s="21" t="s">
         <v>1</v>
@@ -7345,9 +7456,9 @@
       <c r="Q84" s="22"/>
       <c r="R84" s="22"/>
     </row>
-    <row r="85" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B85" s="21" t="s">
         <v>1</v>
@@ -7383,9 +7494,9 @@
       <c r="Q85" s="22"/>
       <c r="R85" s="22"/>
     </row>
-    <row r="86" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B86" s="21" t="s">
         <v>1</v>
@@ -7421,9 +7532,9 @@
       <c r="Q86" s="22"/>
       <c r="R86" s="22"/>
     </row>
-    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>1</v>
@@ -7459,9 +7570,9 @@
       <c r="Q87" s="22"/>
       <c r="R87" s="22"/>
     </row>
-    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B88" s="21" t="s">
         <v>1</v>
@@ -7497,9 +7608,9 @@
       <c r="Q88" s="22"/>
       <c r="R88" s="22"/>
     </row>
-    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B89" s="21" t="s">
         <v>1</v>
@@ -7535,9 +7646,9 @@
       <c r="Q89" s="22"/>
       <c r="R89" s="22"/>
     </row>
-    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B90" s="21" t="s">
         <v>1</v>
@@ -7573,9 +7684,9 @@
       <c r="Q90" s="22"/>
       <c r="R90" s="22"/>
     </row>
-    <row r="91" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B91" s="21" t="s">
         <v>1</v>
@@ -7611,9 +7722,9 @@
       <c r="Q91" s="22"/>
       <c r="R91" s="22"/>
     </row>
-    <row r="92" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B92" s="21" t="s">
         <v>1</v>
@@ -7649,15 +7760,15 @@
       <c r="Q92" s="22"/>
       <c r="R92" s="22"/>
     </row>
-    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>587</v>
@@ -7689,12 +7800,12 @@
       <c r="Q93" s="22"/>
       <c r="R93" s="22"/>
     </row>
-    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>583</v>
@@ -7733,28 +7844,26 @@
         <v>783</v>
       </c>
       <c r="O94" s="23" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="P94" s="23"/>
       <c r="Q94" s="22"/>
       <c r="R94" s="22"/>
     </row>
-    <row r="95" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="33" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B95" s="21" t="s">
-        <v>5</v>
+        <v>579</v>
       </c>
       <c r="C95" s="9" t="s">
-        <v>6</v>
+        <v>582</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>48</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="E95" s="9"/>
       <c r="F95" s="9">
         <v>2019</v>
       </c>
@@ -7762,33 +7871,43 @@
         <v>37</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="I95" s="9"/>
+        <v>561</v>
+      </c>
+      <c r="I95" s="9">
+        <v>50000</v>
+      </c>
       <c r="J95" s="9" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K95" s="22"/>
       <c r="L95" s="22"/>
       <c r="M95" s="22"/>
       <c r="N95" s="22"/>
-      <c r="O95" s="23"/>
-      <c r="P95" s="23"/>
+      <c r="O95" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="P95" s="23" t="s">
+        <v>821</v>
+      </c>
       <c r="Q95" s="22"/>
       <c r="R95" s="22"/>
     </row>
-    <row r="96" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B96" s="21" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C96" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>48</v>
+      </c>
       <c r="F96" s="9">
         <v>2019</v>
       </c>
@@ -7811,31 +7930,29 @@
       <c r="Q96" s="22"/>
       <c r="R96" s="22"/>
     </row>
-    <row r="97" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="B97" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>628</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D97" s="9"/>
       <c r="E97" s="9"/>
       <c r="F97" s="9">
         <v>2019</v>
       </c>
-      <c r="G97" s="14" t="s">
+      <c r="G97" s="9" t="s">
         <v>37</v>
       </c>
       <c r="H97" s="9" t="s">
         <v>562</v>
       </c>
       <c r="I97" s="9"/>
-      <c r="J97" s="14" t="s">
+      <c r="J97" s="9" t="s">
         <v>37</v>
       </c>
       <c r="K97" s="22"/>
@@ -7847,9 +7964,9 @@
       <c r="Q97" s="22"/>
       <c r="R97" s="22"/>
     </row>
-    <row r="98" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B98" s="24" t="s">
         <v>642</v>
@@ -7858,7 +7975,7 @@
         <v>104</v>
       </c>
       <c r="D98" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E98" s="9"/>
       <c r="F98" s="9">
@@ -7883,31 +8000,31 @@
       <c r="Q98" s="22"/>
       <c r="R98" s="22"/>
     </row>
-    <row r="99" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>665</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>668</v>
+        <v>642</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="D99" s="12" t="s">
-        <v>666</v>
+        <v>629</v>
       </c>
       <c r="E99" s="9"/>
       <c r="F99" s="9">
         <v>2019</v>
       </c>
-      <c r="G99" s="9" t="s">
+      <c r="G99" s="14" t="s">
         <v>37</v>
       </c>
       <c r="H99" s="9" t="s">
         <v>562</v>
       </c>
       <c r="I99" s="9"/>
-      <c r="J99" s="9" t="s">
+      <c r="J99" s="14" t="s">
         <v>37</v>
       </c>
       <c r="K99" s="22"/>
@@ -7919,9 +8036,9 @@
       <c r="Q99" s="22"/>
       <c r="R99" s="22"/>
     </row>
-    <row r="100" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B100" s="24" t="s">
         <v>665</v>
@@ -7930,7 +8047,7 @@
         <v>668</v>
       </c>
       <c r="D100" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E100" s="9"/>
       <c r="F100" s="9">
@@ -7955,18 +8072,18 @@
       <c r="Q100" s="22"/>
       <c r="R100" s="22"/>
     </row>
-    <row r="101" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B101" s="24" t="s">
         <v>665</v>
       </c>
-      <c r="C101" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>697</v>
+      <c r="C101" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>667</v>
       </c>
       <c r="E101" s="9"/>
       <c r="F101" s="9">
@@ -7991,9 +8108,9 @@
       <c r="Q101" s="22"/>
       <c r="R101" s="22"/>
     </row>
-    <row r="102" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B102" s="24" t="s">
         <v>665</v>
@@ -8002,7 +8119,7 @@
         <v>696</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="E102" s="9"/>
       <c r="F102" s="9">
@@ -8027,22 +8144,20 @@
       <c r="Q102" s="22"/>
       <c r="R102" s="22"/>
     </row>
-    <row r="103" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="33" t="s">
-        <v>817</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="C103" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D103" s="9" t="s">
-        <v>576</v>
-      </c>
-      <c r="E103" s="9">
-        <v>1</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="E103" s="9"/>
       <c r="F103" s="9">
         <v>2019</v>
       </c>
@@ -8052,11 +8167,9 @@
       <c r="H103" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="I103" s="9">
-        <v>10000</v>
-      </c>
+      <c r="I103" s="9"/>
       <c r="J103" s="9" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="K103" s="22"/>
       <c r="L103" s="22"/>
@@ -8067,18 +8180,22 @@
       <c r="Q103" s="22"/>
       <c r="R103" s="22"/>
     </row>
-    <row r="104" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>108</v>
+        <v>565</v>
       </c>
       <c r="C104" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="E104" s="9">
+        <v>1</v>
+      </c>
       <c r="F104" s="9">
         <v>2019</v>
       </c>
@@ -8088,9 +8205,11 @@
       <c r="H104" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="I104" s="9"/>
-      <c r="J104" s="13">
-        <v>43554</v>
+      <c r="I104" s="9">
+        <v>10000</v>
+      </c>
+      <c r="J104" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="K104" s="22"/>
       <c r="L104" s="22"/>
@@ -8101,32 +8220,30 @@
       <c r="Q104" s="22"/>
       <c r="R104" s="22"/>
     </row>
-    <row r="105" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="B105" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>758</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>762</v>
-      </c>
+      <c r="B105" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D105" s="9"/>
       <c r="E105" s="9"/>
       <c r="F105" s="9">
         <v>2019</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>771</v>
+        <v>562</v>
       </c>
       <c r="I105" s="9"/>
-      <c r="J105" s="9" t="s">
-        <v>86</v>
+      <c r="J105" s="13">
+        <v>43554</v>
       </c>
       <c r="K105" s="22"/>
       <c r="L105" s="22"/>
@@ -8137,22 +8254,20 @@
       <c r="Q105" s="22"/>
       <c r="R105" s="22"/>
     </row>
-    <row r="106" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>819</v>
       </c>
-      <c r="B106" s="21" t="s">
-        <v>824</v>
-      </c>
-      <c r="C106" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D106" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E106" s="9" t="s">
-        <v>80</v>
-      </c>
+      <c r="B106" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="E106" s="9"/>
       <c r="F106" s="9">
         <v>2019</v>
       </c>
@@ -8160,13 +8275,11 @@
         <v>86</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="I106" s="9">
-        <v>3000</v>
-      </c>
+        <v>771</v>
+      </c>
+      <c r="I106" s="9"/>
       <c r="J106" s="9" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="K106" s="22"/>
       <c r="L106" s="22"/>
@@ -8177,18 +8290,18 @@
       <c r="Q106" s="22"/>
       <c r="R106" s="22"/>
     </row>
-    <row r="107" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B107" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C107" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="E107" s="9" t="s">
         <v>80</v>
@@ -8203,7 +8316,7 @@
         <v>559</v>
       </c>
       <c r="I107" s="9">
-        <v>2500</v>
+        <v>3000</v>
       </c>
       <c r="J107" s="9" t="s">
         <v>37</v>
@@ -8217,18 +8330,18 @@
       <c r="Q107" s="22"/>
       <c r="R107" s="22"/>
     </row>
-    <row r="108" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>89</v>
+        <v>38</v>
       </c>
       <c r="E108" s="9" t="s">
         <v>80</v>
@@ -8243,7 +8356,7 @@
         <v>559</v>
       </c>
       <c r="I108" s="9">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="J108" s="9" t="s">
         <v>37</v>
@@ -8257,18 +8370,18 @@
       <c r="Q108" s="22"/>
       <c r="R108" s="22"/>
     </row>
-    <row r="109" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>74</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E109" s="9" t="s">
         <v>80</v>
@@ -8297,21 +8410,21 @@
       <c r="Q109" s="22"/>
       <c r="R109" s="22"/>
     </row>
-    <row r="110" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>5</v>
+        <v>823</v>
       </c>
       <c r="C110" s="9" t="s">
-        <v>6</v>
+        <v>74</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F110" s="9">
         <v>2019</v>
@@ -8322,9 +8435,11 @@
       <c r="H110" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I110" s="9"/>
+      <c r="I110" s="9">
+        <v>3000</v>
+      </c>
       <c r="J110" s="9" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="K110" s="22"/>
       <c r="L110" s="22"/>
@@ -8335,18 +8450,22 @@
       <c r="Q110" s="22"/>
       <c r="R110" s="22"/>
     </row>
-    <row r="111" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>593</v>
+        <v>5</v>
       </c>
       <c r="C111" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="D111" s="9"/>
-      <c r="E111" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>49</v>
+      </c>
       <c r="F111" s="9">
         <v>2019</v>
       </c>
@@ -8356,9 +8475,7 @@
       <c r="H111" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I111" s="9">
-        <v>28500</v>
-      </c>
+      <c r="I111" s="9"/>
       <c r="J111" s="9" t="s">
         <v>86</v>
       </c>
@@ -8371,15 +8488,15 @@
       <c r="Q111" s="22"/>
       <c r="R111" s="22"/>
     </row>
-    <row r="112" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>664</v>
+        <v>593</v>
       </c>
       <c r="C112" s="9" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
@@ -8393,7 +8510,7 @@
         <v>559</v>
       </c>
       <c r="I112" s="9">
-        <v>100000</v>
+        <v>28500</v>
       </c>
       <c r="J112" s="9" t="s">
         <v>86</v>
@@ -8407,31 +8524,31 @@
       <c r="Q112" s="22"/>
       <c r="R112" s="22"/>
     </row>
-    <row r="113" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="B113" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>632</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>664</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="D113" s="9"/>
       <c r="E113" s="9"/>
       <c r="F113" s="9">
         <v>2019</v>
       </c>
-      <c r="G113" s="14" t="s">
+      <c r="G113" s="9" t="s">
         <v>86</v>
       </c>
       <c r="H113" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I113" s="9"/>
-      <c r="J113" s="14" t="s">
+      <c r="I113" s="9">
+        <v>100000</v>
+      </c>
+      <c r="J113" s="9" t="s">
         <v>86</v>
       </c>
       <c r="K113" s="22"/>
@@ -8443,18 +8560,18 @@
       <c r="Q113" s="22"/>
       <c r="R113" s="22"/>
     </row>
-    <row r="114" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B114" s="24" t="s">
         <v>642</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="E114" s="9"/>
       <c r="F114" s="9">
@@ -8479,9 +8596,9 @@
       <c r="Q114" s="22"/>
       <c r="R114" s="22"/>
     </row>
-    <row r="115" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B115" s="24" t="s">
         <v>642</v>
@@ -8490,7 +8607,7 @@
         <v>104</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E115" s="9"/>
       <c r="F115" s="9">
@@ -8515,31 +8632,31 @@
       <c r="Q115" s="22"/>
       <c r="R115" s="22"/>
     </row>
-    <row r="116" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B116" s="24" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>669</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>670</v>
+        <v>104</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>631</v>
       </c>
       <c r="E116" s="9"/>
       <c r="F116" s="9">
         <v>2019</v>
       </c>
-      <c r="G116" s="9" t="s">
+      <c r="G116" s="14" t="s">
         <v>86</v>
       </c>
       <c r="H116" s="9" t="s">
         <v>559</v>
       </c>
       <c r="I116" s="9"/>
-      <c r="J116" s="9" t="s">
+      <c r="J116" s="14" t="s">
         <v>86</v>
       </c>
       <c r="K116" s="22"/>
@@ -8551,9 +8668,9 @@
       <c r="Q116" s="22"/>
       <c r="R116" s="22"/>
     </row>
-    <row r="117" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B117" s="24" t="s">
         <v>665</v>
@@ -8562,7 +8679,7 @@
         <v>669</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E117" s="9"/>
       <c r="F117" s="9">
@@ -8587,9 +8704,9 @@
       <c r="Q117" s="22"/>
       <c r="R117" s="22"/>
     </row>
-    <row r="118" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B118" s="24" t="s">
         <v>665</v>
@@ -8598,7 +8715,7 @@
         <v>669</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E118" s="9"/>
       <c r="F118" s="9">
@@ -8623,18 +8740,18 @@
       <c r="Q118" s="22"/>
       <c r="R118" s="22"/>
     </row>
-    <row r="119" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B119" s="24" t="s">
         <v>665</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>699</v>
+        <v>669</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
       <c r="E119" s="9"/>
       <c r="F119" s="9">
@@ -8659,9 +8776,9 @@
       <c r="Q119" s="22"/>
       <c r="R119" s="22"/>
     </row>
-    <row r="120" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B120" s="24" t="s">
         <v>665</v>
@@ -8670,7 +8787,7 @@
         <v>699</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E120" s="9"/>
       <c r="F120" s="9">
@@ -8695,9 +8812,9 @@
       <c r="Q120" s="22"/>
       <c r="R120" s="22"/>
     </row>
-    <row r="121" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B121" s="24" t="s">
         <v>665</v>
@@ -8706,7 +8823,7 @@
         <v>699</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="E121" s="9"/>
       <c r="F121" s="9">
@@ -8731,9 +8848,9 @@
       <c r="Q121" s="22"/>
       <c r="R121" s="22"/>
     </row>
-    <row r="122" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B122" s="24" t="s">
         <v>665</v>
@@ -8742,7 +8859,7 @@
         <v>699</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="9">
@@ -8767,18 +8884,18 @@
       <c r="Q122" s="22"/>
       <c r="R122" s="22"/>
     </row>
-    <row r="123" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B123" s="24" t="s">
-        <v>3</v>
+        <v>665</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>760</v>
+        <v>699</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>762</v>
+        <v>703</v>
       </c>
       <c r="E123" s="9"/>
       <c r="F123" s="9">
@@ -8803,18 +8920,18 @@
       <c r="Q123" s="22"/>
       <c r="R123" s="22"/>
     </row>
-    <row r="124" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>817</v>
-      </c>
-      <c r="B124" s="21" t="s">
-        <v>825</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>586</v>
+        <v>819</v>
+      </c>
+      <c r="B124" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="D124" s="15" t="s">
+        <v>762</v>
       </c>
       <c r="E124" s="9"/>
       <c r="F124" s="9">
@@ -8839,15 +8956,15 @@
       <c r="Q124" s="22"/>
       <c r="R124" s="22"/>
     </row>
-    <row r="125" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B125" s="21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C125" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D125" s="9" t="s">
         <v>586</v>
@@ -8875,22 +8992,20 @@
       <c r="Q125" s="22"/>
       <c r="R125" s="22"/>
     </row>
-    <row r="126" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C126" s="9" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D126" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="E126" s="9">
-        <v>1</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="E126" s="9"/>
       <c r="F126" s="9">
         <v>2019</v>
       </c>
@@ -8900,11 +9015,9 @@
       <c r="H126" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I126" s="9">
-        <v>15000</v>
-      </c>
+      <c r="I126" s="9"/>
       <c r="J126" s="9" t="s">
-        <v>557</v>
+        <v>86</v>
       </c>
       <c r="K126" s="22"/>
       <c r="L126" s="22"/>
@@ -8915,21 +9028,21 @@
       <c r="Q126" s="22"/>
       <c r="R126" s="22"/>
     </row>
-    <row r="127" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="33" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>5</v>
+        <v>824</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>6</v>
+        <v>588</v>
       </c>
       <c r="D127" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>50</v>
+        <v>587</v>
+      </c>
+      <c r="E127" s="9">
+        <v>1</v>
       </c>
       <c r="F127" s="9">
         <v>2019</v>
@@ -8938,11 +9051,13 @@
         <v>86</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="I127" s="9"/>
+        <v>559</v>
+      </c>
+      <c r="I127" s="9">
+        <v>15000</v>
+      </c>
       <c r="J127" s="9" t="s">
-        <v>86</v>
+        <v>557</v>
       </c>
       <c r="K127" s="22"/>
       <c r="L127" s="22"/>
@@ -8953,31 +9068,33 @@
       <c r="Q127" s="22"/>
       <c r="R127" s="22"/>
     </row>
-    <row r="128" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="B128" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D128" s="12" t="s">
-        <v>633</v>
-      </c>
-      <c r="E128" s="9"/>
+        <v>819</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="F128" s="9">
         <v>2019</v>
       </c>
-      <c r="G128" s="14" t="s">
+      <c r="G128" s="9" t="s">
         <v>86</v>
       </c>
       <c r="H128" s="9" t="s">
         <v>560</v>
       </c>
       <c r="I128" s="9"/>
-      <c r="J128" s="14" t="s">
+      <c r="J128" s="9" t="s">
         <v>86</v>
       </c>
       <c r="K128" s="22"/>
@@ -8989,31 +9106,31 @@
       <c r="Q128" s="22"/>
       <c r="R128" s="22"/>
     </row>
-    <row r="129" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B129" s="24" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>676</v>
-      </c>
-      <c r="D129" s="15" t="s">
-        <v>677</v>
+        <v>107</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>633</v>
       </c>
       <c r="E129" s="9"/>
       <c r="F129" s="9">
         <v>2019</v>
       </c>
-      <c r="G129" s="9" t="s">
+      <c r="G129" s="14" t="s">
         <v>86</v>
       </c>
       <c r="H129" s="9" t="s">
         <v>560</v>
       </c>
       <c r="I129" s="9"/>
-      <c r="J129" s="9" t="s">
+      <c r="J129" s="14" t="s">
         <v>86</v>
       </c>
       <c r="K129" s="22"/>
@@ -9025,9 +9142,9 @@
       <c r="Q129" s="22"/>
       <c r="R129" s="22"/>
     </row>
-    <row r="130" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B130" s="24" t="s">
         <v>665</v>
@@ -9036,7 +9153,7 @@
         <v>676</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E130" s="9"/>
       <c r="F130" s="9">
@@ -9061,9 +9178,9 @@
       <c r="Q130" s="22"/>
       <c r="R130" s="22"/>
     </row>
-    <row r="131" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B131" s="24" t="s">
         <v>665</v>
@@ -9072,7 +9189,7 @@
         <v>676</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E131" s="9"/>
       <c r="F131" s="9">
@@ -9097,9 +9214,9 @@
       <c r="Q131" s="22"/>
       <c r="R131" s="22"/>
     </row>
-    <row r="132" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B132" s="24" t="s">
         <v>665</v>
@@ -9108,7 +9225,7 @@
         <v>676</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="9">
@@ -9133,18 +9250,18 @@
       <c r="Q132" s="22"/>
       <c r="R132" s="22"/>
     </row>
-    <row r="133" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B133" s="24" t="s">
         <v>665</v>
       </c>
       <c r="C133" s="12" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>705</v>
+        <v>680</v>
       </c>
       <c r="E133" s="9"/>
       <c r="F133" s="9">
@@ -9169,9 +9286,9 @@
       <c r="Q133" s="22"/>
       <c r="R133" s="22"/>
     </row>
-    <row r="134" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B134" s="24" t="s">
         <v>665</v>
@@ -9180,7 +9297,7 @@
         <v>704</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E134" s="9"/>
       <c r="F134" s="9">
@@ -9205,22 +9322,20 @@
       <c r="Q134" s="22"/>
       <c r="R134" s="22"/>
     </row>
-    <row r="135" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>817</v>
-      </c>
-      <c r="B135" s="21" t="s">
-        <v>825</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="E135" s="9">
-        <v>1</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="B135" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="D135" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="E135" s="9"/>
       <c r="F135" s="9">
         <v>2019</v>
       </c>
@@ -9230,11 +9345,9 @@
       <c r="H135" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="I135" s="9">
-        <v>10000</v>
-      </c>
+      <c r="I135" s="9"/>
       <c r="J135" s="9" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="K135" s="22"/>
       <c r="L135" s="22"/>
@@ -9245,15 +9358,15 @@
       <c r="Q135" s="22"/>
       <c r="R135" s="22"/>
     </row>
-    <row r="136" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B136" s="21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C136" s="9" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D136" s="9" t="s">
         <v>587</v>
@@ -9271,42 +9384,36 @@
         <v>560</v>
       </c>
       <c r="I136" s="9">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="J136" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K136" s="22" t="s">
-        <v>801</v>
-      </c>
-      <c r="L136" s="22" t="s">
-        <v>813</v>
-      </c>
-      <c r="M136" s="22" t="s">
-        <v>814</v>
-      </c>
-      <c r="N136" s="22" t="s">
-        <v>802</v>
-      </c>
-      <c r="O136" s="23" t="s">
-        <v>805</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="K136" s="22"/>
+      <c r="L136" s="22"/>
+      <c r="M136" s="22"/>
+      <c r="N136" s="22"/>
+      <c r="O136" s="23"/>
       <c r="P136" s="23"/>
       <c r="Q136" s="22"/>
       <c r="R136" s="22"/>
     </row>
-    <row r="137" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="33" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>108</v>
+        <v>824</v>
       </c>
       <c r="C137" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D137" s="9"/>
-      <c r="E137" s="9"/>
+        <v>583</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="E137" s="9">
+        <v>1</v>
+      </c>
       <c r="F137" s="9">
         <v>2019</v>
       </c>
@@ -9316,35 +9423,43 @@
       <c r="H137" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="I137" s="9"/>
-      <c r="J137" s="13">
-        <v>43568</v>
-      </c>
-      <c r="K137" s="22"/>
-      <c r="L137" s="22"/>
-      <c r="M137" s="22"/>
-      <c r="N137" s="22"/>
-      <c r="O137" s="23"/>
+      <c r="I137" s="9">
+        <v>50000</v>
+      </c>
+      <c r="J137" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K137" s="22" t="s">
+        <v>801</v>
+      </c>
+      <c r="L137" s="22" t="s">
+        <v>812</v>
+      </c>
+      <c r="M137" s="22" t="s">
+        <v>813</v>
+      </c>
+      <c r="N137" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="O137" s="23" t="s">
+        <v>804</v>
+      </c>
       <c r="P137" s="23"/>
       <c r="Q137" s="22"/>
       <c r="R137" s="22"/>
     </row>
-    <row r="138" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="33" t="s">
         <v>820</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="C138" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>51</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9"/>
       <c r="F138" s="9">
         <v>2019</v>
       </c>
@@ -9352,11 +9467,11 @@
         <v>86</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I138" s="9"/>
-      <c r="J138" s="9" t="s">
-        <v>86</v>
+      <c r="J138" s="13">
+        <v>43568</v>
       </c>
       <c r="K138" s="22"/>
       <c r="L138" s="22"/>
@@ -9367,31 +9482,33 @@
       <c r="Q138" s="22"/>
       <c r="R138" s="22"/>
     </row>
-    <row r="139" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="B139" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D139" s="12" t="s">
-        <v>634</v>
-      </c>
-      <c r="E139" s="9"/>
+        <v>819</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="F139" s="9">
         <v>2019</v>
       </c>
-      <c r="G139" s="14" t="s">
+      <c r="G139" s="9" t="s">
         <v>86</v>
       </c>
       <c r="H139" s="9" t="s">
         <v>561</v>
       </c>
       <c r="I139" s="9"/>
-      <c r="J139" s="14" t="s">
+      <c r="J139" s="9" t="s">
         <v>86</v>
       </c>
       <c r="K139" s="22"/>
@@ -9403,31 +9520,31 @@
       <c r="Q139" s="22"/>
       <c r="R139" s="22"/>
     </row>
-    <row r="140" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B140" s="24" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="D140" s="15" t="s">
-        <v>690</v>
+        <v>107</v>
+      </c>
+      <c r="D140" s="12" t="s">
+        <v>634</v>
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="9">
         <v>2019</v>
       </c>
-      <c r="G140" s="9" t="s">
+      <c r="G140" s="14" t="s">
         <v>86</v>
       </c>
       <c r="H140" s="9" t="s">
         <v>561</v>
       </c>
       <c r="I140" s="9"/>
-      <c r="J140" s="9" t="s">
+      <c r="J140" s="14" t="s">
         <v>86</v>
       </c>
       <c r="K140" s="22"/>
@@ -9439,9 +9556,9 @@
       <c r="Q140" s="22"/>
       <c r="R140" s="22"/>
     </row>
-    <row r="141" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B141" s="24" t="s">
         <v>665</v>
@@ -9450,7 +9567,7 @@
         <v>689</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="9">
@@ -9475,9 +9592,9 @@
       <c r="Q141" s="22"/>
       <c r="R141" s="22"/>
     </row>
-    <row r="142" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B142" s="24" t="s">
         <v>665</v>
@@ -9486,7 +9603,7 @@
         <v>689</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E142" s="9"/>
       <c r="F142" s="9">
@@ -9511,18 +9628,18 @@
       <c r="Q142" s="22"/>
       <c r="R142" s="22"/>
     </row>
-    <row r="143" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B143" s="24" t="s">
         <v>665</v>
       </c>
       <c r="C143" s="12" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
       <c r="E143" s="9"/>
       <c r="F143" s="9">
@@ -9547,9 +9664,9 @@
       <c r="Q143" s="22"/>
       <c r="R143" s="22"/>
     </row>
-    <row r="144" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B144" s="24" t="s">
         <v>665</v>
@@ -9558,7 +9675,7 @@
         <v>707</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="E144" s="9"/>
       <c r="F144" s="9">
@@ -9583,22 +9700,20 @@
       <c r="Q144" s="22"/>
       <c r="R144" s="22"/>
     </row>
-    <row r="145" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="B145" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" s="9" t="s">
-        <v>52</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="B145" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="D145" s="15" t="s">
+        <v>709</v>
+      </c>
+      <c r="E145" s="9"/>
       <c r="F145" s="9">
         <v>2019</v>
       </c>
@@ -9606,7 +9721,7 @@
         <v>86</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="9" t="s">
@@ -9621,31 +9736,33 @@
       <c r="Q145" s="22"/>
       <c r="R145" s="22"/>
     </row>
-    <row r="146" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="B146" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="D146" s="12" t="s">
-        <v>635</v>
-      </c>
-      <c r="E146" s="9"/>
+        <v>819</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="F146" s="9">
         <v>2019</v>
       </c>
-      <c r="G146" s="14" t="s">
+      <c r="G146" s="9" t="s">
         <v>86</v>
       </c>
       <c r="H146" s="9" t="s">
         <v>562</v>
       </c>
       <c r="I146" s="9"/>
-      <c r="J146" s="14" t="s">
+      <c r="J146" s="9" t="s">
         <v>86</v>
       </c>
       <c r="K146" s="22"/>
@@ -9657,31 +9774,31 @@
       <c r="Q146" s="22"/>
       <c r="R146" s="22"/>
     </row>
-    <row r="147" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B147" s="24" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>681</v>
-      </c>
-      <c r="D147" s="15" t="s">
-        <v>682</v>
+        <v>107</v>
+      </c>
+      <c r="D147" s="12" t="s">
+        <v>635</v>
       </c>
       <c r="E147" s="9"/>
       <c r="F147" s="9">
         <v>2019</v>
       </c>
-      <c r="G147" s="9" t="s">
+      <c r="G147" s="14" t="s">
         <v>86</v>
       </c>
       <c r="H147" s="9" t="s">
         <v>562</v>
       </c>
       <c r="I147" s="9"/>
-      <c r="J147" s="9" t="s">
+      <c r="J147" s="14" t="s">
         <v>86</v>
       </c>
       <c r="K147" s="22"/>
@@ -9693,9 +9810,9 @@
       <c r="Q147" s="22"/>
       <c r="R147" s="22"/>
     </row>
-    <row r="148" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B148" s="24" t="s">
         <v>665</v>
@@ -9704,7 +9821,7 @@
         <v>681</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E148" s="9"/>
       <c r="F148" s="9">
@@ -9729,9 +9846,9 @@
       <c r="Q148" s="22"/>
       <c r="R148" s="22"/>
     </row>
-    <row r="149" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B149" s="24" t="s">
         <v>665</v>
@@ -9740,7 +9857,7 @@
         <v>681</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E149" s="9"/>
       <c r="F149" s="9">
@@ -9765,9 +9882,9 @@
       <c r="Q149" s="22"/>
       <c r="R149" s="22"/>
     </row>
-    <row r="150" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B150" s="24" t="s">
         <v>665</v>
@@ -9776,7 +9893,7 @@
         <v>681</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E150" s="9"/>
       <c r="F150" s="9">
@@ -9801,18 +9918,18 @@
       <c r="Q150" s="22"/>
       <c r="R150" s="22"/>
     </row>
-    <row r="151" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B151" s="24" t="s">
         <v>665</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>710</v>
+        <v>681</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>711</v>
+        <v>685</v>
       </c>
       <c r="E151" s="9"/>
       <c r="F151" s="9">
@@ -9837,9 +9954,9 @@
       <c r="Q151" s="22"/>
       <c r="R151" s="22"/>
     </row>
-    <row r="152" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B152" s="24" t="s">
         <v>665</v>
@@ -9848,7 +9965,7 @@
         <v>710</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E152" s="9"/>
       <c r="F152" s="9">
@@ -9873,9 +9990,9 @@
       <c r="Q152" s="22"/>
       <c r="R152" s="22"/>
     </row>
-    <row r="153" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B153" s="24" t="s">
         <v>665</v>
@@ -9884,7 +10001,7 @@
         <v>710</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="9">
@@ -9909,18 +10026,18 @@
       <c r="Q153" s="22"/>
       <c r="R153" s="22"/>
     </row>
-    <row r="154" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="33" t="s">
-        <v>817</v>
-      </c>
-      <c r="B154" s="21" t="s">
-        <v>825</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>584</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>586</v>
+        <v>819</v>
+      </c>
+      <c r="B154" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="D154" s="15" t="s">
+        <v>713</v>
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="9">
@@ -9934,7 +10051,7 @@
       </c>
       <c r="I154" s="9"/>
       <c r="J154" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K154" s="22"/>
       <c r="L154" s="22"/>
@@ -9945,17 +10062,19 @@
       <c r="Q154" s="22"/>
       <c r="R154" s="22"/>
     </row>
-    <row r="155" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="33" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B155" s="21" t="s">
-        <v>108</v>
+        <v>824</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D155" s="9"/>
+        <v>584</v>
+      </c>
+      <c r="D155" s="9" t="s">
+        <v>586</v>
+      </c>
       <c r="E155" s="9"/>
       <c r="F155" s="9">
         <v>2019</v>
@@ -9967,8 +10086,8 @@
         <v>562</v>
       </c>
       <c r="I155" s="9"/>
-      <c r="J155" s="13">
-        <v>43582</v>
+      <c r="J155" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="K155" s="22"/>
       <c r="L155" s="22"/>
@@ -9979,32 +10098,30 @@
       <c r="Q155" s="22"/>
       <c r="R155" s="22"/>
     </row>
-    <row r="156" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="33" t="s">
         <v>820</v>
       </c>
-      <c r="B156" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C156" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D156" s="12" t="s">
-        <v>638</v>
-      </c>
+      <c r="B156" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D156" s="9"/>
       <c r="E156" s="9"/>
       <c r="F156" s="9">
         <v>2019</v>
       </c>
-      <c r="G156" s="14" t="s">
-        <v>87</v>
+      <c r="G156" s="9" t="s">
+        <v>86</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>771</v>
+        <v>562</v>
       </c>
       <c r="I156" s="9"/>
-      <c r="J156" s="14" t="s">
-        <v>87</v>
+      <c r="J156" s="13">
+        <v>43582</v>
       </c>
       <c r="K156" s="22"/>
       <c r="L156" s="22"/>
@@ -10015,9 +10132,9 @@
       <c r="Q156" s="22"/>
       <c r="R156" s="22"/>
     </row>
-    <row r="157" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B157" s="24" t="s">
         <v>642</v>
@@ -10026,7 +10143,7 @@
         <v>105</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E157" s="9"/>
       <c r="F157" s="9">
@@ -10051,18 +10168,18 @@
       <c r="Q157" s="22"/>
       <c r="R157" s="22"/>
     </row>
-    <row r="158" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B158" s="24" t="s">
         <v>642</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="E158" s="9"/>
       <c r="F158" s="9">
@@ -10078,9 +10195,7 @@
       <c r="J158" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="K158" s="35" t="s">
-        <v>826</v>
-      </c>
+      <c r="K158" s="22"/>
       <c r="L158" s="22"/>
       <c r="M158" s="22"/>
       <c r="N158" s="22"/>
@@ -10089,34 +10204,36 @@
       <c r="Q158" s="22"/>
       <c r="R158" s="22"/>
     </row>
-    <row r="159" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B159" s="24" t="s">
-        <v>3</v>
+        <v>642</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>759</v>
-      </c>
-      <c r="D159" s="15" t="s">
-        <v>762</v>
+        <v>106</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>649</v>
       </c>
       <c r="E159" s="9"/>
       <c r="F159" s="9">
         <v>2019</v>
       </c>
-      <c r="G159" s="9" t="s">
+      <c r="G159" s="14" t="s">
         <v>87</v>
       </c>
       <c r="H159" s="9" t="s">
         <v>771</v>
       </c>
       <c r="I159" s="9"/>
-      <c r="J159" s="9" t="s">
+      <c r="J159" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="K159" s="22"/>
+      <c r="K159" s="35" t="s">
+        <v>825</v>
+      </c>
       <c r="L159" s="22"/>
       <c r="M159" s="22"/>
       <c r="N159" s="22"/>
@@ -10125,22 +10242,20 @@
       <c r="Q159" s="22"/>
       <c r="R159" s="22"/>
     </row>
-    <row r="160" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>820</v>
-      </c>
-      <c r="B160" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D160" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>53</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="B160" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="D160" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="E160" s="9"/>
       <c r="F160" s="9">
         <v>2019</v>
       </c>
@@ -10148,7 +10263,7 @@
         <v>87</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>559</v>
+        <v>771</v>
       </c>
       <c r="I160" s="9"/>
       <c r="J160" s="9" t="s">
@@ -10163,18 +10278,22 @@
       <c r="Q160" s="22"/>
       <c r="R160" s="22"/>
     </row>
-    <row r="161" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B161" s="21" t="s">
-        <v>593</v>
+        <v>5</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="D161" s="9"/>
-      <c r="E161" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="D161" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E161" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="F161" s="9">
         <v>2019</v>
       </c>
@@ -10184,9 +10303,7 @@
       <c r="H161" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I161" s="9">
-        <v>28500</v>
-      </c>
+      <c r="I161" s="9"/>
       <c r="J161" s="9" t="s">
         <v>87</v>
       </c>
@@ -10199,15 +10316,15 @@
       <c r="Q161" s="22"/>
       <c r="R161" s="22"/>
     </row>
-    <row r="162" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B162" s="21" t="s">
-        <v>664</v>
+        <v>593</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
@@ -10221,7 +10338,7 @@
         <v>559</v>
       </c>
       <c r="I162" s="9">
-        <v>100000</v>
+        <v>28500</v>
       </c>
       <c r="J162" s="9" t="s">
         <v>87</v>
@@ -10235,31 +10352,31 @@
       <c r="Q162" s="22"/>
       <c r="R162" s="22"/>
     </row>
-    <row r="163" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>820</v>
-      </c>
-      <c r="B163" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D163" s="12" t="s">
-        <v>636</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="B163" s="21" t="s">
+        <v>664</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="D163" s="9"/>
       <c r="E163" s="9"/>
       <c r="F163" s="9">
         <v>2019</v>
       </c>
-      <c r="G163" s="14" t="s">
+      <c r="G163" s="9" t="s">
         <v>87</v>
       </c>
       <c r="H163" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I163" s="9"/>
-      <c r="J163" s="14" t="s">
+      <c r="I163" s="9">
+        <v>100000</v>
+      </c>
+      <c r="J163" s="9" t="s">
         <v>87</v>
       </c>
       <c r="K163" s="22"/>
@@ -10271,9 +10388,9 @@
       <c r="Q163" s="22"/>
       <c r="R163" s="22"/>
     </row>
-    <row r="164" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B164" s="24" t="s">
         <v>642</v>
@@ -10282,7 +10399,7 @@
         <v>105</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E164" s="9"/>
       <c r="F164" s="9">
@@ -10307,18 +10424,18 @@
       <c r="Q164" s="22"/>
       <c r="R164" s="22"/>
     </row>
-    <row r="165" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B165" s="24" t="s">
         <v>642</v>
       </c>
       <c r="C165" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>643</v>
+        <v>105</v>
+      </c>
+      <c r="D165" s="12" t="s">
+        <v>637</v>
       </c>
       <c r="E165" s="9"/>
       <c r="F165" s="9">
@@ -10343,31 +10460,31 @@
       <c r="Q165" s="22"/>
       <c r="R165" s="22"/>
     </row>
-    <row r="166" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B166" s="24" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="D166" s="15" t="s">
-        <v>687</v>
+        <v>106</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>643</v>
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="9">
         <v>2019</v>
       </c>
-      <c r="G166" s="9" t="s">
+      <c r="G166" s="14" t="s">
         <v>87</v>
       </c>
       <c r="H166" s="9" t="s">
         <v>559</v>
       </c>
       <c r="I166" s="9"/>
-      <c r="J166" s="9" t="s">
+      <c r="J166" s="14" t="s">
         <v>87</v>
       </c>
       <c r="K166" s="22"/>
@@ -10379,9 +10496,9 @@
       <c r="Q166" s="22"/>
       <c r="R166" s="22"/>
     </row>
-    <row r="167" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B167" s="24" t="s">
         <v>665</v>
@@ -10390,7 +10507,7 @@
         <v>686</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E167" s="9"/>
       <c r="F167" s="9">
@@ -10415,18 +10532,18 @@
       <c r="Q167" s="22"/>
       <c r="R167" s="22"/>
     </row>
-    <row r="168" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B168" s="24" t="s">
         <v>665</v>
       </c>
       <c r="C168" s="12" t="s">
-        <v>714</v>
+        <v>686</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>715</v>
+        <v>688</v>
       </c>
       <c r="E168" s="9"/>
       <c r="F168" s="9">
@@ -10451,9 +10568,9 @@
       <c r="Q168" s="22"/>
       <c r="R168" s="22"/>
     </row>
-    <row r="169" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B169" s="24" t="s">
         <v>665</v>
@@ -10462,7 +10579,7 @@
         <v>714</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E169" s="9"/>
       <c r="F169" s="9">
@@ -10487,18 +10604,18 @@
       <c r="Q169" s="22"/>
       <c r="R169" s="22"/>
     </row>
-    <row r="170" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B170" s="24" t="s">
         <v>665</v>
       </c>
       <c r="C170" s="12" t="s">
-        <v>735</v>
+        <v>714</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="9">
@@ -10523,9 +10640,9 @@
       <c r="Q170" s="22"/>
       <c r="R170" s="22"/>
     </row>
-    <row r="171" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B171" s="24" t="s">
         <v>665</v>
@@ -10534,7 +10651,7 @@
         <v>735</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E171" s="9"/>
       <c r="F171" s="9">
@@ -10559,22 +10676,20 @@
       <c r="Q171" s="22"/>
       <c r="R171" s="22"/>
     </row>
-    <row r="172" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="33" t="s">
         <v>819</v>
       </c>
-      <c r="B172" s="21" t="s">
-        <v>824</v>
-      </c>
-      <c r="C172" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D172" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E172" s="9" t="s">
-        <v>72</v>
-      </c>
+      <c r="B172" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="D172" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="E172" s="9"/>
       <c r="F172" s="9">
         <v>2019</v>
       </c>
@@ -10597,18 +10712,18 @@
       <c r="Q172" s="22"/>
       <c r="R172" s="22"/>
     </row>
-    <row r="173" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C173" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D173" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E173" s="9" t="s">
         <v>72</v>
@@ -10635,18 +10750,18 @@
       <c r="Q173" s="22"/>
       <c r="R173" s="22"/>
     </row>
-    <row r="174" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D174" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E174" s="9" t="s">
         <v>72</v>
@@ -10673,18 +10788,18 @@
       <c r="Q174" s="22"/>
       <c r="R174" s="22"/>
     </row>
-    <row r="175" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D175" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E175" s="9" t="s">
         <v>72</v>
@@ -10711,18 +10826,18 @@
       <c r="Q175" s="22"/>
       <c r="R175" s="22"/>
     </row>
-    <row r="176" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C176" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D176" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E176" s="9" t="s">
         <v>72</v>
@@ -10749,18 +10864,18 @@
       <c r="Q176" s="22"/>
       <c r="R176" s="22"/>
     </row>
-    <row r="177" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C177" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D177" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E177" s="9" t="s">
         <v>72</v>
@@ -10787,21 +10902,21 @@
       <c r="Q177" s="22"/>
       <c r="R177" s="22"/>
     </row>
-    <row r="178" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>584</v>
+        <v>95</v>
       </c>
       <c r="D178" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="E178" s="9">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="F178" s="9">
         <v>2019</v>
@@ -10812,11 +10927,9 @@
       <c r="H178" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I178" s="9">
-        <v>10000</v>
-      </c>
+      <c r="I178" s="9"/>
       <c r="J178" s="9" t="s">
-        <v>589</v>
+        <v>87</v>
       </c>
       <c r="K178" s="22"/>
       <c r="L178" s="22"/>
@@ -10827,21 +10940,21 @@
       <c r="Q178" s="22"/>
       <c r="R178" s="22"/>
     </row>
-    <row r="179" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>5</v>
+        <v>824</v>
       </c>
       <c r="C179" s="9" t="s">
-        <v>6</v>
+        <v>584</v>
       </c>
       <c r="D179" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E179" s="9" t="s">
-        <v>54</v>
+        <v>587</v>
+      </c>
+      <c r="E179" s="9">
+        <v>1</v>
       </c>
       <c r="F179" s="9">
         <v>2019</v>
@@ -10850,11 +10963,13 @@
         <v>87</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="I179" s="9"/>
+        <v>559</v>
+      </c>
+      <c r="I179" s="9">
+        <v>10000</v>
+      </c>
       <c r="J179" s="9" t="s">
-        <v>87</v>
+        <v>589</v>
       </c>
       <c r="K179" s="22"/>
       <c r="L179" s="22"/>
@@ -10865,31 +10980,33 @@
       <c r="Q179" s="22"/>
       <c r="R179" s="22"/>
     </row>
-    <row r="180" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>820</v>
-      </c>
-      <c r="B180" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C180" s="12" t="s">
-        <v>106</v>
+        <v>819</v>
+      </c>
+      <c r="B180" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>6</v>
       </c>
       <c r="D180" s="9" t="s">
-        <v>644</v>
-      </c>
-      <c r="E180" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="F180" s="9">
         <v>2019</v>
       </c>
-      <c r="G180" s="14" t="s">
+      <c r="G180" s="9" t="s">
         <v>87</v>
       </c>
       <c r="H180" s="9" t="s">
         <v>560</v>
       </c>
       <c r="I180" s="9"/>
-      <c r="J180" s="14" t="s">
+      <c r="J180" s="9" t="s">
         <v>87</v>
       </c>
       <c r="K180" s="22"/>
@@ -10901,31 +11018,31 @@
       <c r="Q180" s="22"/>
       <c r="R180" s="22"/>
     </row>
-    <row r="181" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B181" s="24" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="D181" s="15" t="s">
-        <v>718</v>
+        <v>106</v>
+      </c>
+      <c r="D181" s="9" t="s">
+        <v>644</v>
       </c>
       <c r="E181" s="9"/>
       <c r="F181" s="9">
         <v>2019</v>
       </c>
-      <c r="G181" s="9" t="s">
+      <c r="G181" s="14" t="s">
         <v>87</v>
       </c>
       <c r="H181" s="9" t="s">
         <v>560</v>
       </c>
       <c r="I181" s="9"/>
-      <c r="J181" s="9" t="s">
+      <c r="J181" s="14" t="s">
         <v>87</v>
       </c>
       <c r="K181" s="22"/>
@@ -10937,9 +11054,9 @@
       <c r="Q181" s="22"/>
       <c r="R181" s="22"/>
     </row>
-    <row r="182" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B182" s="24" t="s">
         <v>665</v>
@@ -10948,7 +11065,7 @@
         <v>717</v>
       </c>
       <c r="D182" s="15" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E182" s="9"/>
       <c r="F182" s="9">
@@ -10973,9 +11090,9 @@
       <c r="Q182" s="22"/>
       <c r="R182" s="22"/>
     </row>
-    <row r="183" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B183" s="24" t="s">
         <v>665</v>
@@ -10984,7 +11101,7 @@
         <v>717</v>
       </c>
       <c r="D183" s="15" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="9">
@@ -11009,9 +11126,9 @@
       <c r="Q183" s="22"/>
       <c r="R183" s="22"/>
     </row>
-    <row r="184" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B184" s="24" t="s">
         <v>665</v>
@@ -11020,7 +11137,7 @@
         <v>717</v>
       </c>
       <c r="D184" s="15" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="9">
@@ -11045,18 +11162,18 @@
       <c r="Q184" s="22"/>
       <c r="R184" s="22"/>
     </row>
-    <row r="185" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B185" s="24" t="s">
         <v>665</v>
       </c>
       <c r="C185" s="12" t="s">
-        <v>749</v>
+        <v>717</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>750</v>
+        <v>721</v>
       </c>
       <c r="E185" s="9"/>
       <c r="F185" s="9">
@@ -11081,9 +11198,9 @@
       <c r="Q185" s="22"/>
       <c r="R185" s="22"/>
     </row>
-    <row r="186" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B186" s="24" t="s">
         <v>665</v>
@@ -11092,7 +11209,7 @@
         <v>749</v>
       </c>
       <c r="D186" s="15" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="9">
@@ -11117,9 +11234,9 @@
       <c r="Q186" s="22"/>
       <c r="R186" s="22"/>
     </row>
-    <row r="187" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B187" s="24" t="s">
         <v>665</v>
@@ -11128,7 +11245,7 @@
         <v>749</v>
       </c>
       <c r="D187" s="15" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E187" s="9"/>
       <c r="F187" s="9">
@@ -11153,9 +11270,9 @@
       <c r="Q187" s="22"/>
       <c r="R187" s="22"/>
     </row>
-    <row r="188" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B188" s="24" t="s">
         <v>665</v>
@@ -11164,7 +11281,7 @@
         <v>749</v>
       </c>
       <c r="D188" s="15" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E188" s="9"/>
       <c r="F188" s="9">
@@ -11189,18 +11306,18 @@
       <c r="Q188" s="22"/>
       <c r="R188" s="22"/>
     </row>
-    <row r="189" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B189" s="24" t="s">
-        <v>3</v>
+        <v>665</v>
       </c>
       <c r="C189" s="12" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
       <c r="D189" s="15" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="9">
@@ -11225,22 +11342,20 @@
       <c r="Q189" s="22"/>
       <c r="R189" s="22"/>
     </row>
-    <row r="190" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="33" t="s">
         <v>819</v>
       </c>
-      <c r="B190" s="21" t="s">
-        <v>824</v>
-      </c>
-      <c r="C190" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D190" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E190" s="9" t="s">
-        <v>73</v>
-      </c>
+      <c r="B190" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="D190" s="15" t="s">
+        <v>762</v>
+      </c>
+      <c r="E190" s="9"/>
       <c r="F190" s="9">
         <v>2019</v>
       </c>
@@ -11263,18 +11378,18 @@
       <c r="Q190" s="22"/>
       <c r="R190" s="22"/>
     </row>
-    <row r="191" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B191" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C191" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D191" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E191" s="9" t="s">
         <v>73</v>
@@ -11301,18 +11416,18 @@
       <c r="Q191" s="22"/>
       <c r="R191" s="22"/>
     </row>
-    <row r="192" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D192" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E192" s="9" t="s">
         <v>73</v>
@@ -11339,18 +11454,18 @@
       <c r="Q192" s="22"/>
       <c r="R192" s="22"/>
     </row>
-    <row r="193" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D193" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E193" s="9" t="s">
         <v>73</v>
@@ -11377,18 +11492,18 @@
       <c r="Q193" s="22"/>
       <c r="R193" s="22"/>
     </row>
-    <row r="194" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D194" s="9" t="s">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="E194" s="9" t="s">
         <v>73</v>
@@ -11415,18 +11530,18 @@
       <c r="Q194" s="22"/>
       <c r="R194" s="22"/>
     </row>
-    <row r="195" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C195" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D195" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E195" s="9" t="s">
         <v>73</v>
@@ -11453,18 +11568,18 @@
       <c r="Q195" s="22"/>
       <c r="R195" s="22"/>
     </row>
-    <row r="196" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C196" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D196" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E196" s="9" t="s">
         <v>73</v>
@@ -11491,18 +11606,18 @@
       <c r="Q196" s="22"/>
       <c r="R196" s="22"/>
     </row>
-    <row r="197" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C197" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D197" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E197" s="9" t="s">
         <v>73</v>
@@ -11529,18 +11644,18 @@
       <c r="Q197" s="22"/>
       <c r="R197" s="22"/>
     </row>
-    <row r="198" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C198" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D198" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E198" s="9" t="s">
         <v>73</v>
@@ -11567,18 +11682,18 @@
       <c r="Q198" s="22"/>
       <c r="R198" s="22"/>
     </row>
-    <row r="199" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C199" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D199" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E199" s="9" t="s">
         <v>73</v>
@@ -11605,18 +11720,22 @@
       <c r="Q199" s="22"/>
       <c r="R199" s="22"/>
     </row>
-    <row r="200" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>108</v>
+        <v>823</v>
       </c>
       <c r="C200" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D200" s="9"/>
-      <c r="E200" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="D200" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E200" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="F200" s="9">
         <v>2019</v>
       </c>
@@ -11627,8 +11746,8 @@
         <v>560</v>
       </c>
       <c r="I200" s="9"/>
-      <c r="J200" s="13">
-        <v>43596</v>
+      <c r="J200" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="K200" s="22"/>
       <c r="L200" s="22"/>
@@ -11639,32 +11758,30 @@
       <c r="Q200" s="22"/>
       <c r="R200" s="22"/>
     </row>
-    <row r="201" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="B201" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C201" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D201" s="9" t="s">
-        <v>645</v>
-      </c>
+      <c r="B201" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D201" s="9"/>
       <c r="E201" s="9"/>
       <c r="F201" s="9">
         <v>2019</v>
       </c>
-      <c r="G201" s="14" t="s">
+      <c r="G201" s="9" t="s">
         <v>87</v>
       </c>
       <c r="H201" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I201" s="9"/>
-      <c r="J201" s="14" t="s">
-        <v>87</v>
+      <c r="J201" s="13">
+        <v>43596</v>
       </c>
       <c r="K201" s="22"/>
       <c r="L201" s="22"/>
@@ -11675,31 +11792,31 @@
       <c r="Q201" s="22"/>
       <c r="R201" s="22"/>
     </row>
-    <row r="202" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B202" s="24" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C202" s="12" t="s">
-        <v>722</v>
-      </c>
-      <c r="D202" s="15" t="s">
-        <v>723</v>
+        <v>106</v>
+      </c>
+      <c r="D202" s="9" t="s">
+        <v>645</v>
       </c>
       <c r="E202" s="9"/>
       <c r="F202" s="9">
         <v>2019</v>
       </c>
-      <c r="G202" s="9" t="s">
+      <c r="G202" s="14" t="s">
         <v>87</v>
       </c>
       <c r="H202" s="9" t="s">
         <v>561</v>
       </c>
       <c r="I202" s="9"/>
-      <c r="J202" s="9" t="s">
+      <c r="J202" s="14" t="s">
         <v>87</v>
       </c>
       <c r="K202" s="22"/>
@@ -11711,9 +11828,9 @@
       <c r="Q202" s="22"/>
       <c r="R202" s="22"/>
     </row>
-    <row r="203" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B203" s="24" t="s">
         <v>665</v>
@@ -11722,7 +11839,7 @@
         <v>722</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="E203" s="9"/>
       <c r="F203" s="9">
@@ -11747,18 +11864,18 @@
       <c r="Q203" s="22"/>
       <c r="R203" s="22"/>
     </row>
-    <row r="204" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B204" s="24" t="s">
         <v>665</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="D204" s="15" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="E204" s="9"/>
       <c r="F204" s="9">
@@ -11783,9 +11900,9 @@
       <c r="Q204" s="22"/>
       <c r="R204" s="22"/>
     </row>
-    <row r="205" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B205" s="24" t="s">
         <v>665</v>
@@ -11794,7 +11911,7 @@
         <v>725</v>
       </c>
       <c r="D205" s="15" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E205" s="9"/>
       <c r="F205" s="9">
@@ -11819,9 +11936,9 @@
       <c r="Q205" s="22"/>
       <c r="R205" s="22"/>
     </row>
-    <row r="206" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B206" s="24" t="s">
         <v>665</v>
@@ -11830,7 +11947,7 @@
         <v>725</v>
       </c>
       <c r="D206" s="15" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E206" s="9"/>
       <c r="F206" s="9">
@@ -11855,18 +11972,18 @@
       <c r="Q206" s="22"/>
       <c r="R206" s="22"/>
     </row>
-    <row r="207" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B207" s="24" t="s">
         <v>665</v>
       </c>
       <c r="C207" s="12" t="s">
-        <v>754</v>
+        <v>725</v>
       </c>
       <c r="D207" s="15" t="s">
-        <v>755</v>
+        <v>728</v>
       </c>
       <c r="E207" s="9"/>
       <c r="F207" s="9">
@@ -11891,9 +12008,9 @@
       <c r="Q207" s="22"/>
       <c r="R207" s="22"/>
     </row>
-    <row r="208" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B208" s="24" t="s">
         <v>665</v>
@@ -11902,7 +12019,7 @@
         <v>754</v>
       </c>
       <c r="D208" s="15" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E208" s="9"/>
       <c r="F208" s="9">
@@ -11927,9 +12044,9 @@
       <c r="Q208" s="22"/>
       <c r="R208" s="22"/>
     </row>
-    <row r="209" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B209" s="24" t="s">
         <v>665</v>
@@ -11938,7 +12055,7 @@
         <v>754</v>
       </c>
       <c r="D209" s="15" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E209" s="9"/>
       <c r="F209" s="9">
@@ -11963,22 +12080,20 @@
       <c r="Q209" s="22"/>
       <c r="R209" s="22"/>
     </row>
-    <row r="210" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="33" t="s">
         <v>819</v>
       </c>
-      <c r="B210" s="21" t="s">
-        <v>824</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D210" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E210" s="9" t="s">
-        <v>80</v>
-      </c>
+      <c r="B210" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="D210" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="E210" s="9"/>
       <c r="F210" s="9">
         <v>2019</v>
       </c>
@@ -11988,9 +12103,7 @@
       <c r="H210" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="I210" s="9">
-        <v>3000</v>
-      </c>
+      <c r="I210" s="9"/>
       <c r="J210" s="9" t="s">
         <v>87</v>
       </c>
@@ -12003,21 +12116,21 @@
       <c r="Q210" s="22"/>
       <c r="R210" s="22"/>
     </row>
-    <row r="211" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B211" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C211" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D211" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E211" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F211" s="9">
         <v>2019</v>
@@ -12029,7 +12142,7 @@
         <v>561</v>
       </c>
       <c r="I211" s="9">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="J211" s="9" t="s">
         <v>87</v>
@@ -12043,21 +12156,21 @@
       <c r="Q211" s="22"/>
       <c r="R211" s="22"/>
     </row>
-    <row r="212" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C212" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E212" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F212" s="9">
         <v>2019</v>
@@ -12083,18 +12196,18 @@
       <c r="Q212" s="22"/>
       <c r="R212" s="22"/>
     </row>
-    <row r="213" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C213" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D213" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E213" s="9" t="s">
         <v>80</v>
@@ -12109,7 +12222,7 @@
         <v>561</v>
       </c>
       <c r="I213" s="9">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="J213" s="9" t="s">
         <v>87</v>
@@ -12123,31 +12236,35 @@
       <c r="Q213" s="22"/>
       <c r="R213" s="22"/>
     </row>
-    <row r="214" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="B214" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C214" s="12" t="s">
-        <v>106</v>
+        <v>818</v>
+      </c>
+      <c r="B214" s="21" t="s">
+        <v>823</v>
+      </c>
+      <c r="C214" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="D214" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="E214" s="9"/>
+        <v>84</v>
+      </c>
+      <c r="E214" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="F214" s="9">
         <v>2019</v>
       </c>
-      <c r="G214" s="14" t="s">
+      <c r="G214" s="9" t="s">
         <v>87</v>
       </c>
       <c r="H214" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="I214" s="9"/>
-      <c r="J214" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="I214" s="9">
+        <v>3000</v>
+      </c>
+      <c r="J214" s="9" t="s">
         <v>87</v>
       </c>
       <c r="K214" s="22"/>
@@ -12159,31 +12276,31 @@
       <c r="Q214" s="22"/>
       <c r="R214" s="22"/>
     </row>
-    <row r="215" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B215" s="24" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C215" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="D215" s="15" t="s">
-        <v>730</v>
+        <v>106</v>
+      </c>
+      <c r="D215" s="9" t="s">
+        <v>646</v>
       </c>
       <c r="E215" s="9"/>
       <c r="F215" s="9">
         <v>2019</v>
       </c>
-      <c r="G215" s="9" t="s">
+      <c r="G215" s="14" t="s">
         <v>87</v>
       </c>
       <c r="H215" s="9" t="s">
         <v>562</v>
       </c>
       <c r="I215" s="9"/>
-      <c r="J215" s="9" t="s">
+      <c r="J215" s="14" t="s">
         <v>87</v>
       </c>
       <c r="K215" s="22"/>
@@ -12195,9 +12312,9 @@
       <c r="Q215" s="22"/>
       <c r="R215" s="22"/>
     </row>
-    <row r="216" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B216" s="24" t="s">
         <v>665</v>
@@ -12206,7 +12323,7 @@
         <v>729</v>
       </c>
       <c r="D216" s="15" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E216" s="9"/>
       <c r="F216" s="9">
@@ -12231,18 +12348,18 @@
       <c r="Q216" s="22"/>
       <c r="R216" s="22"/>
     </row>
-    <row r="217" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B217" s="24" t="s">
         <v>665</v>
       </c>
       <c r="C217" s="12" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="D217" s="15" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="E217" s="9"/>
       <c r="F217" s="9">
@@ -12267,9 +12384,9 @@
       <c r="Q217" s="22"/>
       <c r="R217" s="22"/>
     </row>
-    <row r="218" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B218" s="24" t="s">
         <v>665</v>
@@ -12278,7 +12395,7 @@
         <v>732</v>
       </c>
       <c r="D218" s="15" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E218" s="9"/>
       <c r="F218" s="9">
@@ -12303,17 +12420,19 @@
       <c r="Q218" s="22"/>
       <c r="R218" s="22"/>
     </row>
-    <row r="219" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="33" t="s">
-        <v>821</v>
-      </c>
-      <c r="B219" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C219" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D219" s="9"/>
+        <v>819</v>
+      </c>
+      <c r="B219" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="D219" s="15" t="s">
+        <v>734</v>
+      </c>
       <c r="E219" s="9"/>
       <c r="F219" s="9">
         <v>2019</v>
@@ -12325,8 +12444,8 @@
         <v>562</v>
       </c>
       <c r="I219" s="9"/>
-      <c r="J219" s="13">
-        <v>43610</v>
+      <c r="J219" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="K219" s="22"/>
       <c r="L219" s="22"/>
@@ -12337,32 +12456,30 @@
       <c r="Q219" s="22"/>
       <c r="R219" s="22"/>
     </row>
-    <row r="220" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="B220" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C220" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D220" s="12" t="s">
-        <v>640</v>
-      </c>
+      <c r="B220" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C220" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D220" s="9"/>
       <c r="E220" s="9"/>
       <c r="F220" s="9">
         <v>2019</v>
       </c>
-      <c r="G220" s="14" t="s">
-        <v>96</v>
+      <c r="G220" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="H220" s="9" t="s">
-        <v>771</v>
+        <v>562</v>
       </c>
       <c r="I220" s="9"/>
-      <c r="J220" s="14" t="s">
-        <v>96</v>
+      <c r="J220" s="13">
+        <v>43610</v>
       </c>
       <c r="K220" s="22"/>
       <c r="L220" s="22"/>
@@ -12373,18 +12490,18 @@
       <c r="Q220" s="22"/>
       <c r="R220" s="22"/>
     </row>
-    <row r="221" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B221" s="24" t="s">
-        <v>763</v>
+        <v>642</v>
       </c>
       <c r="C221" s="12" t="s">
-        <v>765</v>
-      </c>
-      <c r="D221" s="15" t="s">
-        <v>764</v>
+        <v>105</v>
+      </c>
+      <c r="D221" s="12" t="s">
+        <v>640</v>
       </c>
       <c r="E221" s="9"/>
       <c r="F221" s="9">
@@ -12409,36 +12526,32 @@
       <c r="Q221" s="22"/>
       <c r="R221" s="22"/>
     </row>
-    <row r="222" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
         <v>819</v>
       </c>
-      <c r="B222" s="21" t="s">
-        <v>824</v>
-      </c>
-      <c r="C222" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D222" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="E222" s="9" t="s">
-        <v>80</v>
-      </c>
+      <c r="B222" s="24" t="s">
+        <v>763</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="D222" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="E222" s="9"/>
       <c r="F222" s="9">
         <v>2019</v>
       </c>
-      <c r="G222" s="9" t="s">
+      <c r="G222" s="14" t="s">
         <v>96</v>
       </c>
       <c r="H222" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="I222" s="9">
-        <v>2500</v>
-      </c>
-      <c r="J222" s="9" t="s">
-        <v>87</v>
+        <v>771</v>
+      </c>
+      <c r="I222" s="9"/>
+      <c r="J222" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="K222" s="22"/>
       <c r="L222" s="22"/>
@@ -12449,18 +12562,18 @@
       <c r="Q222" s="22"/>
       <c r="R222" s="22"/>
     </row>
-    <row r="223" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B223" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C223" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D223" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E223" s="9" t="s">
         <v>80</v>
@@ -12489,18 +12602,18 @@
       <c r="Q223" s="22"/>
       <c r="R223" s="22"/>
     </row>
-    <row r="224" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C224" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D224" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E224" s="9" t="s">
         <v>80</v>
@@ -12515,7 +12628,7 @@
         <v>559</v>
       </c>
       <c r="I224" s="9">
-        <v>2000</v>
+        <v>2500</v>
       </c>
       <c r="J224" s="9" t="s">
         <v>87</v>
@@ -12529,12 +12642,12 @@
       <c r="Q224" s="22"/>
       <c r="R224" s="22"/>
     </row>
-    <row r="225" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C225" s="9" t="s">
         <v>95</v>
@@ -12569,18 +12682,18 @@
       <c r="Q225" s="22"/>
       <c r="R225" s="22"/>
     </row>
-    <row r="226" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C226" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E226" s="9" t="s">
         <v>80</v>
@@ -12609,21 +12722,21 @@
       <c r="Q226" s="22"/>
       <c r="R226" s="22"/>
     </row>
-    <row r="227" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C227" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="F227" s="9">
         <v>2019</v>
@@ -12634,7 +12747,9 @@
       <c r="H227" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I227" s="9"/>
+      <c r="I227" s="9">
+        <v>2000</v>
+      </c>
       <c r="J227" s="9" t="s">
         <v>87</v>
       </c>
@@ -12647,18 +12762,18 @@
       <c r="Q227" s="22"/>
       <c r="R227" s="22"/>
     </row>
-    <row r="228" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C228" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D228" s="9" t="s">
-        <v>555</v>
+        <v>97</v>
       </c>
       <c r="E228" s="9" t="s">
         <v>73</v>
@@ -12685,18 +12800,22 @@
       <c r="Q228" s="22"/>
       <c r="R228" s="22"/>
     </row>
-    <row r="229" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="33" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>593</v>
+        <v>823</v>
       </c>
       <c r="C229" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="D229" s="9"/>
-      <c r="E229" s="9"/>
+        <v>95</v>
+      </c>
+      <c r="D229" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="E229" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="F229" s="9">
         <v>2019</v>
       </c>
@@ -12706,11 +12825,9 @@
       <c r="H229" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I229" s="9">
-        <v>28500</v>
-      </c>
+      <c r="I229" s="9"/>
       <c r="J229" s="9" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K229" s="22"/>
       <c r="L229" s="22"/>
@@ -12721,15 +12838,15 @@
       <c r="Q229" s="22"/>
       <c r="R229" s="22"/>
     </row>
-    <row r="230" spans="1:18" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>664</v>
+        <v>593</v>
       </c>
       <c r="C230" s="9" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D230" s="9"/>
       <c r="E230" s="9"/>
@@ -12743,7 +12860,7 @@
         <v>559</v>
       </c>
       <c r="I230" s="9">
-        <v>100000</v>
+        <v>28500</v>
       </c>
       <c r="J230" s="9" t="s">
         <v>96</v>
@@ -12757,31 +12874,31 @@
       <c r="Q230" s="22"/>
       <c r="R230" s="22"/>
     </row>
-    <row r="231" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="B231" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C231" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D231" s="15" t="s">
-        <v>647</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="B231" s="21" t="s">
+        <v>664</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="D231" s="9"/>
       <c r="E231" s="9"/>
       <c r="F231" s="9">
         <v>2019</v>
       </c>
-      <c r="G231" s="14" t="s">
+      <c r="G231" s="9" t="s">
         <v>96</v>
       </c>
       <c r="H231" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I231" s="9"/>
-      <c r="J231" s="14" t="s">
+      <c r="I231" s="9">
+        <v>100000</v>
+      </c>
+      <c r="J231" s="9" t="s">
         <v>96</v>
       </c>
       <c r="K231" s="22"/>
@@ -12793,31 +12910,31 @@
       <c r="Q231" s="22"/>
       <c r="R231" s="22"/>
     </row>
-    <row r="232" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B232" s="24" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="C232" s="12" t="s">
-        <v>740</v>
+        <v>106</v>
       </c>
       <c r="D232" s="15" t="s">
-        <v>738</v>
+        <v>647</v>
       </c>
       <c r="E232" s="9"/>
       <c r="F232" s="9">
         <v>2019</v>
       </c>
-      <c r="G232" s="9" t="s">
+      <c r="G232" s="14" t="s">
         <v>96</v>
       </c>
       <c r="H232" s="9" t="s">
         <v>559</v>
       </c>
       <c r="I232" s="9"/>
-      <c r="J232" s="9" t="s">
+      <c r="J232" s="14" t="s">
         <v>96</v>
       </c>
       <c r="K232" s="22"/>
@@ -12829,9 +12946,9 @@
       <c r="Q232" s="22"/>
       <c r="R232" s="22"/>
     </row>
-    <row r="233" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B233" s="24" t="s">
         <v>665</v>
@@ -12840,7 +12957,7 @@
         <v>740</v>
       </c>
       <c r="D233" s="15" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E233" s="9"/>
       <c r="F233" s="9">
@@ -12865,18 +12982,18 @@
       <c r="Q233" s="22"/>
       <c r="R233" s="22"/>
     </row>
-    <row r="234" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B234" s="24" t="s">
         <v>665</v>
       </c>
       <c r="C234" s="12" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D234" s="15" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E234" s="9"/>
       <c r="F234" s="9">
@@ -12901,18 +13018,18 @@
       <c r="Q234" s="22"/>
       <c r="R234" s="22"/>
     </row>
-    <row r="235" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B235" s="24" t="s">
         <v>665</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D235" s="15" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="E235" s="9"/>
       <c r="F235" s="9">
@@ -12937,18 +13054,18 @@
       <c r="Q235" s="22"/>
       <c r="R235" s="22"/>
     </row>
-    <row r="236" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B236" s="24" t="s">
         <v>665</v>
       </c>
       <c r="C236" s="12" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D236" s="15" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="E236" s="9"/>
       <c r="F236" s="9">
@@ -12973,18 +13090,18 @@
       <c r="Q236" s="22"/>
       <c r="R236" s="22"/>
     </row>
-    <row r="237" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B237" s="24" t="s">
         <v>665</v>
       </c>
       <c r="C237" s="12" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D237" s="15" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E237" s="9"/>
       <c r="F237" s="9">
@@ -13009,18 +13126,18 @@
       <c r="Q237" s="22"/>
       <c r="R237" s="22"/>
     </row>
-    <row r="238" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
-        <v>817</v>
-      </c>
-      <c r="B238" s="21" t="s">
-        <v>825</v>
-      </c>
-      <c r="C238" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="D238" s="9" t="s">
-        <v>586</v>
+        <v>819</v>
+      </c>
+      <c r="B238" s="24" t="s">
+        <v>665</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="D238" s="15" t="s">
+        <v>748</v>
       </c>
       <c r="E238" s="9"/>
       <c r="F238" s="9">
@@ -13045,22 +13162,20 @@
       <c r="Q238" s="22"/>
       <c r="R238" s="22"/>
     </row>
-    <row r="239" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B239" s="21" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C239" s="9" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="D239" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="E239" s="9">
-        <v>1</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="E239" s="9"/>
       <c r="F239" s="9">
         <v>2019</v>
       </c>
@@ -13070,11 +13185,9 @@
       <c r="H239" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I239" s="9">
-        <v>15000</v>
-      </c>
+      <c r="I239" s="9"/>
       <c r="J239" s="9" t="s">
-        <v>558</v>
+        <v>96</v>
       </c>
       <c r="K239" s="22"/>
       <c r="L239" s="22"/>
@@ -13085,21 +13198,21 @@
       <c r="Q239" s="22"/>
       <c r="R239" s="22"/>
     </row>
-    <row r="240" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B240" s="21" t="s">
         <v>824</v>
       </c>
       <c r="C240" s="9" t="s">
-        <v>95</v>
+        <v>588</v>
       </c>
       <c r="D240" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="E240" s="9" t="s">
-        <v>80</v>
+        <v>587</v>
+      </c>
+      <c r="E240" s="9">
+        <v>1</v>
       </c>
       <c r="F240" s="9">
         <v>2019</v>
@@ -13108,13 +13221,13 @@
         <v>96</v>
       </c>
       <c r="H240" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I240" s="9">
-        <v>5000</v>
+        <v>15000</v>
       </c>
       <c r="J240" s="9" t="s">
-        <v>87</v>
+        <v>558</v>
       </c>
       <c r="K240" s="22"/>
       <c r="L240" s="22"/>
@@ -13125,18 +13238,18 @@
       <c r="Q240" s="22"/>
       <c r="R240" s="22"/>
     </row>
-    <row r="241" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D241" s="9" t="s">
-        <v>89</v>
+        <v>556</v>
       </c>
       <c r="E241" s="9" t="s">
         <v>80</v>
@@ -13150,7 +13263,9 @@
       <c r="H241" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="I241" s="9"/>
+      <c r="I241" s="9">
+        <v>5000</v>
+      </c>
       <c r="J241" s="9" t="s">
         <v>87</v>
       </c>
@@ -13163,18 +13278,18 @@
       <c r="Q241" s="22"/>
       <c r="R241" s="22"/>
     </row>
-    <row r="242" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C242" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D242" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E242" s="9" t="s">
         <v>80</v>
@@ -13201,18 +13316,18 @@
       <c r="Q242" s="22"/>
       <c r="R242" s="22"/>
     </row>
-    <row r="243" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C243" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D243" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E243" s="9" t="s">
         <v>80</v>
@@ -13239,18 +13354,18 @@
       <c r="Q243" s="22"/>
       <c r="R243" s="22"/>
     </row>
-    <row r="244" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C244" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D244" s="9" t="s">
-        <v>555</v>
+        <v>92</v>
       </c>
       <c r="E244" s="9" t="s">
         <v>80</v>
@@ -13277,32 +13392,34 @@
       <c r="Q244" s="22"/>
       <c r="R244" s="22"/>
     </row>
-    <row r="245" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
-        <v>820</v>
-      </c>
-      <c r="B245" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C245" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D245" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="E245" s="9"/>
+        <v>818</v>
+      </c>
+      <c r="B245" s="21" t="s">
+        <v>823</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D245" s="9" t="s">
+        <v>555</v>
+      </c>
+      <c r="E245" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="F245" s="9">
         <v>2019</v>
       </c>
-      <c r="G245" s="14" t="s">
+      <c r="G245" s="9" t="s">
         <v>96</v>
       </c>
       <c r="H245" s="9" t="s">
         <v>560</v>
       </c>
       <c r="I245" s="9"/>
-      <c r="J245" s="14" t="s">
-        <v>96</v>
+      <c r="J245" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="K245" s="22"/>
       <c r="L245" s="22"/>
@@ -13313,68 +13430,58 @@
       <c r="Q245" s="22"/>
       <c r="R245" s="22"/>
     </row>
-    <row r="246" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="33" t="s">
-        <v>817</v>
-      </c>
-      <c r="B246" s="21" t="s">
-        <v>825</v>
-      </c>
-      <c r="C246" s="9" t="s">
-        <v>583</v>
-      </c>
-      <c r="D246" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="E246" s="9">
-        <v>1</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="B246" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="C246" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D246" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="E246" s="9"/>
       <c r="F246" s="9">
         <v>2019</v>
       </c>
-      <c r="G246" s="9" t="s">
+      <c r="G246" s="14" t="s">
         <v>96</v>
       </c>
       <c r="H246" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="I246" s="9">
-        <v>50000</v>
-      </c>
-      <c r="J246" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="K246" s="22" t="s">
-        <v>784</v>
-      </c>
-      <c r="L246" s="22" t="s">
-        <v>785</v>
-      </c>
-      <c r="M246" s="22" t="s">
-        <v>786</v>
-      </c>
-      <c r="N246" s="22" t="s">
-        <v>783</v>
-      </c>
-      <c r="O246" s="23" t="s">
-        <v>177</v>
-      </c>
+      <c r="I246" s="9"/>
+      <c r="J246" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="K246" s="22"/>
+      <c r="L246" s="22"/>
+      <c r="M246" s="22"/>
+      <c r="N246" s="22"/>
+      <c r="O246" s="23"/>
       <c r="P246" s="23"/>
       <c r="Q246" s="22"/>
       <c r="R246" s="22"/>
     </row>
-    <row r="247" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="33" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B247" s="21" t="s">
-        <v>108</v>
+        <v>824</v>
       </c>
       <c r="C247" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D247" s="9"/>
-      <c r="E247" s="9"/>
+        <v>583</v>
+      </c>
+      <c r="D247" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="E247" s="9">
+        <v>1</v>
+      </c>
       <c r="F247" s="9">
         <v>2019</v>
       </c>
@@ -13384,45 +13491,55 @@
       <c r="H247" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="I247" s="9"/>
-      <c r="J247" s="13">
-        <v>43624</v>
-      </c>
-      <c r="K247" s="22"/>
-      <c r="L247" s="22"/>
-      <c r="M247" s="22"/>
-      <c r="N247" s="22"/>
-      <c r="O247" s="23"/>
+      <c r="I247" s="9">
+        <v>50000</v>
+      </c>
+      <c r="J247" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="K247" s="22" t="s">
+        <v>784</v>
+      </c>
+      <c r="L247" s="22" t="s">
+        <v>785</v>
+      </c>
+      <c r="M247" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="N247" s="22" t="s">
+        <v>783</v>
+      </c>
+      <c r="O247" s="23" t="s">
+        <v>177</v>
+      </c>
       <c r="P247" s="23"/>
       <c r="Q247" s="22"/>
       <c r="R247" s="22"/>
     </row>
-    <row r="248" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="B248" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C248" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D248" s="15" t="s">
-        <v>650</v>
-      </c>
+      <c r="B248" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D248" s="9"/>
       <c r="E248" s="9"/>
       <c r="F248" s="9">
         <v>2019</v>
       </c>
-      <c r="G248" s="14" t="s">
+      <c r="G248" s="9" t="s">
         <v>96</v>
       </c>
       <c r="H248" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I248" s="9"/>
-      <c r="J248" s="14" t="s">
-        <v>96</v>
+      <c r="J248" s="13">
+        <v>43624</v>
       </c>
       <c r="K248" s="22"/>
       <c r="L248" s="22"/>
@@ -13433,9 +13550,9 @@
       <c r="Q248" s="22"/>
       <c r="R248" s="22"/>
     </row>
-    <row r="249" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B249" s="24" t="s">
         <v>642</v>
@@ -13444,7 +13561,7 @@
         <v>106</v>
       </c>
       <c r="D249" s="15" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E249" s="9"/>
       <c r="F249" s="9">
@@ -13454,7 +13571,7 @@
         <v>96</v>
       </c>
       <c r="H249" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I249" s="9"/>
       <c r="J249" s="14" t="s">
@@ -13469,30 +13586,32 @@
       <c r="Q249" s="22"/>
       <c r="R249" s="22"/>
     </row>
-    <row r="250" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="33" t="s">
-        <v>821</v>
-      </c>
-      <c r="B250" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C250" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D250" s="9"/>
+        <v>819</v>
+      </c>
+      <c r="B250" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D250" s="15" t="s">
+        <v>651</v>
+      </c>
       <c r="E250" s="9"/>
       <c r="F250" s="9">
         <v>2019</v>
       </c>
-      <c r="G250" s="9" t="s">
+      <c r="G250" s="14" t="s">
         <v>96</v>
       </c>
       <c r="H250" s="9" t="s">
         <v>562</v>
       </c>
       <c r="I250" s="9"/>
-      <c r="J250" s="13">
-        <v>43638</v>
+      <c r="J250" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="K250" s="22"/>
       <c r="L250" s="22"/>
@@ -13503,32 +13622,30 @@
       <c r="Q250" s="22"/>
       <c r="R250" s="22"/>
     </row>
-    <row r="251" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="B251" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C251" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D251" s="15" t="s">
-        <v>652</v>
-      </c>
+      <c r="B251" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D251" s="9"/>
       <c r="E251" s="9"/>
       <c r="F251" s="9">
         <v>2019</v>
       </c>
-      <c r="G251" s="14" t="s">
+      <c r="G251" s="9" t="s">
         <v>96</v>
       </c>
       <c r="H251" s="9" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="I251" s="9"/>
-      <c r="J251" s="14" t="s">
-        <v>96</v>
+      <c r="J251" s="13">
+        <v>43638</v>
       </c>
       <c r="K251" s="22"/>
       <c r="L251" s="22"/>
@@ -13539,32 +13656,32 @@
       <c r="Q251" s="22"/>
       <c r="R251" s="22"/>
     </row>
-    <row r="252" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B252" s="24" t="s">
         <v>642</v>
       </c>
       <c r="C252" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="D252" s="12" t="s">
-        <v>641</v>
+        <v>106</v>
+      </c>
+      <c r="D252" s="15" t="s">
+        <v>652</v>
       </c>
       <c r="E252" s="9"/>
       <c r="F252" s="9">
         <v>2019</v>
       </c>
       <c r="G252" s="14" t="s">
-        <v>557</v>
+        <v>96</v>
       </c>
       <c r="H252" s="9" t="s">
-        <v>771</v>
+        <v>564</v>
       </c>
       <c r="I252" s="9"/>
       <c r="J252" s="14" t="s">
-        <v>557</v>
+        <v>96</v>
       </c>
       <c r="K252" s="22"/>
       <c r="L252" s="22"/>
@@ -13575,31 +13692,31 @@
       <c r="Q252" s="22"/>
       <c r="R252" s="22"/>
     </row>
-    <row r="253" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="B253" s="21" t="s">
-        <v>593</v>
-      </c>
-      <c r="C253" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="D253" s="9"/>
+        <v>819</v>
+      </c>
+      <c r="B253" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>641</v>
+      </c>
       <c r="E253" s="9"/>
       <c r="F253" s="9">
         <v>2019</v>
       </c>
-      <c r="G253" s="9" t="s">
+      <c r="G253" s="14" t="s">
         <v>557</v>
       </c>
       <c r="H253" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="I253" s="9">
-        <v>28500</v>
-      </c>
-      <c r="J253" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="I253" s="9"/>
+      <c r="J253" s="14" t="s">
         <v>557</v>
       </c>
       <c r="K253" s="22"/>
@@ -13611,15 +13728,15 @@
       <c r="Q253" s="22"/>
       <c r="R253" s="22"/>
     </row>
-    <row r="254" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B254" s="21" t="s">
-        <v>664</v>
+        <v>593</v>
       </c>
       <c r="C254" s="9" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D254" s="9"/>
       <c r="E254" s="9"/>
@@ -13633,7 +13750,7 @@
         <v>559</v>
       </c>
       <c r="I254" s="9">
-        <v>100000</v>
+        <v>28500</v>
       </c>
       <c r="J254" s="9" t="s">
         <v>557</v>
@@ -13647,31 +13764,31 @@
       <c r="Q254" s="22"/>
       <c r="R254" s="22"/>
     </row>
-    <row r="255" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="33" t="s">
-        <v>820</v>
-      </c>
-      <c r="B255" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C255" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D255" s="15" t="s">
-        <v>653</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="B255" s="21" t="s">
+        <v>664</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="D255" s="9"/>
       <c r="E255" s="9"/>
       <c r="F255" s="9">
         <v>2019</v>
       </c>
-      <c r="G255" s="14" t="s">
+      <c r="G255" s="9" t="s">
         <v>557</v>
       </c>
       <c r="H255" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I255" s="9"/>
-      <c r="J255" s="14" t="s">
+      <c r="I255" s="9">
+        <v>100000</v>
+      </c>
+      <c r="J255" s="9" t="s">
         <v>557</v>
       </c>
       <c r="K255" s="22"/>
@@ -13683,36 +13800,32 @@
       <c r="Q255" s="22"/>
       <c r="R255" s="22"/>
     </row>
-    <row r="256" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
-        <v>817</v>
-      </c>
-      <c r="B256" s="21" t="s">
-        <v>565</v>
-      </c>
-      <c r="C256" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D256" s="9" t="s">
-        <v>577</v>
-      </c>
-      <c r="E256" s="9">
-        <v>1</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="B256" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D256" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="E256" s="9"/>
       <c r="F256" s="9">
         <v>2019</v>
       </c>
-      <c r="G256" s="9" t="s">
+      <c r="G256" s="14" t="s">
         <v>557</v>
       </c>
       <c r="H256" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I256" s="9">
-        <v>10000</v>
-      </c>
-      <c r="J256" s="9" t="s">
-        <v>100</v>
+      <c r="I256" s="9"/>
+      <c r="J256" s="14" t="s">
+        <v>557</v>
       </c>
       <c r="K256" s="22"/>
       <c r="L256" s="22"/>
@@ -13723,32 +13836,36 @@
       <c r="Q256" s="22"/>
       <c r="R256" s="22"/>
     </row>
-    <row r="257" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
-        <v>820</v>
-      </c>
-      <c r="B257" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C257" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D257" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="E257" s="9"/>
+        <v>816</v>
+      </c>
+      <c r="B257" s="21" t="s">
+        <v>565</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D257" s="9" t="s">
+        <v>577</v>
+      </c>
+      <c r="E257" s="9">
+        <v>1</v>
+      </c>
       <c r="F257" s="9">
         <v>2019</v>
       </c>
-      <c r="G257" s="14" t="s">
+      <c r="G257" s="9" t="s">
         <v>557</v>
       </c>
       <c r="H257" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="I257" s="9"/>
-      <c r="J257" s="14" t="s">
-        <v>557</v>
+        <v>559</v>
+      </c>
+      <c r="I257" s="9">
+        <v>10000</v>
+      </c>
+      <c r="J257" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="K257" s="22"/>
       <c r="L257" s="22"/>
@@ -13759,36 +13876,32 @@
       <c r="Q257" s="22"/>
       <c r="R257" s="22"/>
     </row>
-    <row r="258" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="33" t="s">
-        <v>817</v>
-      </c>
-      <c r="B258" s="21" t="s">
-        <v>825</v>
-      </c>
-      <c r="C258" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="D258" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="E258" s="9">
-        <v>1</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="B258" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D258" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="E258" s="9"/>
       <c r="F258" s="9">
         <v>2019</v>
       </c>
-      <c r="G258" s="9" t="s">
+      <c r="G258" s="14" t="s">
         <v>557</v>
       </c>
       <c r="H258" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="I258" s="9">
-        <v>15000</v>
-      </c>
-      <c r="J258" s="9" t="s">
-        <v>570</v>
+      <c r="I258" s="9"/>
+      <c r="J258" s="14" t="s">
+        <v>557</v>
       </c>
       <c r="K258" s="22"/>
       <c r="L258" s="22"/>
@@ -13799,18 +13912,22 @@
       <c r="Q258" s="22"/>
       <c r="R258" s="22"/>
     </row>
-    <row r="259" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="33" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B259" s="21" t="s">
-        <v>108</v>
+        <v>824</v>
       </c>
       <c r="C259" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D259" s="9"/>
-      <c r="E259" s="9"/>
+        <v>588</v>
+      </c>
+      <c r="D259" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="E259" s="9">
+        <v>1</v>
+      </c>
       <c r="F259" s="9">
         <v>2019</v>
       </c>
@@ -13820,9 +13937,11 @@
       <c r="H259" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="I259" s="9"/>
-      <c r="J259" s="13">
-        <v>43659</v>
+      <c r="I259" s="9">
+        <v>15000</v>
+      </c>
+      <c r="J259" s="9" t="s">
+        <v>570</v>
       </c>
       <c r="K259" s="22"/>
       <c r="L259" s="22"/>
@@ -13833,32 +13952,30 @@
       <c r="Q259" s="22"/>
       <c r="R259" s="22"/>
     </row>
-    <row r="260" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="B260" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C260" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D260" s="15" t="s">
-        <v>655</v>
-      </c>
+      <c r="B260" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D260" s="9"/>
       <c r="E260" s="9"/>
       <c r="F260" s="9">
         <v>2019</v>
       </c>
-      <c r="G260" s="14" t="s">
+      <c r="G260" s="9" t="s">
         <v>557</v>
       </c>
       <c r="H260" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I260" s="9"/>
-      <c r="J260" s="14" t="s">
-        <v>557</v>
+      <c r="J260" s="13">
+        <v>43659</v>
       </c>
       <c r="K260" s="22"/>
       <c r="L260" s="22"/>
@@ -13869,9 +13986,9 @@
       <c r="Q260" s="22"/>
       <c r="R260" s="22"/>
     </row>
-    <row r="261" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B261" s="24" t="s">
         <v>642</v>
@@ -13880,7 +13997,7 @@
         <v>106</v>
       </c>
       <c r="D261" s="15" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E261" s="9"/>
       <c r="F261" s="9">
@@ -13890,7 +14007,7 @@
         <v>557</v>
       </c>
       <c r="H261" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I261" s="9"/>
       <c r="J261" s="14" t="s">
@@ -13905,30 +14022,32 @@
       <c r="Q261" s="22"/>
       <c r="R261" s="22"/>
     </row>
-    <row r="262" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="33" t="s">
-        <v>821</v>
-      </c>
-      <c r="B262" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C262" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D262" s="9"/>
+        <v>819</v>
+      </c>
+      <c r="B262" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D262" s="15" t="s">
+        <v>656</v>
+      </c>
       <c r="E262" s="9"/>
       <c r="F262" s="9">
         <v>2019</v>
       </c>
-      <c r="G262" s="9" t="s">
+      <c r="G262" s="14" t="s">
         <v>557</v>
       </c>
       <c r="H262" s="9" t="s">
         <v>562</v>
       </c>
       <c r="I262" s="9"/>
-      <c r="J262" s="13">
-        <v>43673</v>
+      <c r="J262" s="14" t="s">
+        <v>557</v>
       </c>
       <c r="K262" s="22"/>
       <c r="L262" s="22"/>
@@ -13939,15 +14058,15 @@
       <c r="Q262" s="22"/>
       <c r="R262" s="22"/>
     </row>
-    <row r="263" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="33" t="s">
         <v>820</v>
       </c>
       <c r="B263" s="21" t="s">
-        <v>593</v>
+        <v>108</v>
       </c>
       <c r="C263" s="9" t="s">
-        <v>592</v>
+        <v>24</v>
       </c>
       <c r="D263" s="9"/>
       <c r="E263" s="9"/>
@@ -13955,16 +14074,14 @@
         <v>2019</v>
       </c>
       <c r="G263" s="9" t="s">
-        <v>589</v>
+        <v>557</v>
       </c>
       <c r="H263" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="I263" s="9">
-        <v>28500</v>
-      </c>
-      <c r="J263" s="9" t="s">
-        <v>589</v>
+        <v>562</v>
+      </c>
+      <c r="I263" s="9"/>
+      <c r="J263" s="13">
+        <v>43673</v>
       </c>
       <c r="K263" s="22"/>
       <c r="L263" s="22"/>
@@ -13975,15 +14092,15 @@
       <c r="Q263" s="22"/>
       <c r="R263" s="22"/>
     </row>
-    <row r="264" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B264" s="21" t="s">
-        <v>664</v>
+        <v>593</v>
       </c>
       <c r="C264" s="9" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D264" s="9"/>
       <c r="E264" s="9"/>
@@ -13997,7 +14114,7 @@
         <v>559</v>
       </c>
       <c r="I264" s="9">
-        <v>100000</v>
+        <v>28500</v>
       </c>
       <c r="J264" s="9" t="s">
         <v>589</v>
@@ -14011,31 +14128,31 @@
       <c r="Q264" s="22"/>
       <c r="R264" s="22"/>
     </row>
-    <row r="265" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
-        <v>820</v>
-      </c>
-      <c r="B265" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C265" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D265" s="15" t="s">
-        <v>657</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="B265" s="21" t="s">
+        <v>664</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="D265" s="9"/>
       <c r="E265" s="9"/>
       <c r="F265" s="9">
         <v>2019</v>
       </c>
-      <c r="G265" s="14" t="s">
+      <c r="G265" s="9" t="s">
         <v>589</v>
       </c>
       <c r="H265" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I265" s="9"/>
-      <c r="J265" s="14" t="s">
+      <c r="I265" s="9">
+        <v>100000</v>
+      </c>
+      <c r="J265" s="9" t="s">
         <v>589</v>
       </c>
       <c r="K265" s="22"/>
@@ -14047,9 +14164,9 @@
       <c r="Q265" s="22"/>
       <c r="R265" s="22"/>
     </row>
-    <row r="266" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B266" s="24" t="s">
         <v>642</v>
@@ -14058,7 +14175,7 @@
         <v>106</v>
       </c>
       <c r="D266" s="15" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E266" s="9"/>
       <c r="F266" s="9">
@@ -14068,7 +14185,7 @@
         <v>589</v>
       </c>
       <c r="H266" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I266" s="9"/>
       <c r="J266" s="14" t="s">
@@ -14083,30 +14200,32 @@
       <c r="Q266" s="22"/>
       <c r="R266" s="22"/>
     </row>
-    <row r="267" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="33" t="s">
-        <v>821</v>
-      </c>
-      <c r="B267" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C267" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D267" s="9"/>
+        <v>819</v>
+      </c>
+      <c r="B267" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="C267" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D267" s="15" t="s">
+        <v>658</v>
+      </c>
       <c r="E267" s="9"/>
       <c r="F267" s="9">
         <v>2019</v>
       </c>
-      <c r="G267" s="9" t="s">
+      <c r="G267" s="14" t="s">
         <v>589</v>
       </c>
       <c r="H267" s="9" t="s">
         <v>560</v>
       </c>
       <c r="I267" s="9"/>
-      <c r="J267" s="13">
-        <v>43687</v>
+      <c r="J267" s="14" t="s">
+        <v>589</v>
       </c>
       <c r="K267" s="22"/>
       <c r="L267" s="22"/>
@@ -14117,32 +14236,30 @@
       <c r="Q267" s="22"/>
       <c r="R267" s="22"/>
     </row>
-    <row r="268" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="B268" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C268" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D268" s="15" t="s">
-        <v>659</v>
-      </c>
+      <c r="B268" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D268" s="9"/>
       <c r="E268" s="9"/>
       <c r="F268" s="9">
         <v>2019</v>
       </c>
-      <c r="G268" s="14" t="s">
+      <c r="G268" s="9" t="s">
         <v>589</v>
       </c>
       <c r="H268" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I268" s="9"/>
-      <c r="J268" s="14" t="s">
-        <v>589</v>
+      <c r="J268" s="13">
+        <v>43687</v>
       </c>
       <c r="K268" s="22"/>
       <c r="L268" s="22"/>
@@ -14153,9 +14270,9 @@
       <c r="Q268" s="22"/>
       <c r="R268" s="22"/>
     </row>
-    <row r="269" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B269" s="24" t="s">
         <v>642</v>
@@ -14164,7 +14281,7 @@
         <v>106</v>
       </c>
       <c r="D269" s="15" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E269" s="9"/>
       <c r="F269" s="9">
@@ -14174,7 +14291,7 @@
         <v>589</v>
       </c>
       <c r="H269" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I269" s="9"/>
       <c r="J269" s="14" t="s">
@@ -14189,30 +14306,32 @@
       <c r="Q269" s="22"/>
       <c r="R269" s="22"/>
     </row>
-    <row r="270" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="33" t="s">
-        <v>821</v>
-      </c>
-      <c r="B270" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C270" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D270" s="9"/>
+        <v>819</v>
+      </c>
+      <c r="B270" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D270" s="15" t="s">
+        <v>660</v>
+      </c>
       <c r="E270" s="9"/>
       <c r="F270" s="9">
         <v>2019</v>
       </c>
-      <c r="G270" s="9" t="s">
+      <c r="G270" s="14" t="s">
         <v>589</v>
       </c>
       <c r="H270" s="9" t="s">
         <v>562</v>
       </c>
       <c r="I270" s="9"/>
-      <c r="J270" s="13">
-        <v>43701</v>
+      <c r="J270" s="14" t="s">
+        <v>589</v>
       </c>
       <c r="K270" s="22"/>
       <c r="L270" s="22"/>
@@ -14223,15 +14342,15 @@
       <c r="Q270" s="22"/>
       <c r="R270" s="22"/>
     </row>
-    <row r="271" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="33" t="s">
         <v>820</v>
       </c>
       <c r="B271" s="21" t="s">
-        <v>593</v>
+        <v>108</v>
       </c>
       <c r="C271" s="9" t="s">
-        <v>592</v>
+        <v>24</v>
       </c>
       <c r="D271" s="9"/>
       <c r="E271" s="9"/>
@@ -14239,16 +14358,14 @@
         <v>2019</v>
       </c>
       <c r="G271" s="9" t="s">
-        <v>100</v>
+        <v>589</v>
       </c>
       <c r="H271" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="I271" s="9">
-        <v>28500</v>
-      </c>
-      <c r="J271" s="9" t="s">
-        <v>100</v>
+        <v>562</v>
+      </c>
+      <c r="I271" s="9"/>
+      <c r="J271" s="13">
+        <v>43701</v>
       </c>
       <c r="K271" s="22"/>
       <c r="L271" s="22"/>
@@ -14259,15 +14376,15 @@
       <c r="Q271" s="22"/>
       <c r="R271" s="22"/>
     </row>
-    <row r="272" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B272" s="21" t="s">
-        <v>664</v>
+        <v>593</v>
       </c>
       <c r="C272" s="9" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D272" s="9"/>
       <c r="E272" s="9"/>
@@ -14281,7 +14398,7 @@
         <v>559</v>
       </c>
       <c r="I272" s="9">
-        <v>100000</v>
+        <v>28500</v>
       </c>
       <c r="J272" s="9" t="s">
         <v>100</v>
@@ -14295,31 +14412,31 @@
       <c r="Q272" s="22"/>
       <c r="R272" s="22"/>
     </row>
-    <row r="273" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
-        <v>820</v>
-      </c>
-      <c r="B273" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C273" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D273" s="15" t="s">
-        <v>661</v>
-      </c>
+        <v>819</v>
+      </c>
+      <c r="B273" s="21" t="s">
+        <v>664</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>595</v>
+      </c>
+      <c r="D273" s="9"/>
       <c r="E273" s="9"/>
       <c r="F273" s="9">
         <v>2019</v>
       </c>
-      <c r="G273" s="14" t="s">
+      <c r="G273" s="9" t="s">
         <v>100</v>
       </c>
       <c r="H273" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I273" s="9"/>
-      <c r="J273" s="14" t="s">
+      <c r="I273" s="9">
+        <v>100000</v>
+      </c>
+      <c r="J273" s="9" t="s">
         <v>100</v>
       </c>
       <c r="K273" s="22"/>
@@ -14331,9 +14448,9 @@
       <c r="Q273" s="22"/>
       <c r="R273" s="22"/>
     </row>
-    <row r="274" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B274" s="24" t="s">
         <v>642</v>
@@ -14342,7 +14459,7 @@
         <v>106</v>
       </c>
       <c r="D274" s="15" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E274" s="9"/>
       <c r="F274" s="9">
@@ -14352,7 +14469,7 @@
         <v>100</v>
       </c>
       <c r="H274" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I274" s="9"/>
       <c r="J274" s="14" t="s">
@@ -14367,30 +14484,32 @@
       <c r="Q274" s="22"/>
       <c r="R274" s="22"/>
     </row>
-    <row r="275" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="B275" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C275" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D275" s="9"/>
+        <v>819</v>
+      </c>
+      <c r="B275" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="C275" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D275" s="15" t="s">
+        <v>662</v>
+      </c>
       <c r="E275" s="9"/>
       <c r="F275" s="9">
         <v>2019</v>
       </c>
-      <c r="G275" s="9" t="s">
+      <c r="G275" s="14" t="s">
         <v>100</v>
       </c>
       <c r="H275" s="9" t="s">
         <v>560</v>
       </c>
       <c r="I275" s="9"/>
-      <c r="J275" s="13">
-        <v>43715</v>
+      <c r="J275" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="K275" s="22"/>
       <c r="L275" s="22"/>
@@ -14401,32 +14520,30 @@
       <c r="Q275" s="22"/>
       <c r="R275" s="22"/>
     </row>
-    <row r="276" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="B276" s="24" t="s">
-        <v>642</v>
-      </c>
-      <c r="C276" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D276" s="15" t="s">
-        <v>663</v>
-      </c>
+      <c r="B276" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D276" s="9"/>
       <c r="E276" s="9"/>
       <c r="F276" s="9">
         <v>2019</v>
       </c>
-      <c r="G276" s="14" t="s">
+      <c r="G276" s="9" t="s">
         <v>100</v>
       </c>
       <c r="H276" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I276" s="9"/>
-      <c r="J276" s="14" t="s">
-        <v>100</v>
+      <c r="J276" s="13">
+        <v>43715</v>
       </c>
       <c r="K276" s="22"/>
       <c r="L276" s="22"/>
@@ -14437,30 +14554,32 @@
       <c r="Q276" s="22"/>
       <c r="R276" s="22"/>
     </row>
-    <row r="277" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
-        <v>821</v>
-      </c>
-      <c r="B277" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="C277" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D277" s="9"/>
+        <v>819</v>
+      </c>
+      <c r="B277" s="24" t="s">
+        <v>642</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D277" s="15" t="s">
+        <v>663</v>
+      </c>
       <c r="E277" s="9"/>
       <c r="F277" s="9">
         <v>2019</v>
       </c>
-      <c r="G277" s="9" t="s">
+      <c r="G277" s="14" t="s">
         <v>100</v>
       </c>
       <c r="H277" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I277" s="9"/>
-      <c r="J277" s="13">
-        <v>43729</v>
+      <c r="J277" s="14" t="s">
+        <v>100</v>
       </c>
       <c r="K277" s="22"/>
       <c r="L277" s="22"/>
@@ -14471,15 +14590,15 @@
       <c r="Q277" s="22"/>
       <c r="R277" s="22"/>
     </row>
-    <row r="278" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
         <v>820</v>
       </c>
       <c r="B278" s="21" t="s">
-        <v>593</v>
+        <v>108</v>
       </c>
       <c r="C278" s="9" t="s">
-        <v>592</v>
+        <v>24</v>
       </c>
       <c r="D278" s="9"/>
       <c r="E278" s="9"/>
@@ -14487,16 +14606,14 @@
         <v>2019</v>
       </c>
       <c r="G278" s="9" t="s">
-        <v>558</v>
+        <v>100</v>
       </c>
       <c r="H278" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="I278" s="9">
-        <v>28500</v>
-      </c>
-      <c r="J278" s="9" t="s">
-        <v>558</v>
+        <v>562</v>
+      </c>
+      <c r="I278" s="9"/>
+      <c r="J278" s="13">
+        <v>43729</v>
       </c>
       <c r="K278" s="22"/>
       <c r="L278" s="22"/>
@@ -14507,15 +14624,15 @@
       <c r="Q278" s="22"/>
       <c r="R278" s="22"/>
     </row>
-    <row r="279" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B279" s="21" t="s">
-        <v>664</v>
+        <v>593</v>
       </c>
       <c r="C279" s="9" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D279" s="9"/>
       <c r="E279" s="9"/>
@@ -14529,7 +14646,7 @@
         <v>559</v>
       </c>
       <c r="I279" s="9">
-        <v>100000</v>
+        <v>28500</v>
       </c>
       <c r="J279" s="9" t="s">
         <v>558</v>
@@ -14543,22 +14660,18 @@
       <c r="Q279" s="22"/>
       <c r="R279" s="22"/>
     </row>
-    <row r="280" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="33" t="s">
         <v>819</v>
       </c>
       <c r="B280" s="21" t="s">
-        <v>824</v>
+        <v>664</v>
       </c>
       <c r="C280" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D280" s="9" t="s">
-        <v>556</v>
-      </c>
-      <c r="E280" s="9" t="s">
-        <v>73</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="D280" s="9"/>
+      <c r="E280" s="9"/>
       <c r="F280" s="9">
         <v>2019</v>
       </c>
@@ -14568,7 +14681,9 @@
       <c r="H280" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I280" s="9"/>
+      <c r="I280" s="9">
+        <v>100000</v>
+      </c>
       <c r="J280" s="9" t="s">
         <v>558</v>
       </c>
@@ -14581,18 +14696,18 @@
       <c r="Q280" s="22"/>
       <c r="R280" s="22"/>
     </row>
-    <row r="281" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B281" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C281" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D281" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E281" s="9" t="s">
         <v>73</v>
@@ -14619,18 +14734,18 @@
       <c r="Q281" s="22"/>
       <c r="R281" s="22"/>
     </row>
-    <row r="282" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C282" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D282" s="9" t="s">
-        <v>43</v>
+        <v>555</v>
       </c>
       <c r="E282" s="9" t="s">
         <v>73</v>
@@ -14657,21 +14772,21 @@
       <c r="Q282" s="22"/>
       <c r="R282" s="22"/>
     </row>
-    <row r="283" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C283" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D283" s="9" t="s">
-        <v>556</v>
+        <v>43</v>
       </c>
       <c r="E283" s="9" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F283" s="9">
         <v>2019</v>
@@ -14680,7 +14795,7 @@
         <v>558</v>
       </c>
       <c r="H283" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I283" s="9"/>
       <c r="J283" s="9" t="s">
@@ -14695,18 +14810,18 @@
       <c r="Q283" s="22"/>
       <c r="R283" s="22"/>
     </row>
-    <row r="284" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C284" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D284" s="9" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E284" s="9" t="s">
         <v>78</v>
@@ -14733,21 +14848,21 @@
       <c r="Q284" s="22"/>
       <c r="R284" s="22"/>
     </row>
-    <row r="285" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C285" s="9" t="s">
         <v>99</v>
       </c>
       <c r="D285" s="9" t="s">
-        <v>43</v>
+        <v>555</v>
       </c>
       <c r="E285" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F285" s="9">
         <v>2019</v>
@@ -14771,18 +14886,22 @@
       <c r="Q285" s="22"/>
       <c r="R285" s="22"/>
     </row>
-    <row r="286" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>108</v>
+        <v>823</v>
       </c>
       <c r="C286" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D286" s="9"/>
-      <c r="E286" s="9"/>
+        <v>99</v>
+      </c>
+      <c r="D286" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E286" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="F286" s="9">
         <v>2019</v>
       </c>
@@ -14793,8 +14912,8 @@
         <v>560</v>
       </c>
       <c r="I286" s="9"/>
-      <c r="J286" s="13">
-        <v>43743</v>
+      <c r="J286" s="9" t="s">
+        <v>558</v>
       </c>
       <c r="K286" s="22"/>
       <c r="L286" s="22"/>
@@ -14805,22 +14924,18 @@
       <c r="Q286" s="22"/>
       <c r="R286" s="22"/>
     </row>
-    <row r="287" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B287" s="21" t="s">
-        <v>824</v>
+        <v>108</v>
       </c>
       <c r="C287" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D287" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E287" s="9" t="s">
-        <v>72</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D287" s="9"/>
+      <c r="E287" s="9"/>
       <c r="F287" s="9">
         <v>2019</v>
       </c>
@@ -14828,11 +14943,11 @@
         <v>558</v>
       </c>
       <c r="H287" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I287" s="9"/>
-      <c r="J287" s="9" t="s">
-        <v>558</v>
+      <c r="J287" s="13">
+        <v>43743</v>
       </c>
       <c r="K287" s="22"/>
       <c r="L287" s="22"/>
@@ -14843,12 +14958,12 @@
       <c r="Q287" s="22"/>
       <c r="R287" s="22"/>
     </row>
-    <row r="288" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B288" s="21" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C288" s="9" t="s">
         <v>99</v>
@@ -14857,7 +14972,7 @@
         <v>81</v>
       </c>
       <c r="E288" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F288" s="9">
         <v>2019</v>
@@ -14866,7 +14981,7 @@
         <v>558</v>
       </c>
       <c r="H288" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I288" s="9"/>
       <c r="J288" s="9" t="s">
@@ -14881,18 +14996,22 @@
       <c r="Q288" s="22"/>
       <c r="R288" s="22"/>
     </row>
-    <row r="289" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="B289" s="21" t="s">
-        <v>108</v>
+        <v>823</v>
       </c>
       <c r="C289" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D289" s="9"/>
-      <c r="E289" s="9"/>
+        <v>99</v>
+      </c>
+      <c r="D289" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E289" s="9" t="s">
+        <v>73</v>
+      </c>
       <c r="F289" s="9">
         <v>2019</v>
       </c>
@@ -14903,8 +15022,8 @@
         <v>562</v>
       </c>
       <c r="I289" s="9"/>
-      <c r="J289" s="13">
-        <v>43757</v>
+      <c r="J289" s="9" t="s">
+        <v>558</v>
       </c>
       <c r="K289" s="22"/>
       <c r="L289" s="22"/>
@@ -14915,34 +15034,30 @@
       <c r="Q289" s="22"/>
       <c r="R289" s="22"/>
     </row>
-    <row r="290" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C290" s="9" t="s">
-        <v>573</v>
+        <v>24</v>
       </c>
       <c r="D290" s="9"/>
-      <c r="E290" s="9">
-        <v>1</v>
-      </c>
+      <c r="E290" s="9"/>
       <c r="F290" s="9">
         <v>2019</v>
       </c>
       <c r="G290" s="9" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H290" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="I290" s="9">
-        <v>5000</v>
-      </c>
-      <c r="J290" s="9" t="s">
-        <v>563</v>
+        <v>562</v>
+      </c>
+      <c r="I290" s="9"/>
+      <c r="J290" s="13">
+        <v>43757</v>
       </c>
       <c r="K290" s="22"/>
       <c r="L290" s="22"/>
@@ -14953,19 +15068,17 @@
       <c r="Q290" s="22"/>
       <c r="R290" s="22"/>
     </row>
-    <row r="291" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B291" s="21" t="s">
-        <v>825</v>
+        <v>101</v>
       </c>
       <c r="C291" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="D291" s="9" t="s">
-        <v>587</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="D291" s="9"/>
       <c r="E291" s="9">
         <v>1</v>
       </c>
@@ -14976,13 +15089,13 @@
         <v>563</v>
       </c>
       <c r="H291" s="9" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="I291" s="9">
         <v>5000</v>
       </c>
       <c r="J291" s="9" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="K291" s="22"/>
       <c r="L291" s="22"/>
@@ -14993,21 +15106,21 @@
       <c r="Q291" s="22"/>
       <c r="R291" s="22"/>
     </row>
-    <row r="292" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="33" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B292" s="21" t="s">
         <v>824</v>
       </c>
       <c r="C292" s="9" t="s">
-        <v>99</v>
+        <v>585</v>
       </c>
       <c r="D292" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E292" s="9" t="s">
-        <v>80</v>
+        <v>587</v>
+      </c>
+      <c r="E292" s="9">
+        <v>1</v>
       </c>
       <c r="F292" s="9">
         <v>2019</v>
@@ -15018,9 +15131,11 @@
       <c r="H292" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I292" s="9"/>
+      <c r="I292" s="9">
+        <v>5000</v>
+      </c>
       <c r="J292" s="9" t="s">
-        <v>558</v>
+        <v>571</v>
       </c>
       <c r="K292" s="22"/>
       <c r="L292" s="22"/>
@@ -15031,18 +15146,22 @@
       <c r="Q292" s="22"/>
       <c r="R292" s="22"/>
     </row>
-    <row r="293" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B293" s="21" t="s">
-        <v>593</v>
+        <v>823</v>
       </c>
       <c r="C293" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="D293" s="9"/>
-      <c r="E293" s="9"/>
+        <v>99</v>
+      </c>
+      <c r="D293" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E293" s="9" t="s">
+        <v>80</v>
+      </c>
       <c r="F293" s="9">
         <v>2019</v>
       </c>
@@ -15052,11 +15171,9 @@
       <c r="H293" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I293" s="9">
-        <v>28500</v>
-      </c>
+      <c r="I293" s="9"/>
       <c r="J293" s="9" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="K293" s="22"/>
       <c r="L293" s="22"/>
@@ -15067,31 +15184,31 @@
       <c r="Q293" s="22"/>
       <c r="R293" s="22"/>
     </row>
-    <row r="294" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B294" s="21" t="s">
-        <v>664</v>
+        <v>593</v>
       </c>
       <c r="C294" s="9" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D294" s="9"/>
       <c r="E294" s="9"/>
       <c r="F294" s="9">
         <v>2019</v>
       </c>
-      <c r="G294" s="14" t="s">
+      <c r="G294" s="9" t="s">
         <v>563</v>
       </c>
       <c r="H294" s="9" t="s">
         <v>559</v>
       </c>
       <c r="I294" s="9">
-        <v>100000</v>
-      </c>
-      <c r="J294" s="14" t="s">
+        <v>28500</v>
+      </c>
+      <c r="J294" s="9" t="s">
         <v>563</v>
       </c>
       <c r="K294" s="22"/>
@@ -15103,30 +15220,32 @@
       <c r="Q294" s="22"/>
       <c r="R294" s="22"/>
     </row>
-    <row r="295" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B295" s="21" t="s">
-        <v>108</v>
+        <v>664</v>
       </c>
       <c r="C295" s="9" t="s">
-        <v>24</v>
+        <v>595</v>
       </c>
       <c r="D295" s="9"/>
       <c r="E295" s="9"/>
       <c r="F295" s="9">
         <v>2019</v>
       </c>
-      <c r="G295" s="9" t="s">
+      <c r="G295" s="14" t="s">
         <v>563</v>
       </c>
       <c r="H295" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="I295" s="9"/>
-      <c r="J295" s="13">
-        <v>43771</v>
+      <c r="I295" s="9">
+        <v>100000</v>
+      </c>
+      <c r="J295" s="14" t="s">
+        <v>563</v>
       </c>
       <c r="K295" s="22"/>
       <c r="L295" s="22"/>
@@ -15137,9 +15256,9 @@
       <c r="Q295" s="22"/>
       <c r="R295" s="22"/>
     </row>
-    <row r="296" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B296" s="21" t="s">
         <v>108</v>
@@ -15156,11 +15275,11 @@
         <v>563</v>
       </c>
       <c r="H296" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="I296" s="9"/>
       <c r="J296" s="13">
-        <v>43785</v>
+        <v>43771</v>
       </c>
       <c r="K296" s="22"/>
       <c r="L296" s="22"/>
@@ -15171,9 +15290,9 @@
       <c r="Q296" s="22"/>
       <c r="R296" s="22"/>
     </row>
-    <row r="297" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B297" s="21" t="s">
         <v>108</v>
@@ -15190,11 +15309,11 @@
         <v>563</v>
       </c>
       <c r="H297" s="9" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="I297" s="9"/>
       <c r="J297" s="13">
-        <v>43799</v>
+        <v>43785</v>
       </c>
       <c r="K297" s="22"/>
       <c r="L297" s="22"/>
@@ -15205,34 +15324,30 @@
       <c r="Q297" s="22"/>
       <c r="R297" s="22"/>
     </row>
-    <row r="298" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B298" s="21" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C298" s="9" t="s">
-        <v>573</v>
+        <v>24</v>
       </c>
       <c r="D298" s="9"/>
-      <c r="E298" s="9">
-        <v>1</v>
-      </c>
+      <c r="E298" s="9"/>
       <c r="F298" s="9">
         <v>2019</v>
       </c>
       <c r="G298" s="9" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="H298" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="I298" s="9">
-        <v>5000</v>
-      </c>
-      <c r="J298" s="9" t="s">
-        <v>570</v>
+        <v>564</v>
+      </c>
+      <c r="I298" s="9"/>
+      <c r="J298" s="13">
+        <v>43799</v>
       </c>
       <c r="K298" s="22"/>
       <c r="L298" s="22"/>
@@ -15243,19 +15358,17 @@
       <c r="Q298" s="22"/>
       <c r="R298" s="22"/>
     </row>
-    <row r="299" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B299" s="21" t="s">
-        <v>825</v>
+        <v>101</v>
       </c>
       <c r="C299" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="D299" s="9" t="s">
-        <v>587</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="D299" s="9"/>
       <c r="E299" s="9">
         <v>1</v>
       </c>
@@ -15266,13 +15379,13 @@
         <v>570</v>
       </c>
       <c r="H299" s="9" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="I299" s="9">
         <v>5000</v>
       </c>
       <c r="J299" s="9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="K299" s="22"/>
       <c r="L299" s="22"/>
@@ -15283,18 +15396,22 @@
       <c r="Q299" s="22"/>
       <c r="R299" s="22"/>
     </row>
-    <row r="300" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="B300" s="21" t="s">
-        <v>593</v>
+        <v>824</v>
       </c>
       <c r="C300" s="9" t="s">
-        <v>592</v>
-      </c>
-      <c r="D300" s="9"/>
-      <c r="E300" s="9"/>
+        <v>585</v>
+      </c>
+      <c r="D300" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="E300" s="9">
+        <v>1</v>
+      </c>
       <c r="F300" s="9">
         <v>2019</v>
       </c>
@@ -15305,10 +15422,10 @@
         <v>559</v>
       </c>
       <c r="I300" s="9">
-        <v>28500</v>
+        <v>5000</v>
       </c>
       <c r="J300" s="9" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="K300" s="22"/>
       <c r="L300" s="22"/>
@@ -15319,31 +15436,31 @@
       <c r="Q300" s="22"/>
       <c r="R300" s="22"/>
     </row>
-    <row r="301" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B301" s="21" t="s">
-        <v>664</v>
+        <v>593</v>
       </c>
       <c r="C301" s="9" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D301" s="9"/>
       <c r="E301" s="9"/>
       <c r="F301" s="9">
         <v>2019</v>
       </c>
-      <c r="G301" s="14" t="s">
+      <c r="G301" s="9" t="s">
         <v>570</v>
       </c>
       <c r="H301" s="9" t="s">
         <v>559</v>
       </c>
       <c r="I301" s="9">
-        <v>100000</v>
-      </c>
-      <c r="J301" s="14" t="s">
+        <v>28500</v>
+      </c>
+      <c r="J301" s="9" t="s">
         <v>570</v>
       </c>
       <c r="K301" s="22"/>
@@ -15355,30 +15472,32 @@
       <c r="Q301" s="22"/>
       <c r="R301" s="22"/>
     </row>
-    <row r="302" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B302" s="21" t="s">
-        <v>108</v>
+        <v>664</v>
       </c>
       <c r="C302" s="9" t="s">
-        <v>24</v>
+        <v>595</v>
       </c>
       <c r="D302" s="9"/>
       <c r="E302" s="9"/>
       <c r="F302" s="9">
         <v>2019</v>
       </c>
-      <c r="G302" s="9" t="s">
+      <c r="G302" s="14" t="s">
         <v>570</v>
       </c>
       <c r="H302" s="9" t="s">
-        <v>560</v>
-      </c>
-      <c r="I302" s="9"/>
-      <c r="J302" s="13">
-        <v>43813</v>
+        <v>559</v>
+      </c>
+      <c r="I302" s="9">
+        <v>100000</v>
+      </c>
+      <c r="J302" s="14" t="s">
+        <v>570</v>
       </c>
       <c r="K302" s="22"/>
       <c r="L302" s="22"/>
@@ -15389,9 +15508,9 @@
       <c r="Q302" s="22"/>
       <c r="R302" s="22"/>
     </row>
-    <row r="303" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B303" s="21" t="s">
         <v>108</v>
@@ -15408,11 +15527,11 @@
         <v>570</v>
       </c>
       <c r="H303" s="9" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="I303" s="9"/>
       <c r="J303" s="13">
-        <v>43827</v>
+        <v>43813</v>
       </c>
       <c r="K303" s="22"/>
       <c r="L303" s="22"/>
@@ -15423,36 +15542,30 @@
       <c r="Q303" s="22"/>
       <c r="R303" s="22"/>
     </row>
-    <row r="304" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B304" s="21" t="s">
-        <v>825</v>
+        <v>108</v>
       </c>
       <c r="C304" s="9" t="s">
-        <v>585</v>
-      </c>
-      <c r="D304" s="9" t="s">
-        <v>587</v>
-      </c>
-      <c r="E304" s="9">
-        <v>1</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D304" s="9"/>
+      <c r="E304" s="9"/>
       <c r="F304" s="9">
         <v>2019</v>
       </c>
       <c r="G304" s="9" t="s">
-        <v>590</v>
+        <v>570</v>
       </c>
       <c r="H304" s="9" t="s">
-        <v>559</v>
-      </c>
-      <c r="I304" s="9">
-        <v>5000</v>
-      </c>
-      <c r="J304" s="9" t="s">
-        <v>590</v>
+        <v>562</v>
+      </c>
+      <c r="I304" s="9"/>
+      <c r="J304" s="13">
+        <v>43827</v>
       </c>
       <c r="K304" s="22"/>
       <c r="L304" s="22"/>
@@ -15463,18 +15576,18 @@
       <c r="Q304" s="22"/>
       <c r="R304" s="22"/>
     </row>
-    <row r="305" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B305" s="21" t="s">
-        <v>565</v>
+        <v>824</v>
       </c>
       <c r="C305" s="9" t="s">
-        <v>789</v>
+        <v>585</v>
       </c>
       <c r="D305" s="9" t="s">
-        <v>797</v>
+        <v>587</v>
       </c>
       <c r="E305" s="9">
         <v>1</v>
@@ -15483,14 +15596,16 @@
         <v>2019</v>
       </c>
       <c r="G305" s="9" t="s">
-        <v>574</v>
+        <v>590</v>
       </c>
       <c r="H305" s="9" t="s">
-        <v>574</v>
-      </c>
-      <c r="I305" s="9"/>
+        <v>559</v>
+      </c>
+      <c r="I305" s="9">
+        <v>5000</v>
+      </c>
       <c r="J305" s="9" t="s">
-        <v>557</v>
+        <v>590</v>
       </c>
       <c r="K305" s="22"/>
       <c r="L305" s="22"/>
@@ -15501,20 +15616,22 @@
       <c r="Q305" s="22"/>
       <c r="R305" s="22"/>
     </row>
-    <row r="306" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B306" s="21" t="s">
         <v>565</v>
       </c>
       <c r="C306" s="9" t="s">
-        <v>575</v>
+        <v>789</v>
       </c>
       <c r="D306" s="9" t="s">
-        <v>566</v>
-      </c>
-      <c r="E306" s="9"/>
+        <v>797</v>
+      </c>
+      <c r="E306" s="9">
+        <v>1</v>
+      </c>
       <c r="F306" s="9">
         <v>2019</v>
       </c>
@@ -15524,26 +15641,22 @@
       <c r="H306" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="I306" s="9">
-        <v>25000</v>
-      </c>
+      <c r="I306" s="9"/>
       <c r="J306" s="9" t="s">
-        <v>100</v>
+        <v>557</v>
       </c>
       <c r="K306" s="22"/>
       <c r="L306" s="22"/>
       <c r="M306" s="22"/>
       <c r="N306" s="22"/>
       <c r="O306" s="23"/>
-      <c r="P306" s="23" t="s">
-        <v>822</v>
-      </c>
+      <c r="P306" s="23"/>
       <c r="Q306" s="22"/>
       <c r="R306" s="22"/>
     </row>
-    <row r="307" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B307" s="21" t="s">
         <v>565</v>
@@ -15552,7 +15665,7 @@
         <v>575</v>
       </c>
       <c r="D307" s="9" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E307" s="9"/>
       <c r="F307" s="9">
@@ -15576,14 +15689,14 @@
       <c r="N307" s="22"/>
       <c r="O307" s="23"/>
       <c r="P307" s="23" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="Q307" s="22"/>
       <c r="R307" s="22"/>
     </row>
-    <row r="308" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B308" s="21" t="s">
         <v>565</v>
@@ -15592,7 +15705,7 @@
         <v>575</v>
       </c>
       <c r="D308" s="9" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E308" s="9"/>
       <c r="F308" s="9">
@@ -15616,14 +15729,14 @@
       <c r="N308" s="22"/>
       <c r="O308" s="23"/>
       <c r="P308" s="23" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="Q308" s="22"/>
       <c r="R308" s="22"/>
     </row>
-    <row r="309" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B309" s="21" t="s">
         <v>565</v>
@@ -15632,7 +15745,7 @@
         <v>575</v>
       </c>
       <c r="D309" s="9" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E309" s="9"/>
       <c r="F309" s="9">
@@ -15655,21 +15768,25 @@
       <c r="M309" s="22"/>
       <c r="N309" s="22"/>
       <c r="O309" s="23"/>
-      <c r="P309" s="23"/>
+      <c r="P309" s="23" t="s">
+        <v>821</v>
+      </c>
       <c r="Q309" s="22"/>
       <c r="R309" s="22"/>
     </row>
-    <row r="310" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B310" s="21" t="s">
         <v>565</v>
       </c>
       <c r="C310" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="D310" s="9"/>
+        <v>575</v>
+      </c>
+      <c r="D310" s="9" t="s">
+        <v>569</v>
+      </c>
       <c r="E310" s="9"/>
       <c r="F310" s="9">
         <v>2019</v>
@@ -15681,10 +15798,10 @@
         <v>574</v>
       </c>
       <c r="I310" s="9">
-        <v>7000</v>
+        <v>25000</v>
       </c>
       <c r="J310" s="9" t="s">
-        <v>574</v>
+        <v>100</v>
       </c>
       <c r="K310" s="22"/>
       <c r="L310" s="22"/>
@@ -15695,15 +15812,15 @@
       <c r="Q310" s="22"/>
       <c r="R310" s="22"/>
     </row>
-    <row r="311" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B311" s="21" t="s">
         <v>565</v>
       </c>
       <c r="C311" s="9" t="s">
-        <v>102</v>
+        <v>578</v>
       </c>
       <c r="D311" s="9"/>
       <c r="E311" s="9"/>
@@ -15717,7 +15834,7 @@
         <v>574</v>
       </c>
       <c r="I311" s="9">
-        <v>3000</v>
+        <v>7000</v>
       </c>
       <c r="J311" s="9" t="s">
         <v>574</v>
@@ -15731,15 +15848,15 @@
       <c r="Q311" s="22"/>
       <c r="R311" s="22"/>
     </row>
-    <row r="312" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B312" s="21" t="s">
         <v>565</v>
       </c>
       <c r="C312" s="9" t="s">
-        <v>578</v>
+        <v>102</v>
       </c>
       <c r="D312" s="9"/>
       <c r="E312" s="9"/>
@@ -15753,7 +15870,7 @@
         <v>574</v>
       </c>
       <c r="I312" s="9">
-        <v>7000</v>
+        <v>3000</v>
       </c>
       <c r="J312" s="9" t="s">
         <v>574</v>
@@ -15767,19 +15884,17 @@
       <c r="Q312" s="22"/>
       <c r="R312" s="22"/>
     </row>
-    <row r="313" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B313" s="21" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="C313" s="9" t="s">
-        <v>580</v>
-      </c>
-      <c r="D313" s="9" t="s">
-        <v>129</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="D313" s="9"/>
       <c r="E313" s="9"/>
       <c r="F313" s="9">
         <v>2019</v>
@@ -15791,7 +15906,7 @@
         <v>574</v>
       </c>
       <c r="I313" s="9">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="J313" s="9" t="s">
         <v>574</v>
@@ -15805,18 +15920,18 @@
       <c r="Q313" s="22"/>
       <c r="R313" s="22"/>
     </row>
-    <row r="314" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B314" s="21" t="s">
         <v>579</v>
       </c>
       <c r="C314" s="9" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="D314" s="9" t="s">
-        <v>438</v>
+        <v>129</v>
       </c>
       <c r="E314" s="9"/>
       <c r="F314" s="9">
@@ -15829,7 +15944,7 @@
         <v>574</v>
       </c>
       <c r="I314" s="9">
-        <v>50000</v>
+        <v>10000</v>
       </c>
       <c r="J314" s="9" t="s">
         <v>574</v>
@@ -15838,18 +15953,14 @@
       <c r="L314" s="22"/>
       <c r="M314" s="22"/>
       <c r="N314" s="22"/>
-      <c r="O314" s="23" t="s">
-        <v>800</v>
-      </c>
-      <c r="P314" s="23" t="s">
-        <v>822</v>
-      </c>
+      <c r="O314" s="23"/>
+      <c r="P314" s="23"/>
       <c r="Q314" s="22"/>
       <c r="R314" s="22"/>
     </row>
-    <row r="315" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B315" s="21" t="s">
         <v>101</v>
@@ -15885,9 +15996,9 @@
       <c r="Q315" s="22"/>
       <c r="R315" s="22"/>
     </row>
-    <row r="316" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B316" s="21" t="s">
         <v>593</v>
@@ -15921,9 +16032,9 @@
       <c r="Q316" s="22"/>
       <c r="R316" s="22"/>
     </row>
-    <row r="317" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="33" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B317" s="21" t="s">
         <v>664</v>
@@ -15957,9 +16068,9 @@
       <c r="Q317" s="22"/>
       <c r="R317" s="22"/>
     </row>
-    <row r="318" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B318" s="21" t="s">
         <v>101</v>
@@ -15995,9 +16106,9 @@
       <c r="Q318" s="22"/>
       <c r="R318" s="22"/>
     </row>
-    <row r="319" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B319" s="21" t="s">
         <v>593</v>
@@ -16031,9 +16142,9 @@
       <c r="Q319" s="22"/>
       <c r="R319" s="22"/>
     </row>
-    <row r="320" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B320" s="21" t="s">
         <v>593</v>
@@ -16067,9 +16178,9 @@
       <c r="Q320" s="22"/>
       <c r="R320" s="22"/>
     </row>
-    <row r="321" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B321" s="21" t="s">
         <v>593</v>
@@ -16103,9 +16214,9 @@
       <c r="Q321" s="22"/>
       <c r="R321" s="22"/>
     </row>
-    <row r="322" spans="1:18" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B322" s="25" t="s">
         <v>565</v>
@@ -16149,15 +16260,15 @@
       <c r="G323" s="1"/>
       <c r="I323">
         <f>SUBTOTAL(9,I$1:I322)</f>
-        <v>20000</v>
+        <v>2009500</v>
       </c>
       <c r="Q323">
         <f>SUBTOTAL(9,Q$1:Q322)</f>
-        <v>0</v>
+        <v>8198</v>
       </c>
       <c r="R323">
         <f>SUBTOTAL(9,R$1:R322)</f>
-        <v>0</v>
+        <v>-198</v>
       </c>
     </row>
     <row r="327" spans="1:18" x14ac:dyDescent="0.25">
@@ -16228,7 +16339,7 @@
     <sortCondition ref="J2:J322" customList="January,February,March,April,May,June,July,August,September,October,November,December"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="K158" r:id="rId1"/>
+    <hyperlink ref="K159" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -16545,8 +16656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL211"/>
   <sheetViews>
-    <sheetView topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AK14" sqref="AK14"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23438,7 +23549,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23475,7 +23586,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B3" t="s">
         <v>587</v>
@@ -23539,19 +23650,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G8" t="s">
+        <v>809</v>
+      </c>
+      <c r="H8" t="s">
         <v>810</v>
-      </c>
-      <c r="H8" t="s">
-        <v>811</v>
       </c>
       <c r="I8" t="s">
         <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -23614,7 +23725,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G11" s="32">
         <v>1</v>
@@ -23674,10 +23785,163 @@
         <v>1</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G14" s="32">
         <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>839</v>
+      </c>
+      <c r="B2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>839</v>
+      </c>
+      <c r="B3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C3" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>839</v>
+      </c>
+      <c r="B4" t="s">
+        <v>835</v>
+      </c>
+      <c r="C4" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>839</v>
+      </c>
+      <c r="B5" t="s">
+        <v>837</v>
+      </c>
+      <c r="C5" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>842</v>
+      </c>
+      <c r="B6" t="s">
+        <v>840</v>
+      </c>
+      <c r="C6" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>839</v>
+      </c>
+      <c r="B7" t="s">
+        <v>841</v>
+      </c>
+      <c r="C7" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>842</v>
+      </c>
+      <c r="B8" t="s">
+        <v>845</v>
+      </c>
+      <c r="C8" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>839</v>
+      </c>
+      <c r="B9" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>839</v>
+      </c>
+      <c r="B10" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>839</v>
+      </c>
+      <c r="B11" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>839</v>
+      </c>
+      <c r="B12" t="s">
+        <v>850</v>
+      </c>
+      <c r="C12" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>839</v>
+      </c>
+      <c r="B13" t="s">
+        <v>852</v>
+      </c>
+      <c r="C13" t="s">
+        <v>853</v>
       </c>
     </row>
   </sheetData>

--- a/2019 Planning calendar.xlsx
+++ b/2019 Planning calendar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <calcPr calcId="144525"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId8"/>
-    <pivotCache cacheId="6" r:id="rId9"/>
+    <pivotCache cacheId="1" r:id="rId9"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -2443,9 +2443,6 @@
     <t>Vaishali + Bali, Indonesia</t>
   </si>
   <si>
-    <t xml:space="preserve">Mohit &amp; Tanvi + </t>
-  </si>
-  <si>
     <t>Short Drive or Day event</t>
   </si>
   <si>
@@ -2612,6 +2609,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Mohit &amp; Tanvi + Sangla (near by)</t>
   </si>
 </sst>
 </file>
@@ -2850,7 +2850,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2927,6 +2927,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2934,29 +2935,6 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="27">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
     <dxf>
       <border outline="0">
         <top style="thin">
@@ -2999,6 +2977,29 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -10380,7 +10381,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C9:E14" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField axis="axisRow" showAll="0">
@@ -10523,12 +10524,6 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:R322" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <autoFilter ref="A1:R322"/>
-  <sortState ref="A2:R322">
-    <sortCondition ref="F2:F322"/>
-    <sortCondition ref="G2:G322" customList="January,February,March,April,May,June,July,August,September,October,November,December"/>
-    <sortCondition ref="H2:H322"/>
-    <sortCondition ref="J2:J322" customList="January,February,March,April,May,June,July,August,September,October,November,December"/>
-  </sortState>
   <tableColumns count="18">
     <tableColumn id="15" name="Group" dataDxfId="22"/>
     <tableColumn id="1" name="Objective" dataDxfId="21"/>
@@ -10547,7 +10542,7 @@
     <tableColumn id="14" name="Location" dataDxfId="8"/>
     <tableColumn id="18" name="Status" dataDxfId="7"/>
     <tableColumn id="16" name="Actual cost" dataDxfId="6"/>
-    <tableColumn id="17" name="Saving" dataDxfId="0">
+    <tableColumn id="17" name="Saving" dataDxfId="5">
       <calculatedColumnFormula>Table4[[#This Row],[Cost]]-Table4[[#This Row],[Actual cost]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10563,8 +10558,8 @@
     <tableColumn id="2" name="DESTINATION"/>
     <tableColumn id="3" name="Flight Number"/>
     <tableColumn id="4" name="FREQ"/>
-    <tableColumn id="5" name="DEPARTURE" dataDxfId="5"/>
-    <tableColumn id="6" name="ARRIVAL" dataDxfId="4"/>
+    <tableColumn id="5" name="DEPARTURE" dataDxfId="4"/>
+    <tableColumn id="6" name="ARRIVAL" dataDxfId="3"/>
     <tableColumn id="7" name="AIRCRAFT"/>
     <tableColumn id="8" name="STOPS"/>
   </tableColumns>
@@ -10590,7 +10585,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="P1:AL13" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="P1:AL13" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
   <autoFilter ref="P1:AL13"/>
   <sortState ref="P2:AL14">
     <sortCondition ref="S1:S14"/>
@@ -10913,9 +10908,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R335"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10939,7 +10934,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>20</v>
@@ -10995,7 +10990,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>5</v>
@@ -11036,7 +11031,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>0</v>
@@ -11073,7 +11068,7 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>0</v>
@@ -11110,10 +11105,10 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>74</v>
@@ -11151,10 +11146,10 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>74</v>
@@ -11192,10 +11187,10 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>74</v>
@@ -11233,10 +11228,10 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>74</v>
@@ -11274,10 +11269,10 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>74</v>
@@ -11315,10 +11310,10 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>74</v>
@@ -11356,10 +11351,10 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>74</v>
@@ -11397,10 +11392,10 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>74</v>
@@ -11438,10 +11433,10 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>74</v>
@@ -11479,10 +11474,10 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>74</v>
@@ -11520,10 +11515,10 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>74</v>
@@ -11561,10 +11556,10 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>74</v>
@@ -11602,7 +11597,7 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>1</v>
@@ -11643,7 +11638,7 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>1</v>
@@ -11684,7 +11679,7 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>1</v>
@@ -11725,7 +11720,7 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>1</v>
@@ -11766,7 +11761,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>1</v>
@@ -11807,7 +11802,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>1</v>
@@ -11848,7 +11843,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>1</v>
@@ -11889,7 +11884,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>1</v>
@@ -11930,7 +11925,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>1</v>
@@ -11971,7 +11966,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>1</v>
@@ -12012,7 +12007,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>565</v>
@@ -12038,14 +12033,14 @@
         <v>37</v>
       </c>
       <c r="K27" s="22" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="L27" s="22"/>
       <c r="M27" s="22"/>
       <c r="N27" s="22"/>
       <c r="O27" s="23"/>
       <c r="P27" s="23" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="Q27" s="22">
         <v>2200</v>
@@ -12057,10 +12052,10 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>585</v>
@@ -12087,14 +12082,14 @@
         <v>37</v>
       </c>
       <c r="K28" s="22" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="L28" s="22"/>
       <c r="M28" s="22"/>
       <c r="N28" s="22"/>
       <c r="O28" s="23"/>
       <c r="P28" s="23" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="Q28" s="22">
         <f>3315+2683</f>
@@ -12107,7 +12102,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B29" s="21" t="s">
         <v>5</v>
@@ -12148,7 +12143,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B30" s="21" t="s">
         <v>0</v>
@@ -12187,7 +12182,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B31" s="24" t="s">
         <v>641</v>
@@ -12226,7 +12221,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>641</v>
@@ -12265,7 +12260,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>641</v>
@@ -12304,7 +12299,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>664</v>
@@ -12343,7 +12338,7 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B35" s="24" t="s">
         <v>664</v>
@@ -12382,7 +12377,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B36" s="24" t="s">
         <v>4</v>
@@ -12421,7 +12416,7 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B37" s="24" t="s">
         <v>4</v>
@@ -12460,10 +12455,10 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B38" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>74</v>
@@ -12501,10 +12496,10 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>74</v>
@@ -12542,10 +12537,10 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B40" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>74</v>
@@ -12583,10 +12578,10 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B41" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>74</v>
@@ -12624,10 +12619,10 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B42" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>74</v>
@@ -12665,10 +12660,10 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C43" s="9" t="s">
         <v>74</v>
@@ -12706,7 +12701,7 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>1</v>
@@ -12747,7 +12742,7 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>1</v>
@@ -12788,7 +12783,7 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B46" s="21" t="s">
         <v>1</v>
@@ -12829,7 +12824,7 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>1</v>
@@ -12870,7 +12865,7 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A48" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B48" s="21" t="s">
         <v>1</v>
@@ -12911,7 +12906,7 @@
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>1</v>
@@ -12952,7 +12947,7 @@
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>1</v>
@@ -12993,7 +12988,7 @@
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B51" s="21" t="s">
         <v>1</v>
@@ -13034,7 +13029,7 @@
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>1</v>
@@ -13075,7 +13070,7 @@
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>1</v>
@@ -13116,10 +13111,10 @@
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B54" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C54" s="9" t="s">
         <v>583</v>
@@ -13147,7 +13142,7 @@
       <c r="N54" s="22"/>
       <c r="O54" s="23"/>
       <c r="P54" s="23" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="Q54" s="22"/>
       <c r="R54" s="22">
@@ -13157,13 +13152,13 @@
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>586</v>
@@ -13183,18 +13178,18 @@
         <v>37</v>
       </c>
       <c r="K55" s="22" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L55" s="22" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
       <c r="O55" s="23" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="P55" s="23" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="Q55" s="22"/>
       <c r="R55" s="22">
@@ -13204,7 +13199,7 @@
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B56" s="21" t="s">
         <v>579</v>
@@ -13242,10 +13237,10 @@
       </c>
       <c r="N56" s="22"/>
       <c r="O56" s="23" t="s">
+        <v>812</v>
+      </c>
+      <c r="P56" s="23" t="s">
         <v>813</v>
-      </c>
-      <c r="P56" s="23" t="s">
-        <v>814</v>
       </c>
       <c r="Q56" s="22"/>
       <c r="R56" s="22">
@@ -13255,7 +13250,7 @@
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B57" s="21" t="s">
         <v>108</v>
@@ -13292,7 +13287,7 @@
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B58" s="21" t="s">
         <v>5</v>
@@ -13333,7 +13328,7 @@
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B59" s="21" t="s">
         <v>0</v>
@@ -13370,7 +13365,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>641</v>
@@ -13409,7 +13404,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B61" s="24" t="s">
         <v>641</v>
@@ -13448,7 +13443,7 @@
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B62" s="24" t="s">
         <v>641</v>
@@ -13487,7 +13482,7 @@
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B63" s="24" t="s">
         <v>664</v>
@@ -13526,7 +13521,7 @@
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B64" s="24" t="s">
         <v>664</v>
@@ -13565,7 +13560,7 @@
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B65" s="24" t="s">
         <v>4</v>
@@ -13604,7 +13599,7 @@
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B66" s="24" t="s">
         <v>4</v>
@@ -13643,10 +13638,10 @@
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C67" s="9" t="s">
         <v>74</v>
@@ -13686,10 +13681,10 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B68" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C68" s="9" t="s">
         <v>74</v>
@@ -13729,10 +13724,10 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B69" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C69" s="9" t="s">
         <v>74</v>
@@ -13772,10 +13767,10 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B70" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C70" s="9" t="s">
         <v>74</v>
@@ -13817,10 +13812,10 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B71" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C71" s="9" t="s">
         <v>74</v>
@@ -13860,10 +13855,10 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C72" s="9" t="s">
         <v>74</v>
@@ -13903,10 +13898,10 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C73" s="9" t="s">
         <v>74</v>
@@ -13948,10 +13943,10 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C74" s="9" t="s">
         <v>74</v>
@@ -13993,10 +13988,10 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C75" s="9" t="s">
         <v>74</v>
@@ -14038,10 +14033,10 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B76" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C76" s="9" t="s">
         <v>74</v>
@@ -14083,10 +14078,10 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B77" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C77" s="9" t="s">
         <v>74</v>
@@ -14128,10 +14123,10 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C78" s="9" t="s">
         <v>74</v>
@@ -14173,10 +14168,10 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C79" s="9" t="s">
         <v>74</v>
@@ -14216,10 +14211,10 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C80" s="9" t="s">
         <v>74</v>
@@ -14246,16 +14241,16 @@
         <v>37</v>
       </c>
       <c r="K80" s="22" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="L80" s="22"/>
       <c r="M80" s="22"/>
       <c r="N80" s="22"/>
       <c r="O80" s="23" t="s">
+        <v>825</v>
+      </c>
+      <c r="P80" s="23" t="s">
         <v>826</v>
-      </c>
-      <c r="P80" s="23" t="s">
-        <v>827</v>
       </c>
       <c r="Q80" s="22">
         <v>1200</v>
@@ -14267,15 +14262,15 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C81" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D81" s="36" t="s">
+      <c r="D81" s="37" t="s">
         <v>42</v>
       </c>
       <c r="E81" s="9" t="s">
@@ -14302,23 +14297,25 @@
       <c r="N81" s="22"/>
       <c r="O81" s="23"/>
       <c r="P81" s="23"/>
-      <c r="Q81" s="22"/>
+      <c r="Q81" s="22">
+        <v>1000</v>
+      </c>
       <c r="R81" s="22">
         <f>Table4[[#This Row],[Cost]]-Table4[[#This Row],[Actual cost]]</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C82" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D82" s="36" t="s">
+      <c r="D82" s="37" t="s">
         <v>43</v>
       </c>
       <c r="E82" s="9" t="s">
@@ -14345,15 +14342,17 @@
       <c r="N82" s="22"/>
       <c r="O82" s="23"/>
       <c r="P82" s="23"/>
-      <c r="Q82" s="22"/>
+      <c r="Q82" s="22">
+        <v>4000</v>
+      </c>
       <c r="R82" s="22">
         <f>Table4[[#This Row],[Cost]]-Table4[[#This Row],[Actual cost]]</f>
-        <v>2000</v>
+        <v>-2000</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B83" s="21" t="s">
         <v>1</v>
@@ -14394,7 +14393,7 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B84" s="21" t="s">
         <v>1</v>
@@ -14435,7 +14434,7 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B85" s="21" t="s">
         <v>1</v>
@@ -14476,7 +14475,7 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B86" s="21" t="s">
         <v>1</v>
@@ -14517,7 +14516,7 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>1</v>
@@ -14558,7 +14557,7 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B88" s="21" t="s">
         <v>1</v>
@@ -14599,7 +14598,7 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B89" s="21" t="s">
         <v>1</v>
@@ -14640,7 +14639,7 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B90" s="21" t="s">
         <v>1</v>
@@ -14681,7 +14680,7 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B91" s="21" t="s">
         <v>1</v>
@@ -14722,7 +14721,7 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B92" s="21" t="s">
         <v>1</v>
@@ -14763,13 +14762,13 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B93" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C93" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D93" s="9" t="s">
         <v>587</v>
@@ -14793,16 +14792,16 @@
         <v>37</v>
       </c>
       <c r="K93" s="22" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="L93" s="22" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="M93" s="22"/>
       <c r="N93" s="22"/>
       <c r="O93" s="23"/>
       <c r="P93" s="23" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="Q93" s="22">
         <v>5882</v>
@@ -14814,10 +14813,10 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C94" s="9" t="s">
         <v>583</v>
@@ -14856,7 +14855,7 @@
         <v>782</v>
       </c>
       <c r="O94" s="23" t="s">
-        <v>804</v>
+        <v>860</v>
       </c>
       <c r="P94" s="23"/>
       <c r="Q94" s="22"/>
@@ -14867,7 +14866,7 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B95" s="21" t="s">
         <v>579</v>
@@ -14902,7 +14901,7 @@
         <v>799</v>
       </c>
       <c r="P95" s="23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Q95" s="22"/>
       <c r="R95" s="22">
@@ -14912,7 +14911,7 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B96" s="21" t="s">
         <v>5</v>
@@ -14953,7 +14952,7 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B97" s="21" t="s">
         <v>0</v>
@@ -14990,7 +14989,7 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B98" s="24" t="s">
         <v>641</v>
@@ -15029,7 +15028,7 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B99" s="24" t="s">
         <v>641</v>
@@ -15068,7 +15067,7 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B100" s="24" t="s">
         <v>664</v>
@@ -15107,7 +15106,7 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B101" s="24" t="s">
         <v>664</v>
@@ -15146,7 +15145,7 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B102" s="24" t="s">
         <v>664</v>
@@ -15185,7 +15184,7 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B103" s="24" t="s">
         <v>664</v>
@@ -15224,10 +15223,10 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B104" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C104" s="9" t="s">
         <v>585</v>
@@ -15254,7 +15253,7 @@
         <v>37</v>
       </c>
       <c r="K104" s="22" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L104" s="22"/>
       <c r="M104" s="22"/>
@@ -15271,7 +15270,7 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B105" s="21" t="s">
         <v>565</v>
@@ -15314,7 +15313,7 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B106" s="21" t="s">
         <v>108</v>
@@ -15351,7 +15350,7 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B107" s="24" t="s">
         <v>3</v>
@@ -15390,10 +15389,10 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B108" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C108" s="9" t="s">
         <v>74</v>
@@ -15408,7 +15407,7 @@
         <v>2019</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H108" s="9" t="s">
         <v>559</v>
@@ -15417,7 +15416,7 @@
         <v>3000</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K108" s="22"/>
       <c r="L108" s="22"/>
@@ -15433,10 +15432,10 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C109" s="9" t="s">
         <v>74</v>
@@ -15451,7 +15450,7 @@
         <v>2019</v>
       </c>
       <c r="G109" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H109" s="9" t="s">
         <v>559</v>
@@ -15460,7 +15459,7 @@
         <v>2500</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K109" s="22"/>
       <c r="L109" s="22"/>
@@ -15476,10 +15475,10 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C110" s="9" t="s">
         <v>74</v>
@@ -15494,7 +15493,7 @@
         <v>2019</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H110" s="9" t="s">
         <v>559</v>
@@ -15503,7 +15502,7 @@
         <v>3000</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K110" s="22"/>
       <c r="L110" s="22"/>
@@ -15519,10 +15518,10 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C111" s="9" t="s">
         <v>74</v>
@@ -15537,7 +15536,7 @@
         <v>2019</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H111" s="9" t="s">
         <v>559</v>
@@ -15546,7 +15545,7 @@
         <v>3000</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="K111" s="22"/>
       <c r="L111" s="22"/>
@@ -15562,7 +15561,7 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B112" s="21" t="s">
         <v>5</v>
@@ -15603,7 +15602,7 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B113" s="21" t="s">
         <v>592</v>
@@ -15642,7 +15641,7 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B114" s="21" t="s">
         <v>663</v>
@@ -15681,7 +15680,7 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B115" s="24" t="s">
         <v>641</v>
@@ -15720,7 +15719,7 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B116" s="24" t="s">
         <v>641</v>
@@ -15759,7 +15758,7 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B117" s="24" t="s">
         <v>641</v>
@@ -15798,7 +15797,7 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B118" s="24" t="s">
         <v>664</v>
@@ -15837,7 +15836,7 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B119" s="24" t="s">
         <v>664</v>
@@ -15876,7 +15875,7 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B120" s="24" t="s">
         <v>664</v>
@@ -15915,7 +15914,7 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B121" s="24" t="s">
         <v>664</v>
@@ -15954,7 +15953,7 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B122" s="24" t="s">
         <v>664</v>
@@ -15993,7 +15992,7 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B123" s="24" t="s">
         <v>664</v>
@@ -16032,7 +16031,7 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B124" s="24" t="s">
         <v>664</v>
@@ -16071,7 +16070,7 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B125" s="24" t="s">
         <v>3</v>
@@ -16110,10 +16109,10 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B126" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C126" s="9" t="s">
         <v>583</v>
@@ -16149,10 +16148,10 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B127" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C127" s="9" t="s">
         <v>584</v>
@@ -16188,10 +16187,10 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B128" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C128" s="9" t="s">
         <v>588</v>
@@ -16206,7 +16205,7 @@
         <v>2019</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H128" s="9" t="s">
         <v>559</v>
@@ -16231,7 +16230,7 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B129" s="21" t="s">
         <v>5</v>
@@ -16272,7 +16271,7 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B130" s="24" t="s">
         <v>641</v>
@@ -16311,7 +16310,7 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B131" s="24" t="s">
         <v>664</v>
@@ -16350,7 +16349,7 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B132" s="24" t="s">
         <v>664</v>
@@ -16389,7 +16388,7 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B133" s="24" t="s">
         <v>664</v>
@@ -16428,7 +16427,7 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B134" s="24" t="s">
         <v>664</v>
@@ -16467,7 +16466,7 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B135" s="24" t="s">
         <v>664</v>
@@ -16506,7 +16505,7 @@
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B136" s="24" t="s">
         <v>664</v>
@@ -16545,10 +16544,10 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B137" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C137" s="9" t="s">
         <v>584</v>
@@ -16563,7 +16562,7 @@
         <v>2019</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H137" s="9" t="s">
         <v>560</v>
@@ -16588,10 +16587,10 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B138" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C138" s="9" t="s">
         <v>583</v>
@@ -16621,10 +16620,10 @@
         <v>800</v>
       </c>
       <c r="L138" s="22" t="s">
+        <v>810</v>
+      </c>
+      <c r="M138" s="22" t="s">
         <v>811</v>
-      </c>
-      <c r="M138" s="22" t="s">
-        <v>812</v>
       </c>
       <c r="N138" s="22" t="s">
         <v>801</v>
@@ -16641,7 +16640,7 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B139" s="21" t="s">
         <v>108</v>
@@ -16678,7 +16677,7 @@
     </row>
     <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B140" s="21" t="s">
         <v>5</v>
@@ -16719,7 +16718,7 @@
     </row>
     <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B141" s="24" t="s">
         <v>641</v>
@@ -16758,7 +16757,7 @@
     </row>
     <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B142" s="24" t="s">
         <v>664</v>
@@ -16797,7 +16796,7 @@
     </row>
     <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B143" s="24" t="s">
         <v>664</v>
@@ -16836,7 +16835,7 @@
     </row>
     <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B144" s="24" t="s">
         <v>664</v>
@@ -16875,7 +16874,7 @@
     </row>
     <row r="145" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A145" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B145" s="24" t="s">
         <v>664</v>
@@ -16914,7 +16913,7 @@
     </row>
     <row r="146" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A146" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B146" s="24" t="s">
         <v>664</v>
@@ -16953,7 +16952,7 @@
     </row>
     <row r="147" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A147" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B147" s="21" t="s">
         <v>5</v>
@@ -16994,7 +16993,7 @@
     </row>
     <row r="148" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A148" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B148" s="24" t="s">
         <v>641</v>
@@ -17033,7 +17032,7 @@
     </row>
     <row r="149" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A149" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B149" s="24" t="s">
         <v>664</v>
@@ -17072,7 +17071,7 @@
     </row>
     <row r="150" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A150" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B150" s="24" t="s">
         <v>664</v>
@@ -17111,7 +17110,7 @@
     </row>
     <row r="151" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A151" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B151" s="24" t="s">
         <v>664</v>
@@ -17150,7 +17149,7 @@
     </row>
     <row r="152" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A152" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B152" s="24" t="s">
         <v>664</v>
@@ -17189,7 +17188,7 @@
     </row>
     <row r="153" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A153" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B153" s="24" t="s">
         <v>664</v>
@@ -17228,7 +17227,7 @@
     </row>
     <row r="154" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A154" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B154" s="24" t="s">
         <v>664</v>
@@ -17267,7 +17266,7 @@
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A155" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B155" s="24" t="s">
         <v>664</v>
@@ -17306,10 +17305,10 @@
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A156" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B156" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C156" s="9" t="s">
         <v>584</v>
@@ -17345,7 +17344,7 @@
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A157" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B157" s="21" t="s">
         <v>108</v>
@@ -17382,7 +17381,7 @@
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A158" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B158" s="24" t="s">
         <v>641</v>
@@ -17421,7 +17420,7 @@
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A159" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B159" s="24" t="s">
         <v>641</v>
@@ -17460,7 +17459,7 @@
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A160" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B160" s="24" t="s">
         <v>641</v>
@@ -17486,7 +17485,7 @@
         <v>87</v>
       </c>
       <c r="K160" s="35" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="L160" s="22"/>
       <c r="M160" s="22"/>
@@ -17501,7 +17500,7 @@
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A161" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B161" s="24" t="s">
         <v>3</v>
@@ -17540,7 +17539,7 @@
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A162" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B162" s="21" t="s">
         <v>5</v>
@@ -17581,7 +17580,7 @@
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A163" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B163" s="21" t="s">
         <v>592</v>
@@ -17620,7 +17619,7 @@
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B164" s="21" t="s">
         <v>663</v>
@@ -17659,7 +17658,7 @@
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B165" s="24" t="s">
         <v>641</v>
@@ -17698,7 +17697,7 @@
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B166" s="24" t="s">
         <v>641</v>
@@ -17737,7 +17736,7 @@
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A167" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B167" s="24" t="s">
         <v>641</v>
@@ -17776,7 +17775,7 @@
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A168" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B168" s="24" t="s">
         <v>664</v>
@@ -17815,7 +17814,7 @@
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A169" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B169" s="24" t="s">
         <v>664</v>
@@ -17854,7 +17853,7 @@
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A170" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B170" s="24" t="s">
         <v>664</v>
@@ -17893,7 +17892,7 @@
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A171" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B171" s="24" t="s">
         <v>664</v>
@@ -17932,7 +17931,7 @@
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A172" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B172" s="24" t="s">
         <v>664</v>
@@ -17971,7 +17970,7 @@
     </row>
     <row r="173" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A173" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B173" s="24" t="s">
         <v>664</v>
@@ -18010,10 +18009,10 @@
     </row>
     <row r="174" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A174" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B174" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C174" s="9" t="s">
         <v>95</v>
@@ -18051,10 +18050,10 @@
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A175" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B175" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C175" s="9" t="s">
         <v>95</v>
@@ -18092,10 +18091,10 @@
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A176" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B176" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C176" s="9" t="s">
         <v>95</v>
@@ -18133,10 +18132,10 @@
     </row>
     <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B177" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C177" s="9" t="s">
         <v>95</v>
@@ -18174,10 +18173,10 @@
     </row>
     <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B178" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C178" s="9" t="s">
         <v>95</v>
@@ -18215,10 +18214,10 @@
     </row>
     <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B179" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C179" s="9" t="s">
         <v>95</v>
@@ -18256,10 +18255,10 @@
     </row>
     <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B180" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C180" s="9" t="s">
         <v>584</v>
@@ -18274,7 +18273,7 @@
         <v>2019</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="H180" s="9" t="s">
         <v>559</v>
@@ -18299,7 +18298,7 @@
     </row>
     <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B181" s="21" t="s">
         <v>5</v>
@@ -18340,7 +18339,7 @@
     </row>
     <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B182" s="24" t="s">
         <v>641</v>
@@ -18379,7 +18378,7 @@
     </row>
     <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B183" s="24" t="s">
         <v>664</v>
@@ -18418,7 +18417,7 @@
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B184" s="24" t="s">
         <v>664</v>
@@ -18457,7 +18456,7 @@
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B185" s="24" t="s">
         <v>664</v>
@@ -18496,7 +18495,7 @@
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B186" s="24" t="s">
         <v>664</v>
@@ -18535,7 +18534,7 @@
     </row>
     <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B187" s="24" t="s">
         <v>664</v>
@@ -18574,7 +18573,7 @@
     </row>
     <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B188" s="24" t="s">
         <v>664</v>
@@ -18613,7 +18612,7 @@
     </row>
     <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B189" s="24" t="s">
         <v>664</v>
@@ -18652,7 +18651,7 @@
     </row>
     <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B190" s="24" t="s">
         <v>664</v>
@@ -18691,7 +18690,7 @@
     </row>
     <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B191" s="24" t="s">
         <v>3</v>
@@ -18730,10 +18729,10 @@
     </row>
     <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B192" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C192" s="9" t="s">
         <v>95</v>
@@ -18771,10 +18770,10 @@
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A193" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B193" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C193" s="9" t="s">
         <v>95</v>
@@ -18812,10 +18811,10 @@
     </row>
     <row r="194" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A194" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B194" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C194" s="9" t="s">
         <v>95</v>
@@ -18853,10 +18852,10 @@
     </row>
     <row r="195" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A195" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B195" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C195" s="9" t="s">
         <v>95</v>
@@ -18894,10 +18893,10 @@
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A196" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B196" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C196" s="9" t="s">
         <v>95</v>
@@ -18935,10 +18934,10 @@
     </row>
     <row r="197" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A197" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B197" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C197" s="9" t="s">
         <v>95</v>
@@ -18976,10 +18975,10 @@
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A198" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B198" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C198" s="9" t="s">
         <v>95</v>
@@ -19017,10 +19016,10 @@
     </row>
     <row r="199" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A199" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B199" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C199" s="9" t="s">
         <v>95</v>
@@ -19058,10 +19057,10 @@
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A200" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B200" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C200" s="9" t="s">
         <v>95</v>
@@ -19099,10 +19098,10 @@
     </row>
     <row r="201" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A201" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B201" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C201" s="9" t="s">
         <v>95</v>
@@ -19140,7 +19139,7 @@
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A202" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B202" s="21" t="s">
         <v>108</v>
@@ -19177,7 +19176,7 @@
     </row>
     <row r="203" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A203" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B203" s="24" t="s">
         <v>641</v>
@@ -19216,7 +19215,7 @@
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A204" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B204" s="24" t="s">
         <v>664</v>
@@ -19255,7 +19254,7 @@
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A205" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B205" s="24" t="s">
         <v>664</v>
@@ -19294,7 +19293,7 @@
     </row>
     <row r="206" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A206" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B206" s="24" t="s">
         <v>664</v>
@@ -19333,7 +19332,7 @@
     </row>
     <row r="207" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A207" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B207" s="24" t="s">
         <v>664</v>
@@ -19372,7 +19371,7 @@
     </row>
     <row r="208" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A208" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B208" s="24" t="s">
         <v>664</v>
@@ -19411,7 +19410,7 @@
     </row>
     <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B209" s="24" t="s">
         <v>664</v>
@@ -19450,7 +19449,7 @@
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B210" s="24" t="s">
         <v>664</v>
@@ -19489,7 +19488,7 @@
     </row>
     <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B211" s="24" t="s">
         <v>664</v>
@@ -19528,10 +19527,10 @@
     </row>
     <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B212" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C212" s="9" t="s">
         <v>95</v>
@@ -19571,10 +19570,10 @@
     </row>
     <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B213" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C213" s="9" t="s">
         <v>95</v>
@@ -19614,10 +19613,10 @@
     </row>
     <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B214" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C214" s="9" t="s">
         <v>95</v>
@@ -19657,10 +19656,10 @@
     </row>
     <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B215" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C215" s="9" t="s">
         <v>95</v>
@@ -19700,7 +19699,7 @@
     </row>
     <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B216" s="24" t="s">
         <v>641</v>
@@ -19739,7 +19738,7 @@
     </row>
     <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B217" s="24" t="s">
         <v>664</v>
@@ -19778,7 +19777,7 @@
     </row>
     <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B218" s="24" t="s">
         <v>664</v>
@@ -19817,7 +19816,7 @@
     </row>
     <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B219" s="24" t="s">
         <v>664</v>
@@ -19856,7 +19855,7 @@
     </row>
     <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B220" s="24" t="s">
         <v>664</v>
@@ -19895,7 +19894,7 @@
     </row>
     <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B221" s="21" t="s">
         <v>108</v>
@@ -19932,7 +19931,7 @@
     </row>
     <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B222" s="24" t="s">
         <v>641</v>
@@ -19971,7 +19970,7 @@
     </row>
     <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B223" s="24" t="s">
         <v>762</v>
@@ -20010,10 +20009,10 @@
     </row>
     <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B224" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C224" s="9" t="s">
         <v>95</v>
@@ -20053,10 +20052,10 @@
     </row>
     <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B225" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C225" s="9" t="s">
         <v>95</v>
@@ -20096,10 +20095,10 @@
     </row>
     <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B226" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C226" s="9" t="s">
         <v>95</v>
@@ -20139,10 +20138,10 @@
     </row>
     <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B227" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C227" s="9" t="s">
         <v>95</v>
@@ -20182,10 +20181,10 @@
     </row>
     <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B228" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C228" s="9" t="s">
         <v>95</v>
@@ -20225,10 +20224,10 @@
     </row>
     <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B229" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C229" s="9" t="s">
         <v>95</v>
@@ -20266,10 +20265,10 @@
     </row>
     <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B230" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C230" s="9" t="s">
         <v>95</v>
@@ -20307,7 +20306,7 @@
     </row>
     <row r="231" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B231" s="21" t="s">
         <v>592</v>
@@ -20346,7 +20345,7 @@
     </row>
     <row r="232" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B232" s="21" t="s">
         <v>663</v>
@@ -20385,7 +20384,7 @@
     </row>
     <row r="233" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B233" s="24" t="s">
         <v>641</v>
@@ -20424,7 +20423,7 @@
     </row>
     <row r="234" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B234" s="24" t="s">
         <v>664</v>
@@ -20463,7 +20462,7 @@
     </row>
     <row r="235" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B235" s="24" t="s">
         <v>664</v>
@@ -20502,7 +20501,7 @@
     </row>
     <row r="236" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B236" s="24" t="s">
         <v>664</v>
@@ -20541,7 +20540,7 @@
     </row>
     <row r="237" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B237" s="24" t="s">
         <v>664</v>
@@ -20580,7 +20579,7 @@
     </row>
     <row r="238" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B238" s="24" t="s">
         <v>664</v>
@@ -20619,7 +20618,7 @@
     </row>
     <row r="239" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B239" s="24" t="s">
         <v>664</v>
@@ -20658,10 +20657,10 @@
     </row>
     <row r="240" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B240" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C240" s="9" t="s">
         <v>583</v>
@@ -20697,10 +20696,10 @@
     </row>
     <row r="241" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B241" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C241" s="9" t="s">
         <v>588</v>
@@ -20740,10 +20739,10 @@
     </row>
     <row r="242" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B242" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C242" s="9" t="s">
         <v>95</v>
@@ -20783,10 +20782,10 @@
     </row>
     <row r="243" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B243" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C243" s="9" t="s">
         <v>95</v>
@@ -20824,10 +20823,10 @@
     </row>
     <row r="244" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B244" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C244" s="9" t="s">
         <v>95</v>
@@ -20865,10 +20864,10 @@
     </row>
     <row r="245" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B245" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C245" s="9" t="s">
         <v>95</v>
@@ -20906,10 +20905,10 @@
     </row>
     <row r="246" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="33" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B246" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C246" s="9" t="s">
         <v>95</v>
@@ -20947,7 +20946,7 @@
     </row>
     <row r="247" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B247" s="24" t="s">
         <v>641</v>
@@ -20986,10 +20985,10 @@
     </row>
     <row r="248" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B248" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C248" s="9" t="s">
         <v>583</v>
@@ -21039,7 +21038,7 @@
     </row>
     <row r="249" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B249" s="21" t="s">
         <v>108</v>
@@ -21076,7 +21075,7 @@
     </row>
     <row r="250" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B250" s="24" t="s">
         <v>641</v>
@@ -21115,7 +21114,7 @@
     </row>
     <row r="251" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B251" s="24" t="s">
         <v>641</v>
@@ -21154,7 +21153,7 @@
     </row>
     <row r="252" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B252" s="21" t="s">
         <v>108</v>
@@ -21191,7 +21190,7 @@
     </row>
     <row r="253" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B253" s="24" t="s">
         <v>641</v>
@@ -21230,7 +21229,7 @@
     </row>
     <row r="254" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B254" s="24" t="s">
         <v>641</v>
@@ -21269,7 +21268,7 @@
     </row>
     <row r="255" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B255" s="21" t="s">
         <v>592</v>
@@ -21308,7 +21307,7 @@
     </row>
     <row r="256" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B256" s="21" t="s">
         <v>663</v>
@@ -21347,7 +21346,7 @@
     </row>
     <row r="257" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B257" s="24" t="s">
         <v>641</v>
@@ -21386,7 +21385,7 @@
     </row>
     <row r="258" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B258" s="21" t="s">
         <v>565</v>
@@ -21429,7 +21428,7 @@
     </row>
     <row r="259" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B259" s="24" t="s">
         <v>641</v>
@@ -21468,10 +21467,10 @@
     </row>
     <row r="260" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B260" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C260" s="9" t="s">
         <v>588</v>
@@ -21511,7 +21510,7 @@
     </row>
     <row r="261" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B261" s="21" t="s">
         <v>108</v>
@@ -21548,7 +21547,7 @@
     </row>
     <row r="262" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B262" s="24" t="s">
         <v>641</v>
@@ -21587,7 +21586,7 @@
     </row>
     <row r="263" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B263" s="24" t="s">
         <v>641</v>
@@ -21626,7 +21625,7 @@
     </row>
     <row r="264" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B264" s="21" t="s">
         <v>108</v>
@@ -21663,7 +21662,7 @@
     </row>
     <row r="265" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B265" s="21" t="s">
         <v>592</v>
@@ -21702,7 +21701,7 @@
     </row>
     <row r="266" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B266" s="21" t="s">
         <v>663</v>
@@ -21741,7 +21740,7 @@
     </row>
     <row r="267" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B267" s="24" t="s">
         <v>641</v>
@@ -21780,7 +21779,7 @@
     </row>
     <row r="268" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B268" s="24" t="s">
         <v>641</v>
@@ -21819,7 +21818,7 @@
     </row>
     <row r="269" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B269" s="21" t="s">
         <v>108</v>
@@ -21856,7 +21855,7 @@
     </row>
     <row r="270" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B270" s="24" t="s">
         <v>641</v>
@@ -21895,7 +21894,7 @@
     </row>
     <row r="271" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B271" s="24" t="s">
         <v>641</v>
@@ -21934,7 +21933,7 @@
     </row>
     <row r="272" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B272" s="21" t="s">
         <v>108</v>
@@ -21971,7 +21970,7 @@
     </row>
     <row r="273" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B273" s="21" t="s">
         <v>592</v>
@@ -22010,7 +22009,7 @@
     </row>
     <row r="274" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B274" s="21" t="s">
         <v>663</v>
@@ -22049,7 +22048,7 @@
     </row>
     <row r="275" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B275" s="24" t="s">
         <v>641</v>
@@ -22088,7 +22087,7 @@
     </row>
     <row r="276" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B276" s="24" t="s">
         <v>641</v>
@@ -22127,7 +22126,7 @@
     </row>
     <row r="277" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B277" s="21" t="s">
         <v>108</v>
@@ -22164,7 +22163,7 @@
     </row>
     <row r="278" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B278" s="24" t="s">
         <v>641</v>
@@ -22203,7 +22202,7 @@
     </row>
     <row r="279" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B279" s="21" t="s">
         <v>108</v>
@@ -22240,7 +22239,7 @@
     </row>
     <row r="280" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B280" s="21" t="s">
         <v>592</v>
@@ -22279,7 +22278,7 @@
     </row>
     <row r="281" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B281" s="21" t="s">
         <v>663</v>
@@ -22318,10 +22317,10 @@
     </row>
     <row r="282" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B282" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C282" s="9" t="s">
         <v>99</v>
@@ -22359,10 +22358,10 @@
     </row>
     <row r="283" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B283" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C283" s="9" t="s">
         <v>99</v>
@@ -22400,10 +22399,10 @@
     </row>
     <row r="284" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B284" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C284" s="9" t="s">
         <v>99</v>
@@ -22441,10 +22440,10 @@
     </row>
     <row r="285" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B285" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C285" s="9" t="s">
         <v>99</v>
@@ -22482,10 +22481,10 @@
     </row>
     <row r="286" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B286" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C286" s="9" t="s">
         <v>99</v>
@@ -22523,10 +22522,10 @@
     </row>
     <row r="287" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B287" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C287" s="9" t="s">
         <v>99</v>
@@ -22564,7 +22563,7 @@
     </row>
     <row r="288" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B288" s="21" t="s">
         <v>108</v>
@@ -22601,10 +22600,10 @@
     </row>
     <row r="289" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B289" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C289" s="9" t="s">
         <v>99</v>
@@ -22642,10 +22641,10 @@
     </row>
     <row r="290" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B290" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C290" s="9" t="s">
         <v>99</v>
@@ -22683,7 +22682,7 @@
     </row>
     <row r="291" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B291" s="21" t="s">
         <v>108</v>
@@ -22720,7 +22719,7 @@
     </row>
     <row r="292" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="33" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B292" s="21" t="s">
         <v>101</v>
@@ -22761,10 +22760,10 @@
     </row>
     <row r="293" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B293" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C293" s="9" t="s">
         <v>585</v>
@@ -22804,10 +22803,10 @@
     </row>
     <row r="294" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B294" s="21" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C294" s="9" t="s">
         <v>99</v>
@@ -22845,7 +22844,7 @@
     </row>
     <row r="295" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B295" s="21" t="s">
         <v>592</v>
@@ -22884,7 +22883,7 @@
     </row>
     <row r="296" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B296" s="21" t="s">
         <v>663</v>
@@ -22923,7 +22922,7 @@
     </row>
     <row r="297" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B297" s="21" t="s">
         <v>108</v>
@@ -22960,7 +22959,7 @@
     </row>
     <row r="298" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B298" s="21" t="s">
         <v>108</v>
@@ -22997,7 +22996,7 @@
     </row>
     <row r="299" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="33" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B299" s="21" t="s">
         <v>108</v>
@@ -23034,7 +23033,7 @@
     </row>
     <row r="300" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B300" s="21" t="s">
         <v>101</v>
@@ -23075,10 +23074,10 @@
     </row>
     <row r="301" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B301" s="21" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C301" s="9" t="s">
         <v>585</v>
@@ -23118,7 +23117,7 @@
     </row>
     <row r="302" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B302" s="21" t="s">
         <v>592</v>
@@ -23157,7 +23156,7 @@
     </row>
     <row r="303" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B303" s="21" t="s">
         <v>663</v>
@@ -23196,7 +23195,7 @@
     </row>
     <row r="304" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B304" s="21" t="s">
         <v>108</v>
@@ -23233,7 +23232,7 @@
     </row>
     <row r="305" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="9" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B305" s="21" t="s">
         <v>108</v>
@@ -23270,7 +23269,7 @@
     </row>
     <row r="306" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B306" s="21" t="s">
         <v>565</v>
@@ -23311,7 +23310,7 @@
     </row>
     <row r="307" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B307" s="21" t="s">
         <v>565</v>
@@ -23344,7 +23343,7 @@
       <c r="N307" s="22"/>
       <c r="O307" s="23"/>
       <c r="P307" s="23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Q307" s="22"/>
       <c r="R307" s="22">
@@ -23354,7 +23353,7 @@
     </row>
     <row r="308" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B308" s="21" t="s">
         <v>565</v>
@@ -23387,7 +23386,7 @@
       <c r="N308" s="22"/>
       <c r="O308" s="23"/>
       <c r="P308" s="23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Q308" s="22"/>
       <c r="R308" s="22">
@@ -23397,7 +23396,7 @@
     </row>
     <row r="309" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B309" s="21" t="s">
         <v>565</v>
@@ -23430,7 +23429,7 @@
       <c r="N309" s="22"/>
       <c r="O309" s="23"/>
       <c r="P309" s="23" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="Q309" s="22"/>
       <c r="R309" s="22">
@@ -23440,7 +23439,7 @@
     </row>
     <row r="310" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B310" s="21" t="s">
         <v>565</v>
@@ -23481,7 +23480,7 @@
     </row>
     <row r="311" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B311" s="21" t="s">
         <v>565</v>
@@ -23520,7 +23519,7 @@
     </row>
     <row r="312" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B312" s="21" t="s">
         <v>565</v>
@@ -23559,7 +23558,7 @@
     </row>
     <row r="313" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B313" s="21" t="s">
         <v>565</v>
@@ -23598,7 +23597,7 @@
     </row>
     <row r="314" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B314" s="21" t="s">
         <v>579</v>
@@ -23639,7 +23638,7 @@
     </row>
     <row r="315" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B315" s="21" t="s">
         <v>101</v>
@@ -23680,7 +23679,7 @@
     </row>
     <row r="316" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B316" s="21" t="s">
         <v>592</v>
@@ -23719,7 +23718,7 @@
     </row>
     <row r="317" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="33" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B317" s="21" t="s">
         <v>663</v>
@@ -23758,7 +23757,7 @@
     </row>
     <row r="318" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B318" s="21" t="s">
         <v>101</v>
@@ -23799,7 +23798,7 @@
     </row>
     <row r="319" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B319" s="21" t="s">
         <v>592</v>
@@ -23838,7 +23837,7 @@
     </row>
     <row r="320" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B320" s="21" t="s">
         <v>592</v>
@@ -23877,7 +23876,7 @@
     </row>
     <row r="321" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B321" s="21" t="s">
         <v>592</v>
@@ -23916,7 +23915,7 @@
     </row>
     <row r="322" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="9" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B322" s="25" t="s">
         <v>565</v>
@@ -23967,11 +23966,11 @@
       </c>
       <c r="Q323">
         <f>SUBTOTAL(9,Q$1:Q322)</f>
-        <v>28379</v>
+        <v>33379</v>
       </c>
       <c r="R323">
         <f>SUBTOTAL(9,R$1:R322)</f>
-        <v>1981121</v>
+        <v>1976121</v>
       </c>
     </row>
     <row r="327" spans="1:18" x14ac:dyDescent="0.25">
@@ -24066,7 +24065,7 @@
   <dimension ref="B2:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24368,8 +24367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL211"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24640,7 +24639,7 @@
       <c r="T2" t="s">
         <v>487</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="38" t="s">
         <v>488</v>
       </c>
       <c r="V2" t="s">
@@ -31298,7 +31297,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B3" t="s">
         <v>587</v>
@@ -31362,19 +31361,19 @@
         <v>1</v>
       </c>
       <c r="F8" s="30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G8" t="s">
+        <v>807</v>
+      </c>
+      <c r="H8" t="s">
         <v>808</v>
-      </c>
-      <c r="H8" t="s">
-        <v>809</v>
       </c>
       <c r="I8" t="s">
         <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -31437,7 +31436,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="31" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G11" s="32">
         <v>1</v>
@@ -31497,7 +31496,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G14" s="32">
         <v>13</v>
@@ -31530,133 +31529,133 @@
         <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C2" t="s">
         <v>828</v>
-      </c>
-      <c r="C2" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B3" t="s">
+        <v>831</v>
+      </c>
+      <c r="C3" t="s">
         <v>832</v>
-      </c>
-      <c r="C3" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B4" t="s">
+        <v>833</v>
+      </c>
+      <c r="C4" t="s">
         <v>834</v>
-      </c>
-      <c r="C4" t="s">
-        <v>835</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B5" t="s">
+        <v>835</v>
+      </c>
+      <c r="C5" t="s">
         <v>836</v>
-      </c>
-      <c r="C5" t="s">
-        <v>837</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C6" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B7" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B8" t="s">
+        <v>843</v>
+      </c>
+      <c r="C8" t="s">
         <v>844</v>
-      </c>
-      <c r="C8" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B9" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B10" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B11" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B12" t="s">
+        <v>848</v>
+      </c>
+      <c r="C12" t="s">
         <v>849</v>
-      </c>
-      <c r="C12" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B13" t="s">
+        <v>850</v>
+      </c>
+      <c r="C13" t="s">
         <v>851</v>
-      </c>
-      <c r="C13" t="s">
-        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -31666,10 +31665,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:E14"/>
+  <dimension ref="B5:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31679,9 +31678,9 @@
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>590</v>
@@ -31690,7 +31689,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6" s="30" t="s">
         <v>85</v>
       </c>
@@ -31698,7 +31697,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C7" s="30" t="s">
         <v>98</v>
       </c>
@@ -31706,29 +31705,29 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C9" s="30" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D9" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E9" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10" s="31" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11" s="31" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="D11" s="32">
         <v>10049</v>
@@ -31736,19 +31735,23 @@
       <c r="E11" s="32">
         <v>40951</v>
       </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f>31000 + 4574 + 3039 + 3950 + 1850 + 4200 + 6180 + 4597</f>
+        <v>59390</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C12" s="31" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="32">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C13" s="31" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D13" s="32">
         <v>18330</v>
@@ -31757,9 +31760,9 @@
         <v>-330</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C14" s="31" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D14" s="32">
         <v>28379</v>
